--- a/DS 2017 Seed Support/DS 2017 SEED ALLOCATIONS revised.xlsx
+++ b/DS 2017 Seed Support/DS 2017 SEED ALLOCATIONS revised.xlsx
@@ -72,7 +72,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>BOHOL APC:</t>
         </r>
@@ -81,7 +81,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 transfer to Loon 36CS</t>
@@ -96,7 +96,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>BOHOL APC:</t>
         </r>
@@ -105,7 +105,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 transfer to Balilihan 13bags hybrid</t>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="88">
   <si>
     <t>RECONCILED DATA FOR RICE AREAS (HAS)</t>
   </si>
@@ -403,6 +403,9 @@
   <si>
     <t>11/14/16</t>
   </si>
+  <si>
+    <t>11/11/16</t>
+  </si>
 </sst>
 </file>
 
@@ -413,7 +416,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -453,19 +456,6 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -568,7 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -669,21 +659,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -733,19 +708,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1087,24 +1076,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="A1" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
     </row>
     <row r="2" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
       <c r="G2" s="4"/>
       <c r="I2" s="6"/>
       <c r="L2" s="6"/>
@@ -1121,19 +1110,19 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
@@ -1144,20 +1133,20 @@
         <v>5</v>
       </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1229,11 +1218,11 @@
       <c r="X7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Y7" s="78" t="s">
+      <c r="Y7" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="111"/>
     </row>
     <row r="8" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
@@ -4618,11 +4607,11 @@
   <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P18" sqref="P18"/>
+      <selection pane="bottomRight" activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4639,10 +4628,10 @@
     <col min="10" max="10" width="12.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="5.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="88" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="83" customWidth="1"/>
     <col min="14" max="14" width="5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="88" customWidth="1"/>
-    <col min="16" max="16" width="13" style="110" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="83" customWidth="1"/>
+    <col min="16" max="16" width="13" style="112" customWidth="1"/>
     <col min="17" max="18" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="24" width="9.140625" style="2"/>
     <col min="25" max="25" width="12" style="2" customWidth="1"/>
@@ -4652,30 +4641,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="A1" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
     </row>
     <row r="2" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
       <c r="G2" s="4"/>
       <c r="I2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="M2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="111"/>
+      <c r="M2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="113"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="58"/>
@@ -4689,19 +4678,19 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
@@ -4712,22 +4701,22 @@
         <v>5</v>
       </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -4736,50 +4725,50 @@
       <c r="I6" s="59"/>
       <c r="J6" s="59"/>
       <c r="K6" s="59"/>
-      <c r="L6" s="77" t="s">
+      <c r="L6" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77" t="s">
+      <c r="M6" s="110"/>
+      <c r="N6" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="O6" s="77"/>
-      <c r="P6" s="112"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="114"/>
       <c r="Q6" s="59"/>
       <c r="R6" s="59"/>
     </row>
     <row r="7" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="109" t="s">
+      <c r="I7" s="104" t="s">
         <v>79</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="109" t="s">
+      <c r="K7" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="79" t="s">
+      <c r="L7" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="M7" s="90" t="s">
+      <c r="M7" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="80" t="s">
+      <c r="N7" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="96" t="s">
+      <c r="O7" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="P7" s="113" t="s">
+      <c r="P7" s="105" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4818,16 +4807,16 @@
         <v>1670</v>
       </c>
       <c r="L8" s="19"/>
-      <c r="M8" s="91">
+      <c r="M8" s="86">
         <f>SUM(M9+M23+M38)</f>
         <v>47.924999999999997</v>
       </c>
       <c r="N8" s="19"/>
-      <c r="O8" s="91">
+      <c r="O8" s="86">
         <f>SUM(O9+O23+O38)</f>
         <v>88.2</v>
       </c>
-      <c r="P8" s="114"/>
+      <c r="P8" s="115"/>
       <c r="Q8" t="s">
         <v>9</v>
       </c>
@@ -4846,50 +4835,50 @@
       <c r="Z8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="78" t="s">
+      <c r="AA8" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="78"/>
+      <c r="AB8" s="111"/>
+      <c r="AC8" s="111"/>
     </row>
     <row r="9" spans="1:29" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="108">
+      <c r="B9" s="99"/>
+      <c r="C9" s="103">
         <v>12</v>
       </c>
-      <c r="D9" s="105">
+      <c r="D9" s="100">
         <v>1141.9625725706671</v>
       </c>
-      <c r="E9" s="105">
+      <c r="E9" s="100">
         <v>4227.5374274293326</v>
       </c>
-      <c r="F9" s="105">
+      <c r="F9" s="100">
         <v>5369.5</v>
       </c>
-      <c r="G9" s="106">
+      <c r="G9" s="101">
         <f>F9/47378</f>
         <v>0.11333319262104774</v>
       </c>
-      <c r="H9" s="107"/>
-      <c r="I9" s="101">
+      <c r="H9" s="102"/>
+      <c r="I9" s="96">
         <f>SUM(I11:I22)</f>
         <v>325</v>
       </c>
-      <c r="J9" s="107"/>
-      <c r="K9" s="101">
+      <c r="J9" s="102"/>
+      <c r="K9" s="96">
         <f>SUM(K11:K22)</f>
         <v>189</v>
       </c>
-      <c r="L9" s="107"/>
-      <c r="M9" s="101">
+      <c r="L9" s="102"/>
+      <c r="M9" s="96">
         <f>SUM(M11:M22)</f>
         <v>7</v>
       </c>
-      <c r="N9" s="107"/>
-      <c r="O9" s="101">
+      <c r="N9" s="102"/>
+      <c r="O9" s="96">
         <f>SUM(O11:O22)</f>
         <v>4</v>
       </c>
@@ -5016,12 +5005,12 @@
         <v>4</v>
       </c>
       <c r="L11" s="36"/>
-      <c r="M11" s="92">
+      <c r="M11" s="87">
         <f t="shared" ref="M11:M17" si="1">L11/40</f>
         <v>0</v>
       </c>
       <c r="N11" s="36"/>
-      <c r="O11" s="92">
+      <c r="O11" s="87">
         <f t="shared" ref="O11:O17" si="2">N11/15</f>
         <v>0</v>
       </c>
@@ -5071,12 +5060,12 @@
         <v>18</v>
       </c>
       <c r="L12" s="36"/>
-      <c r="M12" s="92">
+      <c r="M12" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="36"/>
-      <c r="O12" s="92">
+      <c r="O12" s="87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5126,12 +5115,12 @@
         <v>3</v>
       </c>
       <c r="L13" s="36"/>
-      <c r="M13" s="92">
+      <c r="M13" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="36"/>
-      <c r="O13" s="92">
+      <c r="O13" s="87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5171,14 +5160,17 @@
         <v>34</v>
       </c>
       <c r="L14" s="36"/>
-      <c r="M14" s="92">
+      <c r="M14" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N14" s="36"/>
-      <c r="O14" s="92">
+      <c r="O14" s="87">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+      <c r="P14" s="112" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -5217,12 +5209,12 @@
         <v>37</v>
       </c>
       <c r="L15" s="36"/>
-      <c r="M15" s="92">
+      <c r="M15" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N15" s="36"/>
-      <c r="O15" s="92">
+      <c r="O15" s="87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5263,12 +5255,12 @@
         <v>46</v>
       </c>
       <c r="L16" s="36"/>
-      <c r="M16" s="92">
+      <c r="M16" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N16" s="36"/>
-      <c r="O16" s="92">
+      <c r="O16" s="87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5309,12 +5301,12 @@
         <v>3</v>
       </c>
       <c r="L17" s="36"/>
-      <c r="M17" s="92">
+      <c r="M17" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N17" s="36"/>
-      <c r="O17" s="92">
+      <c r="O17" s="87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5357,16 +5349,19 @@
       <c r="L18" s="36">
         <v>280</v>
       </c>
-      <c r="M18" s="92">
+      <c r="M18" s="87">
         <f>L18/40</f>
         <v>7</v>
       </c>
       <c r="N18" s="36">
         <v>60</v>
       </c>
-      <c r="O18" s="92">
+      <c r="O18" s="87">
         <f>N18/15</f>
         <v>4</v>
+      </c>
+      <c r="P18" s="112" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -5404,12 +5399,12 @@
         <v>0</v>
       </c>
       <c r="L19" s="36"/>
-      <c r="M19" s="92">
+      <c r="M19" s="87">
         <f t="shared" ref="M19:M57" si="3">L19/40</f>
         <v>0</v>
       </c>
       <c r="N19" s="36"/>
-      <c r="O19" s="92">
+      <c r="O19" s="87">
         <f t="shared" ref="O19:O57" si="4">N19/15</f>
         <v>0</v>
       </c>
@@ -5450,12 +5445,12 @@
         <v>7</v>
       </c>
       <c r="L20" s="36"/>
-      <c r="M20" s="92">
+      <c r="M20" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N20" s="36"/>
-      <c r="O20" s="92">
+      <c r="O20" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5496,12 +5491,12 @@
         <v>9</v>
       </c>
       <c r="L21" s="36"/>
-      <c r="M21" s="92">
+      <c r="M21" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N21" s="36"/>
-      <c r="O21" s="92">
+      <c r="O21" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5542,55 +5537,55 @@
         <v>24</v>
       </c>
       <c r="L22" s="36"/>
-      <c r="M22" s="92">
+      <c r="M22" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N22" s="36"/>
-      <c r="O22" s="92">
+      <c r="O22" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="103" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="97" t="s">
+    <row r="23" spans="1:16" s="98" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98">
+      <c r="B23" s="93"/>
+      <c r="C23" s="93">
         <v>14</v>
       </c>
-      <c r="D23" s="99">
+      <c r="D23" s="94">
         <v>10693.111658894071</v>
       </c>
-      <c r="E23" s="99">
+      <c r="E23" s="94">
         <v>12058.398341105929</v>
       </c>
-      <c r="F23" s="99">
+      <c r="F23" s="94">
         <v>22751.510000000002</v>
       </c>
-      <c r="G23" s="100"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101">
+      <c r="G23" s="95"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96">
         <f>SUM(I24:I37)</f>
         <v>1390</v>
       </c>
-      <c r="J23" s="102"/>
-      <c r="K23" s="101">
+      <c r="J23" s="97"/>
+      <c r="K23" s="96">
         <f>SUM(K24:K37)</f>
         <v>801</v>
       </c>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101">
+      <c r="L23" s="96"/>
+      <c r="M23" s="96">
         <f>SUM(M24:M37)</f>
         <v>40.924999999999997</v>
       </c>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101">
+      <c r="N23" s="96"/>
+      <c r="O23" s="96">
         <f>SUM(O24:O37)</f>
         <v>29.2</v>
       </c>
-      <c r="P23" s="115"/>
+      <c r="P23" s="116"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="32"/>
@@ -5628,12 +5623,12 @@
         <v>32</v>
       </c>
       <c r="L24" s="36"/>
-      <c r="M24" s="92">
+      <c r="M24" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N24" s="36"/>
-      <c r="O24" s="92">
+      <c r="O24" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5674,12 +5669,12 @@
         <v>26</v>
       </c>
       <c r="L25" s="36"/>
-      <c r="M25" s="92">
+      <c r="M25" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N25" s="36"/>
-      <c r="O25" s="92">
+      <c r="O25" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5720,12 +5715,12 @@
         <v>11</v>
       </c>
       <c r="L26" s="36"/>
-      <c r="M26" s="92">
+      <c r="M26" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N26" s="36"/>
-      <c r="O26" s="92">
+      <c r="O26" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5766,12 +5761,12 @@
         <v>99</v>
       </c>
       <c r="L27" s="36"/>
-      <c r="M27" s="92">
+      <c r="M27" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N27" s="36"/>
-      <c r="O27" s="92">
+      <c r="O27" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5812,12 +5807,12 @@
         <v>25</v>
       </c>
       <c r="L28" s="36"/>
-      <c r="M28" s="92">
+      <c r="M28" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N28" s="36"/>
-      <c r="O28" s="92">
+      <c r="O28" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5858,68 +5853,68 @@
         <v>15</v>
       </c>
       <c r="L29" s="36"/>
-      <c r="M29" s="92">
+      <c r="M29" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N29" s="36"/>
-      <c r="O29" s="92">
+      <c r="O29" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="81"/>
-      <c r="B30" s="82">
+      <c r="A30" s="76"/>
+      <c r="B30" s="77">
         <v>7</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="83">
+      <c r="D30" s="78">
         <v>196.26625107071476</v>
       </c>
-      <c r="E30" s="83">
+      <c r="E30" s="78">
         <v>350.73374892928524</v>
       </c>
-      <c r="F30" s="83">
+      <c r="F30" s="78">
         <v>547</v>
       </c>
-      <c r="G30" s="84">
+      <c r="G30" s="79">
         <f t="shared" si="5"/>
         <v>1.154544303263118E-2</v>
       </c>
-      <c r="H30" s="85">
+      <c r="H30" s="80">
         <f t="shared" si="6"/>
         <v>33.389421250369374</v>
       </c>
-      <c r="I30" s="86">
+      <c r="I30" s="81">
         <v>33</v>
       </c>
-      <c r="J30" s="85">
+      <c r="J30" s="80">
         <f t="shared" si="7"/>
         <v>19.280889864494071</v>
       </c>
-      <c r="K30" s="86">
+      <c r="K30" s="81">
         <v>19</v>
       </c>
-      <c r="L30" s="86">
+      <c r="L30" s="81">
         <f>649+988</f>
         <v>1637</v>
       </c>
-      <c r="M30" s="86">
+      <c r="M30" s="81">
         <f t="shared" si="3"/>
         <v>40.924999999999997</v>
       </c>
-      <c r="N30" s="86">
+      <c r="N30" s="81">
         <f>240+198</f>
         <v>438</v>
       </c>
-      <c r="O30" s="86">
+      <c r="O30" s="81">
         <f t="shared" si="4"/>
         <v>29.2</v>
       </c>
-      <c r="P30" s="118" t="s">
+      <c r="P30" s="106" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5959,12 +5954,12 @@
         <v>11</v>
       </c>
       <c r="L31" s="36"/>
-      <c r="M31" s="92">
+      <c r="M31" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N31" s="36"/>
-      <c r="O31" s="92">
+      <c r="O31" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6005,12 +6000,12 @@
         <v>25</v>
       </c>
       <c r="L32" s="36"/>
-      <c r="M32" s="92">
+      <c r="M32" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N32" s="36"/>
-      <c r="O32" s="92">
+      <c r="O32" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6051,12 +6046,12 @@
         <v>14</v>
       </c>
       <c r="L33" s="36"/>
-      <c r="M33" s="92">
+      <c r="M33" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N33" s="36"/>
-      <c r="O33" s="92">
+      <c r="O33" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6097,12 +6092,12 @@
         <v>80</v>
       </c>
       <c r="L34" s="36"/>
-      <c r="M34" s="92">
+      <c r="M34" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N34" s="36"/>
-      <c r="O34" s="92">
+      <c r="O34" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6143,12 +6138,12 @@
         <v>96</v>
       </c>
       <c r="L35" s="36"/>
-      <c r="M35" s="92">
+      <c r="M35" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N35" s="36"/>
-      <c r="O35" s="92">
+      <c r="O35" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6189,12 +6184,12 @@
         <v>134</v>
       </c>
       <c r="L36" s="36"/>
-      <c r="M36" s="92">
+      <c r="M36" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N36" s="36"/>
-      <c r="O36" s="92">
+      <c r="O36" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6235,55 +6230,55 @@
         <v>214</v>
       </c>
       <c r="L37" s="36"/>
-      <c r="M37" s="92">
+      <c r="M37" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N37" s="36"/>
-      <c r="O37" s="92">
+      <c r="O37" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="97" t="s">
+      <c r="A38" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98">
+      <c r="B38" s="93"/>
+      <c r="C38" s="93">
         <v>19</v>
       </c>
-      <c r="D38" s="99">
+      <c r="D38" s="94">
         <v>11206.364352336535</v>
       </c>
-      <c r="E38" s="99">
+      <c r="E38" s="94">
         <v>8050.1356476634619</v>
       </c>
-      <c r="F38" s="99">
+      <c r="F38" s="94">
         <v>19256.5</v>
       </c>
-      <c r="G38" s="100"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="101">
+      <c r="G38" s="95"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="96">
         <f>SUM(I39:I57)</f>
         <v>1177</v>
       </c>
-      <c r="J38" s="102"/>
-      <c r="K38" s="101">
+      <c r="J38" s="97"/>
+      <c r="K38" s="96">
         <f>SUM(K39:K57)</f>
         <v>680</v>
       </c>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101">
+      <c r="L38" s="96"/>
+      <c r="M38" s="96">
         <f>SUM(M39:M57)</f>
         <v>0</v>
       </c>
-      <c r="N38" s="101"/>
-      <c r="O38" s="101">
+      <c r="N38" s="96"/>
+      <c r="O38" s="96">
         <f>SUM(O39:O57)</f>
         <v>55</v>
       </c>
-      <c r="P38" s="110"/>
+      <c r="P38" s="112"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="32"/>
@@ -6321,12 +6316,12 @@
         <v>78</v>
       </c>
       <c r="L39" s="36"/>
-      <c r="M39" s="92">
+      <c r="M39" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N39" s="36"/>
-      <c r="O39" s="92">
+      <c r="O39" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6367,12 +6362,12 @@
         <v>3</v>
       </c>
       <c r="L40" s="36"/>
-      <c r="M40" s="92">
+      <c r="M40" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N40" s="36"/>
-      <c r="O40" s="92">
+      <c r="O40" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6413,12 +6408,12 @@
         <v>35</v>
       </c>
       <c r="L41" s="36"/>
-      <c r="M41" s="92">
+      <c r="M41" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N41" s="36"/>
-      <c r="O41" s="92">
+      <c r="O41" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6459,16 +6454,16 @@
         <v>32</v>
       </c>
       <c r="L42" s="36"/>
-      <c r="M42" s="92">
+      <c r="M42" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N42" s="36"/>
-      <c r="O42" s="92">
+      <c r="O42" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P42" s="110"/>
+      <c r="P42" s="112"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
@@ -6510,16 +6505,16 @@
         <v>59</v>
       </c>
       <c r="L43" s="36"/>
-      <c r="M43" s="92">
+      <c r="M43" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N43" s="36"/>
-      <c r="O43" s="92">
+      <c r="O43" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P43" s="110"/>
+      <c r="P43" s="112"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
@@ -6561,16 +6556,16 @@
         <v>102</v>
       </c>
       <c r="L44" s="36"/>
-      <c r="M44" s="92">
+      <c r="M44" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N44" s="36"/>
-      <c r="O44" s="92">
+      <c r="O44" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P44" s="110"/>
+      <c r="P44" s="112"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
@@ -6612,16 +6607,16 @@
         <v>12</v>
       </c>
       <c r="L45" s="36"/>
-      <c r="M45" s="92">
+      <c r="M45" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N45" s="36"/>
-      <c r="O45" s="92">
+      <c r="O45" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P45" s="110"/>
+      <c r="P45" s="112"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -6663,16 +6658,16 @@
         <v>27</v>
       </c>
       <c r="L46" s="36"/>
-      <c r="M46" s="92">
+      <c r="M46" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N46" s="36"/>
-      <c r="O46" s="92">
+      <c r="O46" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P46" s="110"/>
+      <c r="P46" s="112"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
@@ -6714,67 +6709,67 @@
         <v>24</v>
       </c>
       <c r="L47" s="36"/>
-      <c r="M47" s="92">
+      <c r="M47" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N47" s="36"/>
-      <c r="O47" s="92">
+      <c r="O47" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P47" s="110"/>
+      <c r="P47" s="112"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="81"/>
-      <c r="B48" s="82">
+    <row r="48" spans="1:20" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="76"/>
+      <c r="B48" s="77">
         <v>10</v>
       </c>
-      <c r="C48" s="81" t="s">
+      <c r="C48" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="83">
+      <c r="D48" s="78">
         <v>329.48608070809939</v>
       </c>
-      <c r="E48" s="83">
+      <c r="E48" s="78">
         <v>525.01391929190061</v>
       </c>
-      <c r="F48" s="83">
+      <c r="F48" s="78">
         <v>854.5</v>
       </c>
-      <c r="G48" s="84">
+      <c r="G48" s="79">
         <f t="shared" si="8"/>
         <v>1.8035797205454007E-2</v>
       </c>
-      <c r="H48" s="85">
+      <c r="H48" s="80">
         <f t="shared" si="9"/>
         <v>52.159525518172991</v>
       </c>
-      <c r="I48" s="86">
+      <c r="I48" s="81">
         <v>52</v>
       </c>
-      <c r="J48" s="85">
+      <c r="J48" s="80">
         <f t="shared" si="10"/>
         <v>30.119781333108193</v>
       </c>
-      <c r="K48" s="86">
+      <c r="K48" s="81">
         <v>30</v>
       </c>
-      <c r="L48" s="86"/>
-      <c r="M48" s="92">
+      <c r="L48" s="81"/>
+      <c r="M48" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N48" s="86"/>
-      <c r="O48" s="92">
+      <c r="N48" s="81"/>
+      <c r="O48" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P48" s="116" t="s">
+      <c r="P48" s="106" t="s">
         <v>86</v>
       </c>
       <c r="Q48" s="37"/>
@@ -6818,16 +6813,16 @@
         <v>24</v>
       </c>
       <c r="L49" s="36"/>
-      <c r="M49" s="92">
+      <c r="M49" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N49" s="36"/>
-      <c r="O49" s="92">
+      <c r="O49" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P49" s="110"/>
+      <c r="P49" s="112"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
@@ -6869,7 +6864,7 @@
         <v>3</v>
       </c>
       <c r="L50" s="36"/>
-      <c r="M50" s="92">
+      <c r="M50" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6877,11 +6872,13 @@
         <f>450+105+180+90</f>
         <v>825</v>
       </c>
-      <c r="O50" s="92">
+      <c r="O50" s="87">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="P50" s="110"/>
+      <c r="P50" s="112" t="s">
+        <v>87</v>
+      </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
@@ -6923,16 +6920,16 @@
         <v>5</v>
       </c>
       <c r="L51" s="36"/>
-      <c r="M51" s="92">
+      <c r="M51" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N51" s="36"/>
-      <c r="O51" s="92">
+      <c r="O51" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P51" s="110"/>
+      <c r="P51" s="112"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
@@ -6974,16 +6971,16 @@
         <v>15</v>
       </c>
       <c r="L52" s="36"/>
-      <c r="M52" s="92">
+      <c r="M52" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N52" s="36"/>
-      <c r="O52" s="92">
+      <c r="O52" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P52" s="110"/>
+      <c r="P52" s="112"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
@@ -7025,16 +7022,16 @@
         <v>40</v>
       </c>
       <c r="L53" s="36"/>
-      <c r="M53" s="92">
+      <c r="M53" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N53" s="36"/>
-      <c r="O53" s="92">
+      <c r="O53" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P53" s="110"/>
+      <c r="P53" s="112"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
@@ -7076,16 +7073,16 @@
         <v>101</v>
       </c>
       <c r="L54" s="36"/>
-      <c r="M54" s="92">
+      <c r="M54" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N54" s="36"/>
-      <c r="O54" s="92">
+      <c r="O54" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P54" s="110"/>
+      <c r="P54" s="112"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
@@ -7127,16 +7124,16 @@
         <v>20</v>
       </c>
       <c r="L55" s="36"/>
-      <c r="M55" s="92">
+      <c r="M55" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N55" s="36"/>
-      <c r="O55" s="92">
+      <c r="O55" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P55" s="110"/>
+      <c r="P55" s="112"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -7178,16 +7175,16 @@
         <v>42</v>
       </c>
       <c r="L56" s="36"/>
-      <c r="M56" s="92">
+      <c r="M56" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N56" s="36"/>
-      <c r="O56" s="92">
+      <c r="O56" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P56" s="110"/>
+      <c r="P56" s="112"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -7229,16 +7226,16 @@
         <v>28</v>
       </c>
       <c r="L57" s="36"/>
-      <c r="M57" s="92">
+      <c r="M57" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N57" s="36"/>
-      <c r="O57" s="92">
+      <c r="O57" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P57" s="110"/>
+      <c r="P57" s="112"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
@@ -7260,10 +7257,10 @@
       <c r="J58" s="36"/>
       <c r="K58" s="35"/>
       <c r="L58" s="36"/>
-      <c r="M58" s="93"/>
+      <c r="M58" s="88"/>
       <c r="N58" s="36"/>
-      <c r="O58" s="92"/>
-      <c r="P58" s="110"/>
+      <c r="O58" s="87"/>
+      <c r="P58" s="112"/>
     </row>
     <row r="59" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D59" s="50"/>
@@ -7272,9 +7269,9 @@
       <c r="G59" s="4"/>
       <c r="I59" s="6"/>
       <c r="K59" s="6"/>
-      <c r="M59" s="89"/>
-      <c r="O59" s="89"/>
-      <c r="P59" s="111"/>
+      <c r="M59" s="84"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="113"/>
     </row>
     <row r="60" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D60" s="50"/>
@@ -7283,9 +7280,9 @@
       <c r="G60" s="4"/>
       <c r="I60" s="6"/>
       <c r="K60" s="6"/>
-      <c r="M60" s="89"/>
-      <c r="O60" s="89"/>
-      <c r="P60" s="111"/>
+      <c r="M60" s="84"/>
+      <c r="O60" s="84"/>
+      <c r="P60" s="113"/>
     </row>
     <row r="61" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D61" s="50"/>
@@ -7294,9 +7291,9 @@
       <c r="G61" s="4"/>
       <c r="I61" s="6"/>
       <c r="K61" s="6"/>
-      <c r="M61" s="89"/>
-      <c r="O61" s="89"/>
-      <c r="P61" s="111"/>
+      <c r="M61" s="84"/>
+      <c r="O61" s="84"/>
+      <c r="P61" s="113"/>
     </row>
     <row r="63" spans="1:20" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="51"/>
@@ -7308,18 +7305,18 @@
       <c r="G63" s="4"/>
       <c r="I63" s="6"/>
       <c r="K63" s="6"/>
-      <c r="M63" s="89"/>
-      <c r="O63" s="89"/>
-      <c r="P63" s="111"/>
+      <c r="M63" s="84"/>
+      <c r="O63" s="84"/>
+      <c r="P63" s="113"/>
     </row>
     <row r="64" spans="1:20" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G64" s="52"/>
       <c r="I64" s="53"/>
       <c r="K64" s="53"/>
       <c r="L64" s="54"/>
-      <c r="M64" s="94"/>
+      <c r="M64" s="89"/>
       <c r="N64" s="54"/>
-      <c r="O64" s="94"/>
+      <c r="O64" s="89"/>
       <c r="P64" s="117"/>
     </row>
     <row r="65" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7327,9 +7324,9 @@
       <c r="I65" s="53"/>
       <c r="K65" s="53"/>
       <c r="L65" s="54"/>
-      <c r="M65" s="94"/>
+      <c r="M65" s="89"/>
       <c r="N65" s="54"/>
-      <c r="O65" s="94"/>
+      <c r="O65" s="89"/>
       <c r="P65" s="117"/>
     </row>
     <row r="66" spans="7:16" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7337,9 +7334,9 @@
       <c r="I66" s="53"/>
       <c r="K66" s="53"/>
       <c r="L66" s="54"/>
-      <c r="M66" s="94"/>
+      <c r="M66" s="89"/>
       <c r="N66" s="54"/>
-      <c r="O66" s="94"/>
+      <c r="O66" s="89"/>
       <c r="P66" s="117"/>
     </row>
     <row r="67" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7347,9 +7344,9 @@
       <c r="I67" s="53"/>
       <c r="K67" s="53"/>
       <c r="L67" s="54"/>
-      <c r="M67" s="94"/>
+      <c r="M67" s="89"/>
       <c r="N67" s="54"/>
-      <c r="O67" s="94"/>
+      <c r="O67" s="89"/>
       <c r="P67" s="117"/>
     </row>
     <row r="68" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7357,9 +7354,9 @@
       <c r="I68" s="53"/>
       <c r="K68" s="53"/>
       <c r="L68" s="54"/>
-      <c r="M68" s="94"/>
+      <c r="M68" s="89"/>
       <c r="N68" s="54"/>
-      <c r="O68" s="94"/>
+      <c r="O68" s="89"/>
       <c r="P68" s="117"/>
     </row>
     <row r="69" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7367,9 +7364,9 @@
       <c r="I69" s="53"/>
       <c r="K69" s="53"/>
       <c r="L69" s="54"/>
-      <c r="M69" s="94"/>
+      <c r="M69" s="89"/>
       <c r="N69" s="54"/>
-      <c r="O69" s="94"/>
+      <c r="O69" s="89"/>
       <c r="P69" s="117"/>
     </row>
     <row r="70" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7377,9 +7374,9 @@
       <c r="I70" s="53"/>
       <c r="K70" s="53"/>
       <c r="L70" s="54"/>
-      <c r="M70" s="94"/>
+      <c r="M70" s="89"/>
       <c r="N70" s="54"/>
-      <c r="O70" s="94"/>
+      <c r="O70" s="89"/>
       <c r="P70" s="117"/>
     </row>
     <row r="71" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7387,9 +7384,9 @@
       <c r="I71" s="53"/>
       <c r="K71" s="53"/>
       <c r="L71" s="54"/>
-      <c r="M71" s="94"/>
+      <c r="M71" s="89"/>
       <c r="N71" s="54"/>
-      <c r="O71" s="94"/>
+      <c r="O71" s="89"/>
       <c r="P71" s="117"/>
     </row>
     <row r="72" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7397,9 +7394,9 @@
       <c r="I72" s="53"/>
       <c r="K72" s="53"/>
       <c r="L72" s="54"/>
-      <c r="M72" s="94"/>
+      <c r="M72" s="89"/>
       <c r="N72" s="54"/>
-      <c r="O72" s="94"/>
+      <c r="O72" s="89"/>
       <c r="P72" s="117"/>
     </row>
     <row r="73" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7407,9 +7404,9 @@
       <c r="I73" s="53"/>
       <c r="K73" s="53"/>
       <c r="L73" s="54"/>
-      <c r="M73" s="94"/>
+      <c r="M73" s="89"/>
       <c r="N73" s="54"/>
-      <c r="O73" s="94"/>
+      <c r="O73" s="89"/>
       <c r="P73" s="117"/>
     </row>
     <row r="74" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7417,9 +7414,9 @@
       <c r="I74" s="53"/>
       <c r="K74" s="53"/>
       <c r="L74" s="54"/>
-      <c r="M74" s="94"/>
+      <c r="M74" s="89"/>
       <c r="N74" s="54"/>
-      <c r="O74" s="94"/>
+      <c r="O74" s="89"/>
       <c r="P74" s="117"/>
     </row>
     <row r="75" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7427,9 +7424,9 @@
       <c r="I75" s="53"/>
       <c r="K75" s="53"/>
       <c r="L75" s="54"/>
-      <c r="M75" s="94"/>
+      <c r="M75" s="89"/>
       <c r="N75" s="54"/>
-      <c r="O75" s="94"/>
+      <c r="O75" s="89"/>
       <c r="P75" s="117"/>
     </row>
     <row r="76" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7437,9 +7434,9 @@
       <c r="I76" s="53"/>
       <c r="K76" s="53"/>
       <c r="L76" s="54"/>
-      <c r="M76" s="94"/>
+      <c r="M76" s="89"/>
       <c r="N76" s="54"/>
-      <c r="O76" s="94"/>
+      <c r="O76" s="89"/>
       <c r="P76" s="117"/>
     </row>
     <row r="77" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7447,9 +7444,9 @@
       <c r="I77" s="53"/>
       <c r="K77" s="53"/>
       <c r="L77" s="54"/>
-      <c r="M77" s="94"/>
+      <c r="M77" s="89"/>
       <c r="N77" s="54"/>
-      <c r="O77" s="94"/>
+      <c r="O77" s="89"/>
       <c r="P77" s="117"/>
     </row>
     <row r="78" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7457,9 +7454,9 @@
       <c r="I78" s="53"/>
       <c r="K78" s="53"/>
       <c r="L78" s="54"/>
-      <c r="M78" s="94"/>
+      <c r="M78" s="89"/>
       <c r="N78" s="54"/>
-      <c r="O78" s="94"/>
+      <c r="O78" s="89"/>
       <c r="P78" s="117"/>
     </row>
     <row r="79" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7467,9 +7464,9 @@
       <c r="I79" s="53"/>
       <c r="K79" s="53"/>
       <c r="L79" s="54"/>
-      <c r="M79" s="94"/>
+      <c r="M79" s="89"/>
       <c r="N79" s="54"/>
-      <c r="O79" s="94"/>
+      <c r="O79" s="89"/>
       <c r="P79" s="117"/>
     </row>
     <row r="80" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7477,9 +7474,9 @@
       <c r="I80" s="53"/>
       <c r="K80" s="53"/>
       <c r="L80" s="54"/>
-      <c r="M80" s="94"/>
+      <c r="M80" s="89"/>
       <c r="N80" s="54"/>
-      <c r="O80" s="94"/>
+      <c r="O80" s="89"/>
       <c r="P80" s="117"/>
     </row>
     <row r="81" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7487,9 +7484,9 @@
       <c r="I81" s="53"/>
       <c r="K81" s="53"/>
       <c r="L81" s="54"/>
-      <c r="M81" s="94"/>
+      <c r="M81" s="89"/>
       <c r="N81" s="54"/>
-      <c r="O81" s="94"/>
+      <c r="O81" s="89"/>
       <c r="P81" s="117"/>
     </row>
     <row r="82" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7497,9 +7494,9 @@
       <c r="I82" s="53"/>
       <c r="K82" s="53"/>
       <c r="L82" s="54"/>
-      <c r="M82" s="94"/>
+      <c r="M82" s="89"/>
       <c r="N82" s="54"/>
-      <c r="O82" s="94"/>
+      <c r="O82" s="89"/>
       <c r="P82" s="117"/>
     </row>
     <row r="83" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7507,9 +7504,9 @@
       <c r="I83" s="53"/>
       <c r="K83" s="53"/>
       <c r="L83" s="54"/>
-      <c r="M83" s="94"/>
+      <c r="M83" s="89"/>
       <c r="N83" s="54"/>
-      <c r="O83" s="94"/>
+      <c r="O83" s="89"/>
       <c r="P83" s="117"/>
     </row>
     <row r="84" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7517,9 +7514,9 @@
       <c r="I84" s="53"/>
       <c r="K84" s="53"/>
       <c r="L84" s="54"/>
-      <c r="M84" s="94"/>
+      <c r="M84" s="89"/>
       <c r="N84" s="54"/>
-      <c r="O84" s="94"/>
+      <c r="O84" s="89"/>
       <c r="P84" s="117"/>
     </row>
     <row r="85" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7527,9 +7524,9 @@
       <c r="I85" s="53"/>
       <c r="K85" s="53"/>
       <c r="L85" s="54"/>
-      <c r="M85" s="94"/>
+      <c r="M85" s="89"/>
       <c r="N85" s="54"/>
-      <c r="O85" s="94"/>
+      <c r="O85" s="89"/>
       <c r="P85" s="117"/>
     </row>
     <row r="86" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7537,9 +7534,9 @@
       <c r="I86" s="53"/>
       <c r="K86" s="53"/>
       <c r="L86" s="54"/>
-      <c r="M86" s="94"/>
+      <c r="M86" s="89"/>
       <c r="N86" s="54"/>
-      <c r="O86" s="94"/>
+      <c r="O86" s="89"/>
       <c r="P86" s="117"/>
     </row>
     <row r="87" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7547,9 +7544,9 @@
       <c r="I87" s="53"/>
       <c r="K87" s="53"/>
       <c r="L87" s="54"/>
-      <c r="M87" s="94"/>
+      <c r="M87" s="89"/>
       <c r="N87" s="54"/>
-      <c r="O87" s="94"/>
+      <c r="O87" s="89"/>
       <c r="P87" s="117"/>
     </row>
     <row r="88" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7557,9 +7554,9 @@
       <c r="I88" s="53"/>
       <c r="K88" s="53"/>
       <c r="L88" s="54"/>
-      <c r="M88" s="94"/>
+      <c r="M88" s="89"/>
       <c r="N88" s="54"/>
-      <c r="O88" s="94"/>
+      <c r="O88" s="89"/>
       <c r="P88" s="117"/>
     </row>
     <row r="89" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7567,9 +7564,9 @@
       <c r="I89" s="53"/>
       <c r="K89" s="53"/>
       <c r="L89" s="54"/>
-      <c r="M89" s="94"/>
+      <c r="M89" s="89"/>
       <c r="N89" s="54"/>
-      <c r="O89" s="94"/>
+      <c r="O89" s="89"/>
       <c r="P89" s="117"/>
     </row>
     <row r="90" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7577,9 +7574,9 @@
       <c r="I90" s="53"/>
       <c r="K90" s="53"/>
       <c r="L90" s="54"/>
-      <c r="M90" s="94"/>
+      <c r="M90" s="89"/>
       <c r="N90" s="54"/>
-      <c r="O90" s="94"/>
+      <c r="O90" s="89"/>
       <c r="P90" s="117"/>
     </row>
     <row r="91" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7587,9 +7584,9 @@
       <c r="I91" s="53"/>
       <c r="K91" s="53"/>
       <c r="L91" s="54"/>
-      <c r="M91" s="94"/>
+      <c r="M91" s="89"/>
       <c r="N91" s="54"/>
-      <c r="O91" s="94"/>
+      <c r="O91" s="89"/>
       <c r="P91" s="117"/>
     </row>
     <row r="92" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7597,9 +7594,9 @@
       <c r="I92" s="53"/>
       <c r="K92" s="53"/>
       <c r="L92" s="54"/>
-      <c r="M92" s="94"/>
+      <c r="M92" s="89"/>
       <c r="N92" s="54"/>
-      <c r="O92" s="94"/>
+      <c r="O92" s="89"/>
       <c r="P92" s="117"/>
     </row>
     <row r="93" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7607,9 +7604,9 @@
       <c r="I93" s="53"/>
       <c r="K93" s="53"/>
       <c r="L93" s="54"/>
-      <c r="M93" s="94"/>
+      <c r="M93" s="89"/>
       <c r="N93" s="54"/>
-      <c r="O93" s="94"/>
+      <c r="O93" s="89"/>
       <c r="P93" s="117"/>
     </row>
     <row r="94" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7617,9 +7614,9 @@
       <c r="I94" s="53"/>
       <c r="K94" s="53"/>
       <c r="L94" s="54"/>
-      <c r="M94" s="94"/>
+      <c r="M94" s="89"/>
       <c r="N94" s="54"/>
-      <c r="O94" s="94"/>
+      <c r="O94" s="89"/>
       <c r="P94" s="117"/>
     </row>
     <row r="95" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7627,9 +7624,9 @@
       <c r="I95" s="53"/>
       <c r="K95" s="53"/>
       <c r="L95" s="54"/>
-      <c r="M95" s="94"/>
+      <c r="M95" s="89"/>
       <c r="N95" s="54"/>
-      <c r="O95" s="94"/>
+      <c r="O95" s="89"/>
       <c r="P95" s="117"/>
     </row>
     <row r="96" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7637,9 +7634,9 @@
       <c r="I96" s="53"/>
       <c r="K96" s="53"/>
       <c r="L96" s="54"/>
-      <c r="M96" s="94"/>
+      <c r="M96" s="89"/>
       <c r="N96" s="54"/>
-      <c r="O96" s="94"/>
+      <c r="O96" s="89"/>
       <c r="P96" s="117"/>
     </row>
     <row r="97" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7647,9 +7644,9 @@
       <c r="I97" s="53"/>
       <c r="K97" s="53"/>
       <c r="L97" s="54"/>
-      <c r="M97" s="94"/>
+      <c r="M97" s="89"/>
       <c r="N97" s="54"/>
-      <c r="O97" s="94"/>
+      <c r="O97" s="89"/>
       <c r="P97" s="117"/>
     </row>
     <row r="98" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7657,9 +7654,9 @@
       <c r="I98" s="53"/>
       <c r="K98" s="53"/>
       <c r="L98" s="54"/>
-      <c r="M98" s="94"/>
+      <c r="M98" s="89"/>
       <c r="N98" s="54"/>
-      <c r="O98" s="94"/>
+      <c r="O98" s="89"/>
       <c r="P98" s="117"/>
     </row>
     <row r="99" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7667,9 +7664,9 @@
       <c r="I99" s="53"/>
       <c r="K99" s="53"/>
       <c r="L99" s="54"/>
-      <c r="M99" s="94"/>
+      <c r="M99" s="89"/>
       <c r="N99" s="54"/>
-      <c r="O99" s="94"/>
+      <c r="O99" s="89"/>
       <c r="P99" s="117"/>
     </row>
     <row r="100" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7677,9 +7674,9 @@
       <c r="I100" s="53"/>
       <c r="K100" s="53"/>
       <c r="L100" s="54"/>
-      <c r="M100" s="94"/>
+      <c r="M100" s="89"/>
       <c r="N100" s="54"/>
-      <c r="O100" s="94"/>
+      <c r="O100" s="89"/>
       <c r="P100" s="117"/>
     </row>
     <row r="101" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7687,9 +7684,9 @@
       <c r="I101" s="53"/>
       <c r="K101" s="53"/>
       <c r="L101" s="54"/>
-      <c r="M101" s="94"/>
+      <c r="M101" s="89"/>
       <c r="N101" s="54"/>
-      <c r="O101" s="94"/>
+      <c r="O101" s="89"/>
       <c r="P101" s="117"/>
     </row>
     <row r="102" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7697,9 +7694,9 @@
       <c r="I102" s="53"/>
       <c r="K102" s="53"/>
       <c r="L102" s="54"/>
-      <c r="M102" s="94"/>
+      <c r="M102" s="89"/>
       <c r="N102" s="54"/>
-      <c r="O102" s="94"/>
+      <c r="O102" s="89"/>
       <c r="P102" s="117"/>
     </row>
     <row r="103" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7707,9 +7704,9 @@
       <c r="I103" s="53"/>
       <c r="K103" s="53"/>
       <c r="L103" s="54"/>
-      <c r="M103" s="94"/>
+      <c r="M103" s="89"/>
       <c r="N103" s="54"/>
-      <c r="O103" s="94"/>
+      <c r="O103" s="89"/>
       <c r="P103" s="117"/>
     </row>
     <row r="104" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7717,9 +7714,9 @@
       <c r="I104" s="53"/>
       <c r="K104" s="53"/>
       <c r="L104" s="54"/>
-      <c r="M104" s="94"/>
+      <c r="M104" s="89"/>
       <c r="N104" s="54"/>
-      <c r="O104" s="94"/>
+      <c r="O104" s="89"/>
       <c r="P104" s="117"/>
     </row>
     <row r="105" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7727,9 +7724,9 @@
       <c r="I105" s="53"/>
       <c r="K105" s="53"/>
       <c r="L105" s="54"/>
-      <c r="M105" s="94"/>
+      <c r="M105" s="89"/>
       <c r="N105" s="54"/>
-      <c r="O105" s="94"/>
+      <c r="O105" s="89"/>
       <c r="P105" s="117"/>
     </row>
     <row r="106" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7737,9 +7734,9 @@
       <c r="I106" s="53"/>
       <c r="K106" s="53"/>
       <c r="L106" s="54"/>
-      <c r="M106" s="94"/>
+      <c r="M106" s="89"/>
       <c r="N106" s="54"/>
-      <c r="O106" s="94"/>
+      <c r="O106" s="89"/>
       <c r="P106" s="117"/>
     </row>
     <row r="107" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7747,9 +7744,9 @@
       <c r="I107" s="53"/>
       <c r="K107" s="53"/>
       <c r="L107" s="54"/>
-      <c r="M107" s="94"/>
+      <c r="M107" s="89"/>
       <c r="N107" s="54"/>
-      <c r="O107" s="94"/>
+      <c r="O107" s="89"/>
       <c r="P107" s="117"/>
     </row>
     <row r="108" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7757,9 +7754,9 @@
       <c r="I108" s="53"/>
       <c r="K108" s="53"/>
       <c r="L108" s="54"/>
-      <c r="M108" s="94"/>
+      <c r="M108" s="89"/>
       <c r="N108" s="54"/>
-      <c r="O108" s="94"/>
+      <c r="O108" s="89"/>
       <c r="P108" s="117"/>
     </row>
     <row r="109" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7767,9 +7764,9 @@
       <c r="I109" s="53"/>
       <c r="K109" s="53"/>
       <c r="L109" s="54"/>
-      <c r="M109" s="94"/>
+      <c r="M109" s="89"/>
       <c r="N109" s="54"/>
-      <c r="O109" s="94"/>
+      <c r="O109" s="89"/>
       <c r="P109" s="117"/>
     </row>
     <row r="110" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7777,9 +7774,9 @@
       <c r="I110" s="53"/>
       <c r="K110" s="53"/>
       <c r="L110" s="54"/>
-      <c r="M110" s="94"/>
+      <c r="M110" s="89"/>
       <c r="N110" s="54"/>
-      <c r="O110" s="94"/>
+      <c r="O110" s="89"/>
       <c r="P110" s="117"/>
     </row>
     <row r="111" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7787,9 +7784,9 @@
       <c r="I111" s="53"/>
       <c r="K111" s="53"/>
       <c r="L111" s="54"/>
-      <c r="M111" s="94"/>
+      <c r="M111" s="89"/>
       <c r="N111" s="54"/>
-      <c r="O111" s="94"/>
+      <c r="O111" s="89"/>
       <c r="P111" s="117"/>
     </row>
     <row r="112" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7797,9 +7794,9 @@
       <c r="I112" s="53"/>
       <c r="K112" s="53"/>
       <c r="L112" s="54"/>
-      <c r="M112" s="94"/>
+      <c r="M112" s="89"/>
       <c r="N112" s="54"/>
-      <c r="O112" s="94"/>
+      <c r="O112" s="89"/>
       <c r="P112" s="117"/>
     </row>
     <row r="113" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7807,9 +7804,9 @@
       <c r="I113" s="53"/>
       <c r="K113" s="53"/>
       <c r="L113" s="54"/>
-      <c r="M113" s="94"/>
+      <c r="M113" s="89"/>
       <c r="N113" s="54"/>
-      <c r="O113" s="94"/>
+      <c r="O113" s="89"/>
       <c r="P113" s="117"/>
     </row>
     <row r="114" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7817,9 +7814,9 @@
       <c r="I114" s="53"/>
       <c r="K114" s="53"/>
       <c r="L114" s="54"/>
-      <c r="M114" s="94"/>
+      <c r="M114" s="89"/>
       <c r="N114" s="54"/>
-      <c r="O114" s="94"/>
+      <c r="O114" s="89"/>
       <c r="P114" s="117"/>
     </row>
     <row r="115" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7827,9 +7824,9 @@
       <c r="I115" s="53"/>
       <c r="K115" s="53"/>
       <c r="L115" s="54"/>
-      <c r="M115" s="94"/>
+      <c r="M115" s="89"/>
       <c r="N115" s="54"/>
-      <c r="O115" s="94"/>
+      <c r="O115" s="89"/>
       <c r="P115" s="117"/>
     </row>
     <row r="116" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7837,9 +7834,9 @@
       <c r="I116" s="53"/>
       <c r="K116" s="53"/>
       <c r="L116" s="54"/>
-      <c r="M116" s="94"/>
+      <c r="M116" s="89"/>
       <c r="N116" s="54"/>
-      <c r="O116" s="94"/>
+      <c r="O116" s="89"/>
       <c r="P116" s="117"/>
     </row>
     <row r="117" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7847,9 +7844,9 @@
       <c r="I117" s="53"/>
       <c r="K117" s="53"/>
       <c r="L117" s="54"/>
-      <c r="M117" s="94"/>
+      <c r="M117" s="89"/>
       <c r="N117" s="54"/>
-      <c r="O117" s="94"/>
+      <c r="O117" s="89"/>
       <c r="P117" s="117"/>
     </row>
     <row r="118" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7857,9 +7854,9 @@
       <c r="I118" s="53"/>
       <c r="K118" s="53"/>
       <c r="L118" s="54"/>
-      <c r="M118" s="94"/>
+      <c r="M118" s="89"/>
       <c r="N118" s="54"/>
-      <c r="O118" s="94"/>
+      <c r="O118" s="89"/>
       <c r="P118" s="117"/>
     </row>
     <row r="119" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7867,9 +7864,9 @@
       <c r="I119" s="53"/>
       <c r="K119" s="53"/>
       <c r="L119" s="54"/>
-      <c r="M119" s="94"/>
+      <c r="M119" s="89"/>
       <c r="N119" s="54"/>
-      <c r="O119" s="94"/>
+      <c r="O119" s="89"/>
       <c r="P119" s="117"/>
     </row>
     <row r="120" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7877,9 +7874,9 @@
       <c r="I120" s="53"/>
       <c r="K120" s="53"/>
       <c r="L120" s="54"/>
-      <c r="M120" s="94"/>
+      <c r="M120" s="89"/>
       <c r="N120" s="54"/>
-      <c r="O120" s="94"/>
+      <c r="O120" s="89"/>
       <c r="P120" s="117"/>
     </row>
     <row r="121" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7887,9 +7884,9 @@
       <c r="I121" s="53"/>
       <c r="K121" s="53"/>
       <c r="L121" s="54"/>
-      <c r="M121" s="94"/>
+      <c r="M121" s="89"/>
       <c r="N121" s="54"/>
-      <c r="O121" s="94"/>
+      <c r="O121" s="89"/>
       <c r="P121" s="117"/>
     </row>
     <row r="122" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7897,9 +7894,9 @@
       <c r="I122" s="53"/>
       <c r="K122" s="53"/>
       <c r="L122" s="54"/>
-      <c r="M122" s="94"/>
+      <c r="M122" s="89"/>
       <c r="N122" s="54"/>
-      <c r="O122" s="94"/>
+      <c r="O122" s="89"/>
       <c r="P122" s="117"/>
     </row>
     <row r="123" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7907,9 +7904,9 @@
       <c r="I123" s="53"/>
       <c r="K123" s="53"/>
       <c r="L123" s="54"/>
-      <c r="M123" s="94"/>
+      <c r="M123" s="89"/>
       <c r="N123" s="54"/>
-      <c r="O123" s="94"/>
+      <c r="O123" s="89"/>
       <c r="P123" s="117"/>
     </row>
     <row r="124" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7917,9 +7914,9 @@
       <c r="I124" s="53"/>
       <c r="K124" s="53"/>
       <c r="L124" s="54"/>
-      <c r="M124" s="94"/>
+      <c r="M124" s="89"/>
       <c r="N124" s="54"/>
-      <c r="O124" s="94"/>
+      <c r="O124" s="89"/>
       <c r="P124" s="117"/>
     </row>
     <row r="125" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7927,9 +7924,9 @@
       <c r="I125" s="53"/>
       <c r="K125" s="53"/>
       <c r="L125" s="54"/>
-      <c r="M125" s="94"/>
+      <c r="M125" s="89"/>
       <c r="N125" s="54"/>
-      <c r="O125" s="94"/>
+      <c r="O125" s="89"/>
       <c r="P125" s="117"/>
     </row>
     <row r="126" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7937,9 +7934,9 @@
       <c r="I126" s="53"/>
       <c r="K126" s="53"/>
       <c r="L126" s="54"/>
-      <c r="M126" s="94"/>
+      <c r="M126" s="89"/>
       <c r="N126" s="54"/>
-      <c r="O126" s="94"/>
+      <c r="O126" s="89"/>
       <c r="P126" s="117"/>
     </row>
     <row r="127" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7947,9 +7944,9 @@
       <c r="I127" s="53"/>
       <c r="K127" s="53"/>
       <c r="L127" s="54"/>
-      <c r="M127" s="94"/>
+      <c r="M127" s="89"/>
       <c r="N127" s="54"/>
-      <c r="O127" s="94"/>
+      <c r="O127" s="89"/>
       <c r="P127" s="117"/>
     </row>
     <row r="128" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7957,9 +7954,9 @@
       <c r="I128" s="53"/>
       <c r="K128" s="53"/>
       <c r="L128" s="54"/>
-      <c r="M128" s="94"/>
+      <c r="M128" s="89"/>
       <c r="N128" s="54"/>
-      <c r="O128" s="94"/>
+      <c r="O128" s="89"/>
       <c r="P128" s="117"/>
     </row>
     <row r="129" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7967,9 +7964,9 @@
       <c r="I129" s="53"/>
       <c r="K129" s="53"/>
       <c r="L129" s="54"/>
-      <c r="M129" s="94"/>
+      <c r="M129" s="89"/>
       <c r="N129" s="54"/>
-      <c r="O129" s="94"/>
+      <c r="O129" s="89"/>
       <c r="P129" s="117"/>
     </row>
     <row r="130" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7977,9 +7974,9 @@
       <c r="I130" s="53"/>
       <c r="K130" s="53"/>
       <c r="L130" s="54"/>
-      <c r="M130" s="94"/>
+      <c r="M130" s="89"/>
       <c r="N130" s="54"/>
-      <c r="O130" s="94"/>
+      <c r="O130" s="89"/>
       <c r="P130" s="117"/>
     </row>
     <row r="131" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7987,9 +7984,9 @@
       <c r="I131" s="53"/>
       <c r="K131" s="53"/>
       <c r="L131" s="54"/>
-      <c r="M131" s="94"/>
+      <c r="M131" s="89"/>
       <c r="N131" s="54"/>
-      <c r="O131" s="94"/>
+      <c r="O131" s="89"/>
       <c r="P131" s="117"/>
     </row>
     <row r="132" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7997,9 +7994,9 @@
       <c r="I132" s="53"/>
       <c r="K132" s="53"/>
       <c r="L132" s="54"/>
-      <c r="M132" s="94"/>
+      <c r="M132" s="89"/>
       <c r="N132" s="54"/>
-      <c r="O132" s="94"/>
+      <c r="O132" s="89"/>
       <c r="P132" s="117"/>
     </row>
     <row r="133" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8007,9 +8004,9 @@
       <c r="I133" s="53"/>
       <c r="K133" s="53"/>
       <c r="L133" s="54"/>
-      <c r="M133" s="94"/>
+      <c r="M133" s="89"/>
       <c r="N133" s="54"/>
-      <c r="O133" s="94"/>
+      <c r="O133" s="89"/>
       <c r="P133" s="117"/>
     </row>
     <row r="134" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8017,9 +8014,9 @@
       <c r="I134" s="53"/>
       <c r="K134" s="53"/>
       <c r="L134" s="54"/>
-      <c r="M134" s="94"/>
+      <c r="M134" s="89"/>
       <c r="N134" s="54"/>
-      <c r="O134" s="94"/>
+      <c r="O134" s="89"/>
       <c r="P134" s="117"/>
     </row>
     <row r="135" spans="7:16" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8027,9 +8024,9 @@
       <c r="I135" s="53"/>
       <c r="K135" s="53"/>
       <c r="L135" s="54"/>
-      <c r="M135" s="94"/>
+      <c r="M135" s="89"/>
       <c r="N135" s="54"/>
-      <c r="O135" s="94"/>
+      <c r="O135" s="89"/>
       <c r="P135" s="117"/>
     </row>
     <row r="136" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8037,9 +8034,9 @@
       <c r="I136" s="53"/>
       <c r="K136" s="53"/>
       <c r="L136" s="54"/>
-      <c r="M136" s="94"/>
+      <c r="M136" s="89"/>
       <c r="N136" s="54"/>
-      <c r="O136" s="94"/>
+      <c r="O136" s="89"/>
       <c r="P136" s="117"/>
     </row>
     <row r="137" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8047,9 +8044,9 @@
       <c r="I137" s="53"/>
       <c r="K137" s="53"/>
       <c r="L137" s="54"/>
-      <c r="M137" s="94"/>
+      <c r="M137" s="89"/>
       <c r="N137" s="54"/>
-      <c r="O137" s="94"/>
+      <c r="O137" s="89"/>
       <c r="P137" s="117"/>
     </row>
     <row r="138" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8057,9 +8054,9 @@
       <c r="I138" s="53"/>
       <c r="K138" s="53"/>
       <c r="L138" s="54"/>
-      <c r="M138" s="94"/>
+      <c r="M138" s="89"/>
       <c r="N138" s="54"/>
-      <c r="O138" s="94"/>
+      <c r="O138" s="89"/>
       <c r="P138" s="117"/>
     </row>
     <row r="139" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8067,9 +8064,9 @@
       <c r="I139" s="53"/>
       <c r="K139" s="53"/>
       <c r="L139" s="54"/>
-      <c r="M139" s="94"/>
+      <c r="M139" s="89"/>
       <c r="N139" s="54"/>
-      <c r="O139" s="94"/>
+      <c r="O139" s="89"/>
       <c r="P139" s="117"/>
     </row>
     <row r="140" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8077,9 +8074,9 @@
       <c r="I140" s="53"/>
       <c r="K140" s="53"/>
       <c r="L140" s="54"/>
-      <c r="M140" s="94"/>
+      <c r="M140" s="89"/>
       <c r="N140" s="54"/>
-      <c r="O140" s="94"/>
+      <c r="O140" s="89"/>
       <c r="P140" s="117"/>
     </row>
     <row r="141" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8087,9 +8084,9 @@
       <c r="I141" s="53"/>
       <c r="K141" s="53"/>
       <c r="L141" s="54"/>
-      <c r="M141" s="94"/>
+      <c r="M141" s="89"/>
       <c r="N141" s="54"/>
-      <c r="O141" s="94"/>
+      <c r="O141" s="89"/>
       <c r="P141" s="117"/>
     </row>
     <row r="142" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8097,9 +8094,9 @@
       <c r="I142" s="53"/>
       <c r="K142" s="53"/>
       <c r="L142" s="54"/>
-      <c r="M142" s="94"/>
+      <c r="M142" s="89"/>
       <c r="N142" s="54"/>
-      <c r="O142" s="94"/>
+      <c r="O142" s="89"/>
       <c r="P142" s="117"/>
     </row>
     <row r="143" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8107,9 +8104,9 @@
       <c r="I143" s="53"/>
       <c r="K143" s="53"/>
       <c r="L143" s="54"/>
-      <c r="M143" s="94"/>
+      <c r="M143" s="89"/>
       <c r="N143" s="54"/>
-      <c r="O143" s="94"/>
+      <c r="O143" s="89"/>
       <c r="P143" s="117"/>
     </row>
     <row r="144" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8117,9 +8114,9 @@
       <c r="I144" s="53"/>
       <c r="K144" s="53"/>
       <c r="L144" s="54"/>
-      <c r="M144" s="94"/>
+      <c r="M144" s="89"/>
       <c r="N144" s="54"/>
-      <c r="O144" s="94"/>
+      <c r="O144" s="89"/>
       <c r="P144" s="117"/>
     </row>
     <row r="145" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8127,9 +8124,9 @@
       <c r="I145" s="53"/>
       <c r="K145" s="53"/>
       <c r="L145" s="54"/>
-      <c r="M145" s="94"/>
+      <c r="M145" s="89"/>
       <c r="N145" s="54"/>
-      <c r="O145" s="94"/>
+      <c r="O145" s="89"/>
       <c r="P145" s="117"/>
     </row>
     <row r="146" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8137,9 +8134,9 @@
       <c r="I146" s="53"/>
       <c r="K146" s="53"/>
       <c r="L146" s="54"/>
-      <c r="M146" s="94"/>
+      <c r="M146" s="89"/>
       <c r="N146" s="54"/>
-      <c r="O146" s="94"/>
+      <c r="O146" s="89"/>
       <c r="P146" s="117"/>
     </row>
     <row r="147" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8147,9 +8144,9 @@
       <c r="I147" s="53"/>
       <c r="K147" s="53"/>
       <c r="L147" s="54"/>
-      <c r="M147" s="94"/>
+      <c r="M147" s="89"/>
       <c r="N147" s="54"/>
-      <c r="O147" s="94"/>
+      <c r="O147" s="89"/>
       <c r="P147" s="117"/>
     </row>
     <row r="148" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8157,9 +8154,9 @@
       <c r="I148" s="53"/>
       <c r="K148" s="53"/>
       <c r="L148" s="54"/>
-      <c r="M148" s="94"/>
+      <c r="M148" s="89"/>
       <c r="N148" s="54"/>
-      <c r="O148" s="94"/>
+      <c r="O148" s="89"/>
       <c r="P148" s="117"/>
     </row>
     <row r="149" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8167,9 +8164,9 @@
       <c r="I149" s="53"/>
       <c r="K149" s="53"/>
       <c r="L149" s="54"/>
-      <c r="M149" s="94"/>
+      <c r="M149" s="89"/>
       <c r="N149" s="54"/>
-      <c r="O149" s="94"/>
+      <c r="O149" s="89"/>
       <c r="P149" s="117"/>
     </row>
     <row r="150" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8177,9 +8174,9 @@
       <c r="I150" s="53"/>
       <c r="K150" s="53"/>
       <c r="L150" s="54"/>
-      <c r="M150" s="94"/>
+      <c r="M150" s="89"/>
       <c r="N150" s="54"/>
-      <c r="O150" s="94"/>
+      <c r="O150" s="89"/>
       <c r="P150" s="117"/>
     </row>
     <row r="151" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8187,9 +8184,9 @@
       <c r="I151" s="53"/>
       <c r="K151" s="53"/>
       <c r="L151" s="54"/>
-      <c r="M151" s="94"/>
+      <c r="M151" s="89"/>
       <c r="N151" s="54"/>
-      <c r="O151" s="94"/>
+      <c r="O151" s="89"/>
       <c r="P151" s="117"/>
     </row>
     <row r="152" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8197,9 +8194,9 @@
       <c r="I152" s="53"/>
       <c r="K152" s="53"/>
       <c r="L152" s="54"/>
-      <c r="M152" s="94"/>
+      <c r="M152" s="89"/>
       <c r="N152" s="54"/>
-      <c r="O152" s="94"/>
+      <c r="O152" s="89"/>
       <c r="P152" s="117"/>
     </row>
     <row r="153" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8207,9 +8204,9 @@
       <c r="I153" s="53"/>
       <c r="K153" s="53"/>
       <c r="L153" s="54"/>
-      <c r="M153" s="94"/>
+      <c r="M153" s="89"/>
       <c r="N153" s="54"/>
-      <c r="O153" s="94"/>
+      <c r="O153" s="89"/>
       <c r="P153" s="117"/>
     </row>
     <row r="154" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8217,9 +8214,9 @@
       <c r="I154" s="53"/>
       <c r="K154" s="53"/>
       <c r="L154" s="54"/>
-      <c r="M154" s="94"/>
+      <c r="M154" s="89"/>
       <c r="N154" s="54"/>
-      <c r="O154" s="94"/>
+      <c r="O154" s="89"/>
       <c r="P154" s="117"/>
     </row>
     <row r="155" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8227,9 +8224,9 @@
       <c r="I155" s="53"/>
       <c r="K155" s="53"/>
       <c r="L155" s="54"/>
-      <c r="M155" s="94"/>
+      <c r="M155" s="89"/>
       <c r="N155" s="54"/>
-      <c r="O155" s="94"/>
+      <c r="O155" s="89"/>
       <c r="P155" s="117"/>
     </row>
     <row r="156" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8237,9 +8234,9 @@
       <c r="I156" s="53"/>
       <c r="K156" s="53"/>
       <c r="L156" s="54"/>
-      <c r="M156" s="94"/>
+      <c r="M156" s="89"/>
       <c r="N156" s="54"/>
-      <c r="O156" s="94"/>
+      <c r="O156" s="89"/>
       <c r="P156" s="117"/>
     </row>
     <row r="157" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8247,9 +8244,9 @@
       <c r="I157" s="53"/>
       <c r="K157" s="53"/>
       <c r="L157" s="54"/>
-      <c r="M157" s="94"/>
+      <c r="M157" s="89"/>
       <c r="N157" s="54"/>
-      <c r="O157" s="94"/>
+      <c r="O157" s="89"/>
       <c r="P157" s="117"/>
     </row>
     <row r="158" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8257,9 +8254,9 @@
       <c r="I158" s="53"/>
       <c r="K158" s="53"/>
       <c r="L158" s="54"/>
-      <c r="M158" s="94"/>
+      <c r="M158" s="89"/>
       <c r="N158" s="54"/>
-      <c r="O158" s="94"/>
+      <c r="O158" s="89"/>
       <c r="P158" s="117"/>
     </row>
     <row r="159" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8267,9 +8264,9 @@
       <c r="I159" s="53"/>
       <c r="K159" s="53"/>
       <c r="L159" s="54"/>
-      <c r="M159" s="94"/>
+      <c r="M159" s="89"/>
       <c r="N159" s="54"/>
-      <c r="O159" s="94"/>
+      <c r="O159" s="89"/>
       <c r="P159" s="117"/>
     </row>
     <row r="160" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8277,9 +8274,9 @@
       <c r="I160" s="53"/>
       <c r="K160" s="53"/>
       <c r="L160" s="54"/>
-      <c r="M160" s="94"/>
+      <c r="M160" s="89"/>
       <c r="N160" s="54"/>
-      <c r="O160" s="94"/>
+      <c r="O160" s="89"/>
       <c r="P160" s="117"/>
     </row>
     <row r="161" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8287,9 +8284,9 @@
       <c r="I161" s="53"/>
       <c r="K161" s="53"/>
       <c r="L161" s="54"/>
-      <c r="M161" s="94"/>
+      <c r="M161" s="89"/>
       <c r="N161" s="54"/>
-      <c r="O161" s="94"/>
+      <c r="O161" s="89"/>
       <c r="P161" s="117"/>
     </row>
     <row r="162" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8297,9 +8294,9 @@
       <c r="I162" s="53"/>
       <c r="K162" s="53"/>
       <c r="L162" s="54"/>
-      <c r="M162" s="94"/>
+      <c r="M162" s="89"/>
       <c r="N162" s="54"/>
-      <c r="O162" s="94"/>
+      <c r="O162" s="89"/>
       <c r="P162" s="117"/>
     </row>
     <row r="163" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8307,9 +8304,9 @@
       <c r="I163" s="53"/>
       <c r="K163" s="53"/>
       <c r="L163" s="54"/>
-      <c r="M163" s="94"/>
+      <c r="M163" s="89"/>
       <c r="N163" s="54"/>
-      <c r="O163" s="94"/>
+      <c r="O163" s="89"/>
       <c r="P163" s="117"/>
     </row>
     <row r="164" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8317,9 +8314,9 @@
       <c r="I164" s="53"/>
       <c r="K164" s="53"/>
       <c r="L164" s="54"/>
-      <c r="M164" s="94"/>
+      <c r="M164" s="89"/>
       <c r="N164" s="54"/>
-      <c r="O164" s="94"/>
+      <c r="O164" s="89"/>
       <c r="P164" s="117"/>
     </row>
     <row r="165" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8327,9 +8324,9 @@
       <c r="I165" s="53"/>
       <c r="K165" s="53"/>
       <c r="L165" s="54"/>
-      <c r="M165" s="94"/>
+      <c r="M165" s="89"/>
       <c r="N165" s="54"/>
-      <c r="O165" s="94"/>
+      <c r="O165" s="89"/>
       <c r="P165" s="117"/>
     </row>
     <row r="166" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8337,9 +8334,9 @@
       <c r="I166" s="53"/>
       <c r="K166" s="53"/>
       <c r="L166" s="54"/>
-      <c r="M166" s="94"/>
+      <c r="M166" s="89"/>
       <c r="N166" s="54"/>
-      <c r="O166" s="94"/>
+      <c r="O166" s="89"/>
       <c r="P166" s="117"/>
     </row>
     <row r="167" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8347,9 +8344,9 @@
       <c r="I167" s="53"/>
       <c r="K167" s="53"/>
       <c r="L167" s="54"/>
-      <c r="M167" s="94"/>
+      <c r="M167" s="89"/>
       <c r="N167" s="54"/>
-      <c r="O167" s="94"/>
+      <c r="O167" s="89"/>
       <c r="P167" s="117"/>
     </row>
     <row r="168" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8357,9 +8354,9 @@
       <c r="I168" s="53"/>
       <c r="K168" s="53"/>
       <c r="L168" s="54"/>
-      <c r="M168" s="94"/>
+      <c r="M168" s="89"/>
       <c r="N168" s="54"/>
-      <c r="O168" s="94"/>
+      <c r="O168" s="89"/>
       <c r="P168" s="117"/>
     </row>
     <row r="169" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8367,9 +8364,9 @@
       <c r="I169" s="53"/>
       <c r="K169" s="53"/>
       <c r="L169" s="54"/>
-      <c r="M169" s="94"/>
+      <c r="M169" s="89"/>
       <c r="N169" s="54"/>
-      <c r="O169" s="94"/>
+      <c r="O169" s="89"/>
       <c r="P169" s="117"/>
     </row>
     <row r="170" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8377,9 +8374,9 @@
       <c r="I170" s="53"/>
       <c r="K170" s="53"/>
       <c r="L170" s="54"/>
-      <c r="M170" s="94"/>
+      <c r="M170" s="89"/>
       <c r="N170" s="54"/>
-      <c r="O170" s="94"/>
+      <c r="O170" s="89"/>
       <c r="P170" s="117"/>
     </row>
     <row r="171" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8387,9 +8384,9 @@
       <c r="I171" s="53"/>
       <c r="K171" s="53"/>
       <c r="L171" s="54"/>
-      <c r="M171" s="94"/>
+      <c r="M171" s="89"/>
       <c r="N171" s="54"/>
-      <c r="O171" s="94"/>
+      <c r="O171" s="89"/>
       <c r="P171" s="117"/>
     </row>
     <row r="172" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8397,9 +8394,9 @@
       <c r="I172" s="53"/>
       <c r="K172" s="53"/>
       <c r="L172" s="54"/>
-      <c r="M172" s="94"/>
+      <c r="M172" s="89"/>
       <c r="N172" s="54"/>
-      <c r="O172" s="94"/>
+      <c r="O172" s="89"/>
       <c r="P172" s="117"/>
     </row>
     <row r="173" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8407,9 +8404,9 @@
       <c r="I173" s="53"/>
       <c r="K173" s="53"/>
       <c r="L173" s="54"/>
-      <c r="M173" s="94"/>
+      <c r="M173" s="89"/>
       <c r="N173" s="54"/>
-      <c r="O173" s="94"/>
+      <c r="O173" s="89"/>
       <c r="P173" s="117"/>
     </row>
     <row r="174" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8417,9 +8414,9 @@
       <c r="I174" s="53"/>
       <c r="K174" s="53"/>
       <c r="L174" s="54"/>
-      <c r="M174" s="94"/>
+      <c r="M174" s="89"/>
       <c r="N174" s="54"/>
-      <c r="O174" s="94"/>
+      <c r="O174" s="89"/>
       <c r="P174" s="117"/>
     </row>
     <row r="175" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8427,9 +8424,9 @@
       <c r="I175" s="53"/>
       <c r="K175" s="53"/>
       <c r="L175" s="54"/>
-      <c r="M175" s="94"/>
+      <c r="M175" s="89"/>
       <c r="N175" s="54"/>
-      <c r="O175" s="94"/>
+      <c r="O175" s="89"/>
       <c r="P175" s="117"/>
     </row>
     <row r="176" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8437,9 +8434,9 @@
       <c r="I176" s="53"/>
       <c r="K176" s="53"/>
       <c r="L176" s="54"/>
-      <c r="M176" s="94"/>
+      <c r="M176" s="89"/>
       <c r="N176" s="54"/>
-      <c r="O176" s="94"/>
+      <c r="O176" s="89"/>
       <c r="P176" s="117"/>
     </row>
     <row r="177" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8447,9 +8444,9 @@
       <c r="I177" s="53"/>
       <c r="K177" s="53"/>
       <c r="L177" s="54"/>
-      <c r="M177" s="94"/>
+      <c r="M177" s="89"/>
       <c r="N177" s="54"/>
-      <c r="O177" s="94"/>
+      <c r="O177" s="89"/>
       <c r="P177" s="117"/>
     </row>
     <row r="178" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8457,9 +8454,9 @@
       <c r="I178" s="53"/>
       <c r="K178" s="53"/>
       <c r="L178" s="54"/>
-      <c r="M178" s="94"/>
+      <c r="M178" s="89"/>
       <c r="N178" s="54"/>
-      <c r="O178" s="94"/>
+      <c r="O178" s="89"/>
       <c r="P178" s="117"/>
     </row>
     <row r="179" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8467,9 +8464,9 @@
       <c r="I179" s="53"/>
       <c r="K179" s="53"/>
       <c r="L179" s="54"/>
-      <c r="M179" s="94"/>
+      <c r="M179" s="89"/>
       <c r="N179" s="54"/>
-      <c r="O179" s="94"/>
+      <c r="O179" s="89"/>
       <c r="P179" s="117"/>
     </row>
     <row r="180" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8477,9 +8474,9 @@
       <c r="I180" s="53"/>
       <c r="K180" s="53"/>
       <c r="L180" s="54"/>
-      <c r="M180" s="94"/>
+      <c r="M180" s="89"/>
       <c r="N180" s="54"/>
-      <c r="O180" s="94"/>
+      <c r="O180" s="89"/>
       <c r="P180" s="117"/>
     </row>
     <row r="181" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8487,9 +8484,9 @@
       <c r="I181" s="53"/>
       <c r="K181" s="53"/>
       <c r="L181" s="54"/>
-      <c r="M181" s="94"/>
+      <c r="M181" s="89"/>
       <c r="N181" s="54"/>
-      <c r="O181" s="94"/>
+      <c r="O181" s="89"/>
       <c r="P181" s="117"/>
     </row>
     <row r="182" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8497,9 +8494,9 @@
       <c r="I182" s="53"/>
       <c r="K182" s="53"/>
       <c r="L182" s="54"/>
-      <c r="M182" s="94"/>
+      <c r="M182" s="89"/>
       <c r="N182" s="54"/>
-      <c r="O182" s="94"/>
+      <c r="O182" s="89"/>
       <c r="P182" s="117"/>
     </row>
     <row r="183" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8507,9 +8504,9 @@
       <c r="I183" s="53"/>
       <c r="K183" s="53"/>
       <c r="L183" s="54"/>
-      <c r="M183" s="94"/>
+      <c r="M183" s="89"/>
       <c r="N183" s="54"/>
-      <c r="O183" s="94"/>
+      <c r="O183" s="89"/>
       <c r="P183" s="117"/>
     </row>
     <row r="184" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8517,9 +8514,9 @@
       <c r="I184" s="53"/>
       <c r="K184" s="53"/>
       <c r="L184" s="54"/>
-      <c r="M184" s="94"/>
+      <c r="M184" s="89"/>
       <c r="N184" s="54"/>
-      <c r="O184" s="94"/>
+      <c r="O184" s="89"/>
       <c r="P184" s="117"/>
     </row>
     <row r="185" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8527,9 +8524,9 @@
       <c r="I185" s="53"/>
       <c r="K185" s="53"/>
       <c r="L185" s="54"/>
-      <c r="M185" s="94"/>
+      <c r="M185" s="89"/>
       <c r="N185" s="54"/>
-      <c r="O185" s="94"/>
+      <c r="O185" s="89"/>
       <c r="P185" s="117"/>
     </row>
     <row r="186" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8537,9 +8534,9 @@
       <c r="I186" s="53"/>
       <c r="K186" s="53"/>
       <c r="L186" s="54"/>
-      <c r="M186" s="94"/>
+      <c r="M186" s="89"/>
       <c r="N186" s="54"/>
-      <c r="O186" s="94"/>
+      <c r="O186" s="89"/>
       <c r="P186" s="117"/>
     </row>
     <row r="187" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8547,9 +8544,9 @@
       <c r="I187" s="53"/>
       <c r="K187" s="53"/>
       <c r="L187" s="54"/>
-      <c r="M187" s="94"/>
+      <c r="M187" s="89"/>
       <c r="N187" s="54"/>
-      <c r="O187" s="94"/>
+      <c r="O187" s="89"/>
       <c r="P187" s="117"/>
     </row>
     <row r="188" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8557,9 +8554,9 @@
       <c r="I188" s="53"/>
       <c r="K188" s="53"/>
       <c r="L188" s="54"/>
-      <c r="M188" s="94"/>
+      <c r="M188" s="89"/>
       <c r="N188" s="54"/>
-      <c r="O188" s="94"/>
+      <c r="O188" s="89"/>
       <c r="P188" s="117"/>
     </row>
     <row r="189" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8567,9 +8564,9 @@
       <c r="I189" s="53"/>
       <c r="K189" s="53"/>
       <c r="L189" s="54"/>
-      <c r="M189" s="94"/>
+      <c r="M189" s="89"/>
       <c r="N189" s="54"/>
-      <c r="O189" s="94"/>
+      <c r="O189" s="89"/>
       <c r="P189" s="117"/>
     </row>
     <row r="190" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8577,9 +8574,9 @@
       <c r="I190" s="53"/>
       <c r="K190" s="53"/>
       <c r="L190" s="54"/>
-      <c r="M190" s="94"/>
+      <c r="M190" s="89"/>
       <c r="N190" s="54"/>
-      <c r="O190" s="94"/>
+      <c r="O190" s="89"/>
       <c r="P190" s="117"/>
     </row>
     <row r="191" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8587,9 +8584,9 @@
       <c r="I191" s="53"/>
       <c r="K191" s="53"/>
       <c r="L191" s="54"/>
-      <c r="M191" s="94"/>
+      <c r="M191" s="89"/>
       <c r="N191" s="54"/>
-      <c r="O191" s="94"/>
+      <c r="O191" s="89"/>
       <c r="P191" s="117"/>
     </row>
     <row r="192" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8597,9 +8594,9 @@
       <c r="I192" s="53"/>
       <c r="K192" s="53"/>
       <c r="L192" s="54"/>
-      <c r="M192" s="94"/>
+      <c r="M192" s="89"/>
       <c r="N192" s="54"/>
-      <c r="O192" s="94"/>
+      <c r="O192" s="89"/>
       <c r="P192" s="117"/>
     </row>
     <row r="193" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8607,9 +8604,9 @@
       <c r="I193" s="53"/>
       <c r="K193" s="53"/>
       <c r="L193" s="54"/>
-      <c r="M193" s="94"/>
+      <c r="M193" s="89"/>
       <c r="N193" s="54"/>
-      <c r="O193" s="94"/>
+      <c r="O193" s="89"/>
       <c r="P193" s="117"/>
     </row>
     <row r="194" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8617,9 +8614,9 @@
       <c r="I194" s="53"/>
       <c r="K194" s="53"/>
       <c r="L194" s="54"/>
-      <c r="M194" s="94"/>
+      <c r="M194" s="89"/>
       <c r="N194" s="54"/>
-      <c r="O194" s="94"/>
+      <c r="O194" s="89"/>
       <c r="P194" s="117"/>
     </row>
     <row r="195" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8627,9 +8624,9 @@
       <c r="I195" s="53"/>
       <c r="K195" s="53"/>
       <c r="L195" s="54"/>
-      <c r="M195" s="94"/>
+      <c r="M195" s="89"/>
       <c r="N195" s="54"/>
-      <c r="O195" s="94"/>
+      <c r="O195" s="89"/>
       <c r="P195" s="117"/>
     </row>
     <row r="196" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8637,9 +8634,9 @@
       <c r="I196" s="53"/>
       <c r="K196" s="53"/>
       <c r="L196" s="54"/>
-      <c r="M196" s="94"/>
+      <c r="M196" s="89"/>
       <c r="N196" s="54"/>
-      <c r="O196" s="94"/>
+      <c r="O196" s="89"/>
       <c r="P196" s="117"/>
     </row>
     <row r="197" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8647,9 +8644,9 @@
       <c r="I197" s="53"/>
       <c r="K197" s="53"/>
       <c r="L197" s="54"/>
-      <c r="M197" s="94"/>
+      <c r="M197" s="89"/>
       <c r="N197" s="54"/>
-      <c r="O197" s="94"/>
+      <c r="O197" s="89"/>
       <c r="P197" s="117"/>
     </row>
     <row r="198" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8657,9 +8654,9 @@
       <c r="I198" s="53"/>
       <c r="K198" s="53"/>
       <c r="L198" s="54"/>
-      <c r="M198" s="94"/>
+      <c r="M198" s="89"/>
       <c r="N198" s="54"/>
-      <c r="O198" s="94"/>
+      <c r="O198" s="89"/>
       <c r="P198" s="117"/>
     </row>
     <row r="199" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8667,9 +8664,9 @@
       <c r="I199" s="53"/>
       <c r="K199" s="53"/>
       <c r="L199" s="54"/>
-      <c r="M199" s="94"/>
+      <c r="M199" s="89"/>
       <c r="N199" s="54"/>
-      <c r="O199" s="94"/>
+      <c r="O199" s="89"/>
       <c r="P199" s="117"/>
     </row>
     <row r="200" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8677,9 +8674,9 @@
       <c r="I200" s="53"/>
       <c r="K200" s="53"/>
       <c r="L200" s="54"/>
-      <c r="M200" s="94"/>
+      <c r="M200" s="89"/>
       <c r="N200" s="54"/>
-      <c r="O200" s="94"/>
+      <c r="O200" s="89"/>
       <c r="P200" s="117"/>
     </row>
     <row r="201" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8687,9 +8684,9 @@
       <c r="I201" s="53"/>
       <c r="K201" s="53"/>
       <c r="L201" s="54"/>
-      <c r="M201" s="94"/>
+      <c r="M201" s="89"/>
       <c r="N201" s="54"/>
-      <c r="O201" s="94"/>
+      <c r="O201" s="89"/>
       <c r="P201" s="117"/>
     </row>
     <row r="202" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8697,9 +8694,9 @@
       <c r="I202" s="53"/>
       <c r="K202" s="53"/>
       <c r="L202" s="54"/>
-      <c r="M202" s="94"/>
+      <c r="M202" s="89"/>
       <c r="N202" s="54"/>
-      <c r="O202" s="94"/>
+      <c r="O202" s="89"/>
       <c r="P202" s="117"/>
     </row>
     <row r="203" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8707,9 +8704,9 @@
       <c r="I203" s="53"/>
       <c r="K203" s="53"/>
       <c r="L203" s="54"/>
-      <c r="M203" s="94"/>
+      <c r="M203" s="89"/>
       <c r="N203" s="54"/>
-      <c r="O203" s="94"/>
+      <c r="O203" s="89"/>
       <c r="P203" s="117"/>
     </row>
     <row r="204" spans="7:16" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8717,9 +8714,9 @@
       <c r="I204" s="53"/>
       <c r="K204" s="53"/>
       <c r="L204" s="54"/>
-      <c r="M204" s="94"/>
+      <c r="M204" s="89"/>
       <c r="N204" s="54"/>
-      <c r="O204" s="94"/>
+      <c r="O204" s="89"/>
       <c r="P204" s="117"/>
     </row>
     <row r="205" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8727,9 +8724,9 @@
       <c r="I205" s="53"/>
       <c r="K205" s="53"/>
       <c r="L205" s="54"/>
-      <c r="M205" s="94"/>
+      <c r="M205" s="89"/>
       <c r="N205" s="54"/>
-      <c r="O205" s="94"/>
+      <c r="O205" s="89"/>
       <c r="P205" s="117"/>
     </row>
     <row r="206" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8737,9 +8734,9 @@
       <c r="I206" s="53"/>
       <c r="K206" s="53"/>
       <c r="L206" s="54"/>
-      <c r="M206" s="94"/>
+      <c r="M206" s="89"/>
       <c r="N206" s="54"/>
-      <c r="O206" s="94"/>
+      <c r="O206" s="89"/>
       <c r="P206" s="117"/>
     </row>
     <row r="207" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8747,9 +8744,9 @@
       <c r="I207" s="53"/>
       <c r="K207" s="53"/>
       <c r="L207" s="54"/>
-      <c r="M207" s="94"/>
+      <c r="M207" s="89"/>
       <c r="N207" s="54"/>
-      <c r="O207" s="94"/>
+      <c r="O207" s="89"/>
       <c r="P207" s="117"/>
     </row>
     <row r="208" spans="7:16" s="51" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8757,9 +8754,9 @@
       <c r="I208" s="53"/>
       <c r="K208" s="53"/>
       <c r="L208" s="54"/>
-      <c r="M208" s="94"/>
+      <c r="M208" s="89"/>
       <c r="N208" s="54"/>
-      <c r="O208" s="94"/>
+      <c r="O208" s="89"/>
       <c r="P208" s="117"/>
     </row>
     <row r="209" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8767,9 +8764,9 @@
       <c r="I209" s="53"/>
       <c r="K209" s="53"/>
       <c r="L209" s="54"/>
-      <c r="M209" s="94"/>
+      <c r="M209" s="89"/>
       <c r="N209" s="54"/>
-      <c r="O209" s="94"/>
+      <c r="O209" s="89"/>
       <c r="P209" s="117"/>
     </row>
     <row r="210" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8777,9 +8774,9 @@
       <c r="I210" s="53"/>
       <c r="K210" s="53"/>
       <c r="L210" s="54"/>
-      <c r="M210" s="94"/>
+      <c r="M210" s="89"/>
       <c r="N210" s="54"/>
-      <c r="O210" s="94"/>
+      <c r="O210" s="89"/>
       <c r="P210" s="117"/>
     </row>
     <row r="211" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8787,9 +8784,9 @@
       <c r="I211" s="53"/>
       <c r="K211" s="53"/>
       <c r="L211" s="54"/>
-      <c r="M211" s="94"/>
+      <c r="M211" s="89"/>
       <c r="N211" s="54"/>
-      <c r="O211" s="94"/>
+      <c r="O211" s="89"/>
       <c r="P211" s="117"/>
     </row>
     <row r="212" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8797,9 +8794,9 @@
       <c r="I212" s="53"/>
       <c r="K212" s="53"/>
       <c r="L212" s="54"/>
-      <c r="M212" s="94"/>
+      <c r="M212" s="89"/>
       <c r="N212" s="54"/>
-      <c r="O212" s="94"/>
+      <c r="O212" s="89"/>
       <c r="P212" s="117"/>
     </row>
     <row r="213" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8807,9 +8804,9 @@
       <c r="I213" s="53"/>
       <c r="K213" s="53"/>
       <c r="L213" s="54"/>
-      <c r="M213" s="94"/>
+      <c r="M213" s="89"/>
       <c r="N213" s="54"/>
-      <c r="O213" s="94"/>
+      <c r="O213" s="89"/>
       <c r="P213" s="117"/>
     </row>
     <row r="214" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8817,9 +8814,9 @@
       <c r="I214" s="53"/>
       <c r="K214" s="53"/>
       <c r="L214" s="54"/>
-      <c r="M214" s="94"/>
+      <c r="M214" s="89"/>
       <c r="N214" s="54"/>
-      <c r="O214" s="94"/>
+      <c r="O214" s="89"/>
       <c r="P214" s="117"/>
     </row>
     <row r="215" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8827,9 +8824,9 @@
       <c r="I215" s="53"/>
       <c r="K215" s="53"/>
       <c r="L215" s="54"/>
-      <c r="M215" s="94"/>
+      <c r="M215" s="89"/>
       <c r="N215" s="54"/>
-      <c r="O215" s="94"/>
+      <c r="O215" s="89"/>
       <c r="P215" s="117"/>
     </row>
     <row r="216" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8837,9 +8834,9 @@
       <c r="I216" s="53"/>
       <c r="K216" s="53"/>
       <c r="L216" s="54"/>
-      <c r="M216" s="94"/>
+      <c r="M216" s="89"/>
       <c r="N216" s="54"/>
-      <c r="O216" s="94"/>
+      <c r="O216" s="89"/>
       <c r="P216" s="117"/>
     </row>
     <row r="217" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8847,9 +8844,9 @@
       <c r="I217" s="53"/>
       <c r="K217" s="53"/>
       <c r="L217" s="54"/>
-      <c r="M217" s="94"/>
+      <c r="M217" s="89"/>
       <c r="N217" s="54"/>
-      <c r="O217" s="94"/>
+      <c r="O217" s="89"/>
       <c r="P217" s="117"/>
     </row>
     <row r="218" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8857,9 +8854,9 @@
       <c r="I218" s="53"/>
       <c r="K218" s="53"/>
       <c r="L218" s="54"/>
-      <c r="M218" s="94"/>
+      <c r="M218" s="89"/>
       <c r="N218" s="54"/>
-      <c r="O218" s="94"/>
+      <c r="O218" s="89"/>
       <c r="P218" s="117"/>
     </row>
     <row r="219" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8867,9 +8864,9 @@
       <c r="I219" s="53"/>
       <c r="K219" s="53"/>
       <c r="L219" s="54"/>
-      <c r="M219" s="94"/>
+      <c r="M219" s="89"/>
       <c r="N219" s="54"/>
-      <c r="O219" s="94"/>
+      <c r="O219" s="89"/>
       <c r="P219" s="117"/>
     </row>
     <row r="224" spans="4:16" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8880,10 +8877,10 @@
       <c r="I224" s="56"/>
       <c r="K224" s="56"/>
       <c r="L224" s="5"/>
-      <c r="M224" s="95"/>
+      <c r="M224" s="90"/>
       <c r="N224" s="5"/>
-      <c r="O224" s="95"/>
-      <c r="P224" s="111"/>
+      <c r="O224" s="90"/>
+      <c r="P224" s="113"/>
     </row>
     <row r="225" spans="4:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D225" s="50"/>
@@ -8892,9 +8889,9 @@
       <c r="G225" s="4"/>
       <c r="I225" s="6"/>
       <c r="K225" s="6"/>
-      <c r="M225" s="89"/>
-      <c r="O225" s="89"/>
-      <c r="P225" s="111"/>
+      <c r="M225" s="84"/>
+      <c r="O225" s="84"/>
+      <c r="P225" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8939,21 +8936,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
       <c r="D3" s="57" t="s">
         <v>6</v>
       </c>

--- a/DS 2017 Seed Support/DS 2017 SEED ALLOCATIONS revised.xlsx
+++ b/DS 2017 Seed Support/DS 2017 SEED ALLOCATIONS revised.xlsx
@@ -133,6 +133,30 @@
           </rPr>
           <t xml:space="preserve">
 wrong form</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P48" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>BOHOL APC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+no values</t>
         </r>
       </text>
     </comment>
@@ -665,14 +689,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -735,6 +754,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1076,24 +1098,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
+      <c r="A1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
     </row>
     <row r="2" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="4"/>
       <c r="I2" s="6"/>
       <c r="L2" s="6"/>
@@ -1110,19 +1132,19 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="109"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
@@ -1133,20 +1155,20 @@
         <v>5</v>
       </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="109"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1218,11 +1240,11 @@
       <c r="X7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Y7" s="111" t="s">
+      <c r="Y7" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="111"/>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="108"/>
     </row>
     <row r="8" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
@@ -4607,11 +4629,11 @@
   <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P51" sqref="P51"/>
+      <selection pane="bottomRight" activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4628,10 +4650,10 @@
     <col min="10" max="10" width="12.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="5.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="83" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="80" customWidth="1"/>
     <col min="14" max="14" width="5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="83" customWidth="1"/>
-    <col min="16" max="16" width="13" style="112" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="80" customWidth="1"/>
+    <col min="16" max="16" width="13" style="109" customWidth="1"/>
     <col min="17" max="18" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="24" width="9.140625" style="2"/>
     <col min="25" max="25" width="12" style="2" customWidth="1"/>
@@ -4641,30 +4663,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
+      <c r="A1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
     </row>
     <row r="2" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="4"/>
       <c r="I2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="M2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="113"/>
+      <c r="M2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="58"/>
@@ -4678,19 +4700,19 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="109"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
@@ -4701,22 +4723,22 @@
         <v>5</v>
       </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="109"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -4725,50 +4747,50 @@
       <c r="I6" s="59"/>
       <c r="J6" s="59"/>
       <c r="K6" s="59"/>
-      <c r="L6" s="110" t="s">
+      <c r="L6" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110" t="s">
+      <c r="M6" s="107"/>
+      <c r="N6" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="O6" s="110"/>
-      <c r="P6" s="114"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="111"/>
       <c r="Q6" s="59"/>
       <c r="R6" s="59"/>
     </row>
     <row r="7" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="109"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
+      <c r="A7" s="106"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="104" t="s">
+      <c r="I7" s="101" t="s">
         <v>79</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="104" t="s">
+      <c r="K7" s="101" t="s">
         <v>80</v>
       </c>
       <c r="L7" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="M7" s="85" t="s">
+      <c r="M7" s="82" t="s">
         <v>82</v>
       </c>
       <c r="N7" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="91" t="s">
+      <c r="O7" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="P7" s="105" t="s">
+      <c r="P7" s="102" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4807,16 +4829,16 @@
         <v>1670</v>
       </c>
       <c r="L8" s="19"/>
-      <c r="M8" s="86">
+      <c r="M8" s="83">
         <f>SUM(M9+M23+M38)</f>
         <v>47.924999999999997</v>
       </c>
       <c r="N8" s="19"/>
-      <c r="O8" s="86">
+      <c r="O8" s="83">
         <f>SUM(O9+O23+O38)</f>
         <v>88.2</v>
       </c>
-      <c r="P8" s="115"/>
+      <c r="P8" s="112"/>
       <c r="Q8" t="s">
         <v>9</v>
       </c>
@@ -4835,50 +4857,50 @@
       <c r="Z8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="111" t="s">
+      <c r="AA8" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AB8" s="111"/>
-      <c r="AC8" s="111"/>
+      <c r="AB8" s="108"/>
+      <c r="AC8" s="108"/>
     </row>
     <row r="9" spans="1:29" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="103">
+      <c r="B9" s="96"/>
+      <c r="C9" s="100">
         <v>12</v>
       </c>
-      <c r="D9" s="100">
+      <c r="D9" s="97">
         <v>1141.9625725706671</v>
       </c>
-      <c r="E9" s="100">
+      <c r="E9" s="97">
         <v>4227.5374274293326</v>
       </c>
-      <c r="F9" s="100">
+      <c r="F9" s="97">
         <v>5369.5</v>
       </c>
-      <c r="G9" s="101">
+      <c r="G9" s="98">
         <f>F9/47378</f>
         <v>0.11333319262104774</v>
       </c>
-      <c r="H9" s="102"/>
-      <c r="I9" s="96">
+      <c r="H9" s="99"/>
+      <c r="I9" s="93">
         <f>SUM(I11:I22)</f>
         <v>325</v>
       </c>
-      <c r="J9" s="102"/>
-      <c r="K9" s="96">
+      <c r="J9" s="99"/>
+      <c r="K9" s="93">
         <f>SUM(K11:K22)</f>
         <v>189</v>
       </c>
-      <c r="L9" s="102"/>
-      <c r="M9" s="96">
+      <c r="L9" s="99"/>
+      <c r="M9" s="93">
         <f>SUM(M11:M22)</f>
         <v>7</v>
       </c>
-      <c r="N9" s="102"/>
-      <c r="O9" s="96">
+      <c r="N9" s="99"/>
+      <c r="O9" s="93">
         <f>SUM(O11:O22)</f>
         <v>4</v>
       </c>
@@ -5005,12 +5027,12 @@
         <v>4</v>
       </c>
       <c r="L11" s="36"/>
-      <c r="M11" s="87">
+      <c r="M11" s="84">
         <f t="shared" ref="M11:M17" si="1">L11/40</f>
         <v>0</v>
       </c>
       <c r="N11" s="36"/>
-      <c r="O11" s="87">
+      <c r="O11" s="84">
         <f t="shared" ref="O11:O17" si="2">N11/15</f>
         <v>0</v>
       </c>
@@ -5060,12 +5082,12 @@
         <v>18</v>
       </c>
       <c r="L12" s="36"/>
-      <c r="M12" s="87">
+      <c r="M12" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="36"/>
-      <c r="O12" s="87">
+      <c r="O12" s="84">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5115,12 +5137,12 @@
         <v>3</v>
       </c>
       <c r="L13" s="36"/>
-      <c r="M13" s="87">
+      <c r="M13" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="36"/>
-      <c r="O13" s="87">
+      <c r="O13" s="84">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5160,16 +5182,16 @@
         <v>34</v>
       </c>
       <c r="L14" s="36"/>
-      <c r="M14" s="87">
+      <c r="M14" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N14" s="36"/>
-      <c r="O14" s="87">
+      <c r="O14" s="84">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P14" s="112" t="s">
+      <c r="P14" s="109" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5209,12 +5231,12 @@
         <v>37</v>
       </c>
       <c r="L15" s="36"/>
-      <c r="M15" s="87">
+      <c r="M15" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N15" s="36"/>
-      <c r="O15" s="87">
+      <c r="O15" s="84">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5255,12 +5277,12 @@
         <v>46</v>
       </c>
       <c r="L16" s="36"/>
-      <c r="M16" s="87">
+      <c r="M16" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N16" s="36"/>
-      <c r="O16" s="87">
+      <c r="O16" s="84">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5301,12 +5323,12 @@
         <v>3</v>
       </c>
       <c r="L17" s="36"/>
-      <c r="M17" s="87">
+      <c r="M17" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N17" s="36"/>
-      <c r="O17" s="87">
+      <c r="O17" s="84">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5349,18 +5371,18 @@
       <c r="L18" s="36">
         <v>280</v>
       </c>
-      <c r="M18" s="87">
+      <c r="M18" s="84">
         <f>L18/40</f>
         <v>7</v>
       </c>
       <c r="N18" s="36">
         <v>60</v>
       </c>
-      <c r="O18" s="87">
+      <c r="O18" s="84">
         <f>N18/15</f>
         <v>4</v>
       </c>
-      <c r="P18" s="112" t="s">
+      <c r="P18" s="109" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5399,12 +5421,12 @@
         <v>0</v>
       </c>
       <c r="L19" s="36"/>
-      <c r="M19" s="87">
+      <c r="M19" s="84">
         <f t="shared" ref="M19:M57" si="3">L19/40</f>
         <v>0</v>
       </c>
       <c r="N19" s="36"/>
-      <c r="O19" s="87">
+      <c r="O19" s="84">
         <f t="shared" ref="O19:O57" si="4">N19/15</f>
         <v>0</v>
       </c>
@@ -5445,12 +5467,12 @@
         <v>7</v>
       </c>
       <c r="L20" s="36"/>
-      <c r="M20" s="87">
+      <c r="M20" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N20" s="36"/>
-      <c r="O20" s="87">
+      <c r="O20" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5491,12 +5513,12 @@
         <v>9</v>
       </c>
       <c r="L21" s="36"/>
-      <c r="M21" s="87">
+      <c r="M21" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N21" s="36"/>
-      <c r="O21" s="87">
+      <c r="O21" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5537,55 +5559,55 @@
         <v>24</v>
       </c>
       <c r="L22" s="36"/>
-      <c r="M22" s="87">
+      <c r="M22" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N22" s="36"/>
-      <c r="O22" s="87">
+      <c r="O22" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="98" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="92" t="s">
+    <row r="23" spans="1:16" s="95" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93">
+      <c r="B23" s="90"/>
+      <c r="C23" s="90">
         <v>14</v>
       </c>
-      <c r="D23" s="94">
+      <c r="D23" s="91">
         <v>10693.111658894071</v>
       </c>
-      <c r="E23" s="94">
+      <c r="E23" s="91">
         <v>12058.398341105929</v>
       </c>
-      <c r="F23" s="94">
+      <c r="F23" s="91">
         <v>22751.510000000002</v>
       </c>
-      <c r="G23" s="95"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96">
+      <c r="G23" s="92"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93">
         <f>SUM(I24:I37)</f>
         <v>1390</v>
       </c>
-      <c r="J23" s="97"/>
-      <c r="K23" s="96">
+      <c r="J23" s="94"/>
+      <c r="K23" s="93">
         <f>SUM(K24:K37)</f>
         <v>801</v>
       </c>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96">
+      <c r="L23" s="93"/>
+      <c r="M23" s="93">
         <f>SUM(M24:M37)</f>
         <v>40.924999999999997</v>
       </c>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96">
+      <c r="N23" s="93"/>
+      <c r="O23" s="93">
         <f>SUM(O24:O37)</f>
         <v>29.2</v>
       </c>
-      <c r="P23" s="116"/>
+      <c r="P23" s="113"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="32"/>
@@ -5623,12 +5645,12 @@
         <v>32</v>
       </c>
       <c r="L24" s="36"/>
-      <c r="M24" s="87">
+      <c r="M24" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N24" s="36"/>
-      <c r="O24" s="87">
+      <c r="O24" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5669,12 +5691,12 @@
         <v>26</v>
       </c>
       <c r="L25" s="36"/>
-      <c r="M25" s="87">
+      <c r="M25" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N25" s="36"/>
-      <c r="O25" s="87">
+      <c r="O25" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5715,12 +5737,12 @@
         <v>11</v>
       </c>
       <c r="L26" s="36"/>
-      <c r="M26" s="87">
+      <c r="M26" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N26" s="36"/>
-      <c r="O26" s="87">
+      <c r="O26" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5761,12 +5783,12 @@
         <v>99</v>
       </c>
       <c r="L27" s="36"/>
-      <c r="M27" s="87">
+      <c r="M27" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N27" s="36"/>
-      <c r="O27" s="87">
+      <c r="O27" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5807,12 +5829,12 @@
         <v>25</v>
       </c>
       <c r="L28" s="36"/>
-      <c r="M28" s="87">
+      <c r="M28" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N28" s="36"/>
-      <c r="O28" s="87">
+      <c r="O28" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5853,68 +5875,68 @@
         <v>15</v>
       </c>
       <c r="L29" s="36"/>
-      <c r="M29" s="87">
+      <c r="M29" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N29" s="36"/>
-      <c r="O29" s="87">
+      <c r="O29" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77">
+      <c r="A30" s="115"/>
+      <c r="B30" s="10">
         <v>7</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="78">
+      <c r="D30" s="76">
         <v>196.26625107071476</v>
       </c>
-      <c r="E30" s="78">
+      <c r="E30" s="76">
         <v>350.73374892928524</v>
       </c>
-      <c r="F30" s="78">
+      <c r="F30" s="76">
         <v>547</v>
       </c>
-      <c r="G30" s="79">
+      <c r="G30" s="77">
         <f t="shared" si="5"/>
         <v>1.154544303263118E-2</v>
       </c>
-      <c r="H30" s="80">
+      <c r="H30" s="78">
         <f t="shared" si="6"/>
         <v>33.389421250369374</v>
       </c>
-      <c r="I30" s="81">
+      <c r="I30" s="35">
         <v>33</v>
       </c>
-      <c r="J30" s="80">
+      <c r="J30" s="116">
         <f t="shared" si="7"/>
         <v>19.280889864494071</v>
       </c>
-      <c r="K30" s="81">
+      <c r="K30" s="35">
         <v>19</v>
       </c>
-      <c r="L30" s="81">
+      <c r="L30" s="117">
         <f>649+988</f>
         <v>1637</v>
       </c>
-      <c r="M30" s="81">
+      <c r="M30" s="84">
         <f t="shared" si="3"/>
         <v>40.924999999999997</v>
       </c>
-      <c r="N30" s="81">
+      <c r="N30" s="117">
         <f>240+198</f>
         <v>438</v>
       </c>
-      <c r="O30" s="81">
+      <c r="O30" s="84">
         <f t="shared" si="4"/>
         <v>29.2</v>
       </c>
-      <c r="P30" s="106" t="s">
+      <c r="P30" s="103" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5954,12 +5976,12 @@
         <v>11</v>
       </c>
       <c r="L31" s="36"/>
-      <c r="M31" s="87">
+      <c r="M31" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N31" s="36"/>
-      <c r="O31" s="87">
+      <c r="O31" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6000,12 +6022,12 @@
         <v>25</v>
       </c>
       <c r="L32" s="36"/>
-      <c r="M32" s="87">
+      <c r="M32" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N32" s="36"/>
-      <c r="O32" s="87">
+      <c r="O32" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6046,12 +6068,12 @@
         <v>14</v>
       </c>
       <c r="L33" s="36"/>
-      <c r="M33" s="87">
+      <c r="M33" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N33" s="36"/>
-      <c r="O33" s="87">
+      <c r="O33" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6092,12 +6114,12 @@
         <v>80</v>
       </c>
       <c r="L34" s="36"/>
-      <c r="M34" s="87">
+      <c r="M34" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N34" s="36"/>
-      <c r="O34" s="87">
+      <c r="O34" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6138,12 +6160,12 @@
         <v>96</v>
       </c>
       <c r="L35" s="36"/>
-      <c r="M35" s="87">
+      <c r="M35" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N35" s="36"/>
-      <c r="O35" s="87">
+      <c r="O35" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6184,12 +6206,12 @@
         <v>134</v>
       </c>
       <c r="L36" s="36"/>
-      <c r="M36" s="87">
+      <c r="M36" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N36" s="36"/>
-      <c r="O36" s="87">
+      <c r="O36" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6230,55 +6252,55 @@
         <v>214</v>
       </c>
       <c r="L37" s="36"/>
-      <c r="M37" s="87">
+      <c r="M37" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N37" s="36"/>
-      <c r="O37" s="87">
+      <c r="O37" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93">
+      <c r="B38" s="90"/>
+      <c r="C38" s="90">
         <v>19</v>
       </c>
-      <c r="D38" s="94">
+      <c r="D38" s="91">
         <v>11206.364352336535</v>
       </c>
-      <c r="E38" s="94">
+      <c r="E38" s="91">
         <v>8050.1356476634619</v>
       </c>
-      <c r="F38" s="94">
+      <c r="F38" s="91">
         <v>19256.5</v>
       </c>
-      <c r="G38" s="95"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="96">
+      <c r="G38" s="92"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="93">
         <f>SUM(I39:I57)</f>
         <v>1177</v>
       </c>
-      <c r="J38" s="97"/>
-      <c r="K38" s="96">
+      <c r="J38" s="94"/>
+      <c r="K38" s="93">
         <f>SUM(K39:K57)</f>
         <v>680</v>
       </c>
-      <c r="L38" s="96"/>
-      <c r="M38" s="96">
+      <c r="L38" s="93"/>
+      <c r="M38" s="93">
         <f>SUM(M39:M57)</f>
         <v>0</v>
       </c>
-      <c r="N38" s="96"/>
-      <c r="O38" s="96">
+      <c r="N38" s="93"/>
+      <c r="O38" s="93">
         <f>SUM(O39:O57)</f>
         <v>55</v>
       </c>
-      <c r="P38" s="112"/>
+      <c r="P38" s="109"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="32"/>
@@ -6316,12 +6338,12 @@
         <v>78</v>
       </c>
       <c r="L39" s="36"/>
-      <c r="M39" s="87">
+      <c r="M39" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N39" s="36"/>
-      <c r="O39" s="87">
+      <c r="O39" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6362,12 +6384,12 @@
         <v>3</v>
       </c>
       <c r="L40" s="36"/>
-      <c r="M40" s="87">
+      <c r="M40" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N40" s="36"/>
-      <c r="O40" s="87">
+      <c r="O40" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6408,12 +6430,12 @@
         <v>35</v>
       </c>
       <c r="L41" s="36"/>
-      <c r="M41" s="87">
+      <c r="M41" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N41" s="36"/>
-      <c r="O41" s="87">
+      <c r="O41" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6454,16 +6476,16 @@
         <v>32</v>
       </c>
       <c r="L42" s="36"/>
-      <c r="M42" s="87">
+      <c r="M42" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N42" s="36"/>
-      <c r="O42" s="87">
+      <c r="O42" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P42" s="112"/>
+      <c r="P42" s="109"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
@@ -6505,16 +6527,16 @@
         <v>59</v>
       </c>
       <c r="L43" s="36"/>
-      <c r="M43" s="87">
+      <c r="M43" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N43" s="36"/>
-      <c r="O43" s="87">
+      <c r="O43" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P43" s="112"/>
+      <c r="P43" s="109"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
@@ -6556,16 +6578,16 @@
         <v>102</v>
       </c>
       <c r="L44" s="36"/>
-      <c r="M44" s="87">
+      <c r="M44" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N44" s="36"/>
-      <c r="O44" s="87">
+      <c r="O44" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P44" s="112"/>
+      <c r="P44" s="109"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
@@ -6607,16 +6629,16 @@
         <v>12</v>
       </c>
       <c r="L45" s="36"/>
-      <c r="M45" s="87">
+      <c r="M45" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N45" s="36"/>
-      <c r="O45" s="87">
+      <c r="O45" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P45" s="112"/>
+      <c r="P45" s="109"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -6658,16 +6680,16 @@
         <v>27</v>
       </c>
       <c r="L46" s="36"/>
-      <c r="M46" s="87">
+      <c r="M46" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N46" s="36"/>
-      <c r="O46" s="87">
+      <c r="O46" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P46" s="112"/>
+      <c r="P46" s="109"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
@@ -6709,67 +6731,67 @@
         <v>24</v>
       </c>
       <c r="L47" s="36"/>
-      <c r="M47" s="87">
+      <c r="M47" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N47" s="36"/>
-      <c r="O47" s="87">
+      <c r="O47" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P47" s="112"/>
+      <c r="P47" s="109"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="76"/>
-      <c r="B48" s="77">
+    <row r="48" spans="1:20" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="115"/>
+      <c r="B48" s="10">
         <v>10</v>
       </c>
-      <c r="C48" s="76" t="s">
+      <c r="C48" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="78">
+      <c r="D48" s="76">
         <v>329.48608070809939</v>
       </c>
-      <c r="E48" s="78">
+      <c r="E48" s="76">
         <v>525.01391929190061</v>
       </c>
-      <c r="F48" s="78">
+      <c r="F48" s="76">
         <v>854.5</v>
       </c>
-      <c r="G48" s="79">
+      <c r="G48" s="77">
         <f t="shared" si="8"/>
         <v>1.8035797205454007E-2</v>
       </c>
-      <c r="H48" s="80">
+      <c r="H48" s="78">
         <f t="shared" si="9"/>
         <v>52.159525518172991</v>
       </c>
-      <c r="I48" s="81">
+      <c r="I48" s="35">
         <v>52</v>
       </c>
-      <c r="J48" s="80">
+      <c r="J48" s="116">
         <f t="shared" si="10"/>
         <v>30.119781333108193</v>
       </c>
-      <c r="K48" s="81">
+      <c r="K48" s="35">
         <v>30</v>
       </c>
-      <c r="L48" s="81"/>
-      <c r="M48" s="87">
+      <c r="L48" s="117"/>
+      <c r="M48" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N48" s="81"/>
-      <c r="O48" s="87">
+      <c r="N48" s="117"/>
+      <c r="O48" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P48" s="106" t="s">
+      <c r="P48" s="103" t="s">
         <v>86</v>
       </c>
       <c r="Q48" s="37"/>
@@ -6813,16 +6835,16 @@
         <v>24</v>
       </c>
       <c r="L49" s="36"/>
-      <c r="M49" s="87">
+      <c r="M49" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N49" s="36"/>
-      <c r="O49" s="87">
+      <c r="O49" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P49" s="112"/>
+      <c r="P49" s="109"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
@@ -6864,7 +6886,7 @@
         <v>3</v>
       </c>
       <c r="L50" s="36"/>
-      <c r="M50" s="87">
+      <c r="M50" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6872,11 +6894,11 @@
         <f>450+105+180+90</f>
         <v>825</v>
       </c>
-      <c r="O50" s="87">
+      <c r="O50" s="84">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="P50" s="112" t="s">
+      <c r="P50" s="109" t="s">
         <v>87</v>
       </c>
       <c r="Q50" s="2"/>
@@ -6920,16 +6942,16 @@
         <v>5</v>
       </c>
       <c r="L51" s="36"/>
-      <c r="M51" s="87">
+      <c r="M51" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N51" s="36"/>
-      <c r="O51" s="87">
+      <c r="O51" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P51" s="112"/>
+      <c r="P51" s="109"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
@@ -6971,16 +6993,16 @@
         <v>15</v>
       </c>
       <c r="L52" s="36"/>
-      <c r="M52" s="87">
+      <c r="M52" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N52" s="36"/>
-      <c r="O52" s="87">
+      <c r="O52" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P52" s="112"/>
+      <c r="P52" s="109"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
@@ -7022,16 +7044,16 @@
         <v>40</v>
       </c>
       <c r="L53" s="36"/>
-      <c r="M53" s="87">
+      <c r="M53" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N53" s="36"/>
-      <c r="O53" s="87">
+      <c r="O53" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P53" s="112"/>
+      <c r="P53" s="109"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
@@ -7073,16 +7095,16 @@
         <v>101</v>
       </c>
       <c r="L54" s="36"/>
-      <c r="M54" s="87">
+      <c r="M54" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N54" s="36"/>
-      <c r="O54" s="87">
+      <c r="O54" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P54" s="112"/>
+      <c r="P54" s="109"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
@@ -7124,16 +7146,16 @@
         <v>20</v>
       </c>
       <c r="L55" s="36"/>
-      <c r="M55" s="87">
+      <c r="M55" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N55" s="36"/>
-      <c r="O55" s="87">
+      <c r="O55" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P55" s="112"/>
+      <c r="P55" s="109"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -7175,16 +7197,16 @@
         <v>42</v>
       </c>
       <c r="L56" s="36"/>
-      <c r="M56" s="87">
+      <c r="M56" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N56" s="36"/>
-      <c r="O56" s="87">
+      <c r="O56" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P56" s="112"/>
+      <c r="P56" s="109"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -7226,16 +7248,16 @@
         <v>28</v>
       </c>
       <c r="L57" s="36"/>
-      <c r="M57" s="87">
+      <c r="M57" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N57" s="36"/>
-      <c r="O57" s="87">
+      <c r="O57" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P57" s="112"/>
+      <c r="P57" s="109"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
@@ -7257,10 +7279,10 @@
       <c r="J58" s="36"/>
       <c r="K58" s="35"/>
       <c r="L58" s="36"/>
-      <c r="M58" s="88"/>
+      <c r="M58" s="85"/>
       <c r="N58" s="36"/>
-      <c r="O58" s="87"/>
-      <c r="P58" s="112"/>
+      <c r="O58" s="84"/>
+      <c r="P58" s="109"/>
     </row>
     <row r="59" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D59" s="50"/>
@@ -7269,9 +7291,9 @@
       <c r="G59" s="4"/>
       <c r="I59" s="6"/>
       <c r="K59" s="6"/>
-      <c r="M59" s="84"/>
-      <c r="O59" s="84"/>
-      <c r="P59" s="113"/>
+      <c r="M59" s="81"/>
+      <c r="O59" s="81"/>
+      <c r="P59" s="110"/>
     </row>
     <row r="60" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D60" s="50"/>
@@ -7280,9 +7302,9 @@
       <c r="G60" s="4"/>
       <c r="I60" s="6"/>
       <c r="K60" s="6"/>
-      <c r="M60" s="84"/>
-      <c r="O60" s="84"/>
-      <c r="P60" s="113"/>
+      <c r="M60" s="81"/>
+      <c r="O60" s="81"/>
+      <c r="P60" s="110"/>
     </row>
     <row r="61" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D61" s="50"/>
@@ -7291,9 +7313,9 @@
       <c r="G61" s="4"/>
       <c r="I61" s="6"/>
       <c r="K61" s="6"/>
-      <c r="M61" s="84"/>
-      <c r="O61" s="84"/>
-      <c r="P61" s="113"/>
+      <c r="M61" s="81"/>
+      <c r="O61" s="81"/>
+      <c r="P61" s="110"/>
     </row>
     <row r="63" spans="1:20" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="51"/>
@@ -7305,1569 +7327,1569 @@
       <c r="G63" s="4"/>
       <c r="I63" s="6"/>
       <c r="K63" s="6"/>
-      <c r="M63" s="84"/>
-      <c r="O63" s="84"/>
-      <c r="P63" s="113"/>
+      <c r="M63" s="81"/>
+      <c r="O63" s="81"/>
+      <c r="P63" s="110"/>
     </row>
     <row r="64" spans="1:20" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G64" s="52"/>
       <c r="I64" s="53"/>
       <c r="K64" s="53"/>
       <c r="L64" s="54"/>
-      <c r="M64" s="89"/>
+      <c r="M64" s="86"/>
       <c r="N64" s="54"/>
-      <c r="O64" s="89"/>
-      <c r="P64" s="117"/>
+      <c r="O64" s="86"/>
+      <c r="P64" s="114"/>
     </row>
     <row r="65" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G65" s="52"/>
       <c r="I65" s="53"/>
       <c r="K65" s="53"/>
       <c r="L65" s="54"/>
-      <c r="M65" s="89"/>
+      <c r="M65" s="86"/>
       <c r="N65" s="54"/>
-      <c r="O65" s="89"/>
-      <c r="P65" s="117"/>
+      <c r="O65" s="86"/>
+      <c r="P65" s="114"/>
     </row>
     <row r="66" spans="7:16" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G66" s="52"/>
       <c r="I66" s="53"/>
       <c r="K66" s="53"/>
       <c r="L66" s="54"/>
-      <c r="M66" s="89"/>
+      <c r="M66" s="86"/>
       <c r="N66" s="54"/>
-      <c r="O66" s="89"/>
-      <c r="P66" s="117"/>
+      <c r="O66" s="86"/>
+      <c r="P66" s="114"/>
     </row>
     <row r="67" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G67" s="52"/>
       <c r="I67" s="53"/>
       <c r="K67" s="53"/>
       <c r="L67" s="54"/>
-      <c r="M67" s="89"/>
+      <c r="M67" s="86"/>
       <c r="N67" s="54"/>
-      <c r="O67" s="89"/>
-      <c r="P67" s="117"/>
+      <c r="O67" s="86"/>
+      <c r="P67" s="114"/>
     </row>
     <row r="68" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G68" s="52"/>
       <c r="I68" s="53"/>
       <c r="K68" s="53"/>
       <c r="L68" s="54"/>
-      <c r="M68" s="89"/>
+      <c r="M68" s="86"/>
       <c r="N68" s="54"/>
-      <c r="O68" s="89"/>
-      <c r="P68" s="117"/>
+      <c r="O68" s="86"/>
+      <c r="P68" s="114"/>
     </row>
     <row r="69" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G69" s="52"/>
       <c r="I69" s="53"/>
       <c r="K69" s="53"/>
       <c r="L69" s="54"/>
-      <c r="M69" s="89"/>
+      <c r="M69" s="86"/>
       <c r="N69" s="54"/>
-      <c r="O69" s="89"/>
-      <c r="P69" s="117"/>
+      <c r="O69" s="86"/>
+      <c r="P69" s="114"/>
     </row>
     <row r="70" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G70" s="52"/>
       <c r="I70" s="53"/>
       <c r="K70" s="53"/>
       <c r="L70" s="54"/>
-      <c r="M70" s="89"/>
+      <c r="M70" s="86"/>
       <c r="N70" s="54"/>
-      <c r="O70" s="89"/>
-      <c r="P70" s="117"/>
+      <c r="O70" s="86"/>
+      <c r="P70" s="114"/>
     </row>
     <row r="71" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G71" s="52"/>
       <c r="I71" s="53"/>
       <c r="K71" s="53"/>
       <c r="L71" s="54"/>
-      <c r="M71" s="89"/>
+      <c r="M71" s="86"/>
       <c r="N71" s="54"/>
-      <c r="O71" s="89"/>
-      <c r="P71" s="117"/>
+      <c r="O71" s="86"/>
+      <c r="P71" s="114"/>
     </row>
     <row r="72" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G72" s="52"/>
       <c r="I72" s="53"/>
       <c r="K72" s="53"/>
       <c r="L72" s="54"/>
-      <c r="M72" s="89"/>
+      <c r="M72" s="86"/>
       <c r="N72" s="54"/>
-      <c r="O72" s="89"/>
-      <c r="P72" s="117"/>
+      <c r="O72" s="86"/>
+      <c r="P72" s="114"/>
     </row>
     <row r="73" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G73" s="52"/>
       <c r="I73" s="53"/>
       <c r="K73" s="53"/>
       <c r="L73" s="54"/>
-      <c r="M73" s="89"/>
+      <c r="M73" s="86"/>
       <c r="N73" s="54"/>
-      <c r="O73" s="89"/>
-      <c r="P73" s="117"/>
+      <c r="O73" s="86"/>
+      <c r="P73" s="114"/>
     </row>
     <row r="74" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G74" s="52"/>
       <c r="I74" s="53"/>
       <c r="K74" s="53"/>
       <c r="L74" s="54"/>
-      <c r="M74" s="89"/>
+      <c r="M74" s="86"/>
       <c r="N74" s="54"/>
-      <c r="O74" s="89"/>
-      <c r="P74" s="117"/>
+      <c r="O74" s="86"/>
+      <c r="P74" s="114"/>
     </row>
     <row r="75" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G75" s="52"/>
       <c r="I75" s="53"/>
       <c r="K75" s="53"/>
       <c r="L75" s="54"/>
-      <c r="M75" s="89"/>
+      <c r="M75" s="86"/>
       <c r="N75" s="54"/>
-      <c r="O75" s="89"/>
-      <c r="P75" s="117"/>
+      <c r="O75" s="86"/>
+      <c r="P75" s="114"/>
     </row>
     <row r="76" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G76" s="52"/>
       <c r="I76" s="53"/>
       <c r="K76" s="53"/>
       <c r="L76" s="54"/>
-      <c r="M76" s="89"/>
+      <c r="M76" s="86"/>
       <c r="N76" s="54"/>
-      <c r="O76" s="89"/>
-      <c r="P76" s="117"/>
+      <c r="O76" s="86"/>
+      <c r="P76" s="114"/>
     </row>
     <row r="77" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G77" s="52"/>
       <c r="I77" s="53"/>
       <c r="K77" s="53"/>
       <c r="L77" s="54"/>
-      <c r="M77" s="89"/>
+      <c r="M77" s="86"/>
       <c r="N77" s="54"/>
-      <c r="O77" s="89"/>
-      <c r="P77" s="117"/>
+      <c r="O77" s="86"/>
+      <c r="P77" s="114"/>
     </row>
     <row r="78" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G78" s="52"/>
       <c r="I78" s="53"/>
       <c r="K78" s="53"/>
       <c r="L78" s="54"/>
-      <c r="M78" s="89"/>
+      <c r="M78" s="86"/>
       <c r="N78" s="54"/>
-      <c r="O78" s="89"/>
-      <c r="P78" s="117"/>
+      <c r="O78" s="86"/>
+      <c r="P78" s="114"/>
     </row>
     <row r="79" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G79" s="52"/>
       <c r="I79" s="53"/>
       <c r="K79" s="53"/>
       <c r="L79" s="54"/>
-      <c r="M79" s="89"/>
+      <c r="M79" s="86"/>
       <c r="N79" s="54"/>
-      <c r="O79" s="89"/>
-      <c r="P79" s="117"/>
+      <c r="O79" s="86"/>
+      <c r="P79" s="114"/>
     </row>
     <row r="80" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G80" s="52"/>
       <c r="I80" s="53"/>
       <c r="K80" s="53"/>
       <c r="L80" s="54"/>
-      <c r="M80" s="89"/>
+      <c r="M80" s="86"/>
       <c r="N80" s="54"/>
-      <c r="O80" s="89"/>
-      <c r="P80" s="117"/>
+      <c r="O80" s="86"/>
+      <c r="P80" s="114"/>
     </row>
     <row r="81" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G81" s="52"/>
       <c r="I81" s="53"/>
       <c r="K81" s="53"/>
       <c r="L81" s="54"/>
-      <c r="M81" s="89"/>
+      <c r="M81" s="86"/>
       <c r="N81" s="54"/>
-      <c r="O81" s="89"/>
-      <c r="P81" s="117"/>
+      <c r="O81" s="86"/>
+      <c r="P81" s="114"/>
     </row>
     <row r="82" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G82" s="52"/>
       <c r="I82" s="53"/>
       <c r="K82" s="53"/>
       <c r="L82" s="54"/>
-      <c r="M82" s="89"/>
+      <c r="M82" s="86"/>
       <c r="N82" s="54"/>
-      <c r="O82" s="89"/>
-      <c r="P82" s="117"/>
+      <c r="O82" s="86"/>
+      <c r="P82" s="114"/>
     </row>
     <row r="83" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G83" s="52"/>
       <c r="I83" s="53"/>
       <c r="K83" s="53"/>
       <c r="L83" s="54"/>
-      <c r="M83" s="89"/>
+      <c r="M83" s="86"/>
       <c r="N83" s="54"/>
-      <c r="O83" s="89"/>
-      <c r="P83" s="117"/>
+      <c r="O83" s="86"/>
+      <c r="P83" s="114"/>
     </row>
     <row r="84" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G84" s="52"/>
       <c r="I84" s="53"/>
       <c r="K84" s="53"/>
       <c r="L84" s="54"/>
-      <c r="M84" s="89"/>
+      <c r="M84" s="86"/>
       <c r="N84" s="54"/>
-      <c r="O84" s="89"/>
-      <c r="P84" s="117"/>
+      <c r="O84" s="86"/>
+      <c r="P84" s="114"/>
     </row>
     <row r="85" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G85" s="52"/>
       <c r="I85" s="53"/>
       <c r="K85" s="53"/>
       <c r="L85" s="54"/>
-      <c r="M85" s="89"/>
+      <c r="M85" s="86"/>
       <c r="N85" s="54"/>
-      <c r="O85" s="89"/>
-      <c r="P85" s="117"/>
+      <c r="O85" s="86"/>
+      <c r="P85" s="114"/>
     </row>
     <row r="86" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G86" s="52"/>
       <c r="I86" s="53"/>
       <c r="K86" s="53"/>
       <c r="L86" s="54"/>
-      <c r="M86" s="89"/>
+      <c r="M86" s="86"/>
       <c r="N86" s="54"/>
-      <c r="O86" s="89"/>
-      <c r="P86" s="117"/>
+      <c r="O86" s="86"/>
+      <c r="P86" s="114"/>
     </row>
     <row r="87" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G87" s="52"/>
       <c r="I87" s="53"/>
       <c r="K87" s="53"/>
       <c r="L87" s="54"/>
-      <c r="M87" s="89"/>
+      <c r="M87" s="86"/>
       <c r="N87" s="54"/>
-      <c r="O87" s="89"/>
-      <c r="P87" s="117"/>
+      <c r="O87" s="86"/>
+      <c r="P87" s="114"/>
     </row>
     <row r="88" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G88" s="52"/>
       <c r="I88" s="53"/>
       <c r="K88" s="53"/>
       <c r="L88" s="54"/>
-      <c r="M88" s="89"/>
+      <c r="M88" s="86"/>
       <c r="N88" s="54"/>
-      <c r="O88" s="89"/>
-      <c r="P88" s="117"/>
+      <c r="O88" s="86"/>
+      <c r="P88" s="114"/>
     </row>
     <row r="89" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G89" s="52"/>
       <c r="I89" s="53"/>
       <c r="K89" s="53"/>
       <c r="L89" s="54"/>
-      <c r="M89" s="89"/>
+      <c r="M89" s="86"/>
       <c r="N89" s="54"/>
-      <c r="O89" s="89"/>
-      <c r="P89" s="117"/>
+      <c r="O89" s="86"/>
+      <c r="P89" s="114"/>
     </row>
     <row r="90" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G90" s="52"/>
       <c r="I90" s="53"/>
       <c r="K90" s="53"/>
       <c r="L90" s="54"/>
-      <c r="M90" s="89"/>
+      <c r="M90" s="86"/>
       <c r="N90" s="54"/>
-      <c r="O90" s="89"/>
-      <c r="P90" s="117"/>
+      <c r="O90" s="86"/>
+      <c r="P90" s="114"/>
     </row>
     <row r="91" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G91" s="52"/>
       <c r="I91" s="53"/>
       <c r="K91" s="53"/>
       <c r="L91" s="54"/>
-      <c r="M91" s="89"/>
+      <c r="M91" s="86"/>
       <c r="N91" s="54"/>
-      <c r="O91" s="89"/>
-      <c r="P91" s="117"/>
+      <c r="O91" s="86"/>
+      <c r="P91" s="114"/>
     </row>
     <row r="92" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G92" s="52"/>
       <c r="I92" s="53"/>
       <c r="K92" s="53"/>
       <c r="L92" s="54"/>
-      <c r="M92" s="89"/>
+      <c r="M92" s="86"/>
       <c r="N92" s="54"/>
-      <c r="O92" s="89"/>
-      <c r="P92" s="117"/>
+      <c r="O92" s="86"/>
+      <c r="P92" s="114"/>
     </row>
     <row r="93" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G93" s="52"/>
       <c r="I93" s="53"/>
       <c r="K93" s="53"/>
       <c r="L93" s="54"/>
-      <c r="M93" s="89"/>
+      <c r="M93" s="86"/>
       <c r="N93" s="54"/>
-      <c r="O93" s="89"/>
-      <c r="P93" s="117"/>
+      <c r="O93" s="86"/>
+      <c r="P93" s="114"/>
     </row>
     <row r="94" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G94" s="52"/>
       <c r="I94" s="53"/>
       <c r="K94" s="53"/>
       <c r="L94" s="54"/>
-      <c r="M94" s="89"/>
+      <c r="M94" s="86"/>
       <c r="N94" s="54"/>
-      <c r="O94" s="89"/>
-      <c r="P94" s="117"/>
+      <c r="O94" s="86"/>
+      <c r="P94" s="114"/>
     </row>
     <row r="95" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G95" s="52"/>
       <c r="I95" s="53"/>
       <c r="K95" s="53"/>
       <c r="L95" s="54"/>
-      <c r="M95" s="89"/>
+      <c r="M95" s="86"/>
       <c r="N95" s="54"/>
-      <c r="O95" s="89"/>
-      <c r="P95" s="117"/>
+      <c r="O95" s="86"/>
+      <c r="P95" s="114"/>
     </row>
     <row r="96" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G96" s="52"/>
       <c r="I96" s="53"/>
       <c r="K96" s="53"/>
       <c r="L96" s="54"/>
-      <c r="M96" s="89"/>
+      <c r="M96" s="86"/>
       <c r="N96" s="54"/>
-      <c r="O96" s="89"/>
-      <c r="P96" s="117"/>
+      <c r="O96" s="86"/>
+      <c r="P96" s="114"/>
     </row>
     <row r="97" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G97" s="52"/>
       <c r="I97" s="53"/>
       <c r="K97" s="53"/>
       <c r="L97" s="54"/>
-      <c r="M97" s="89"/>
+      <c r="M97" s="86"/>
       <c r="N97" s="54"/>
-      <c r="O97" s="89"/>
-      <c r="P97" s="117"/>
+      <c r="O97" s="86"/>
+      <c r="P97" s="114"/>
     </row>
     <row r="98" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G98" s="52"/>
       <c r="I98" s="53"/>
       <c r="K98" s="53"/>
       <c r="L98" s="54"/>
-      <c r="M98" s="89"/>
+      <c r="M98" s="86"/>
       <c r="N98" s="54"/>
-      <c r="O98" s="89"/>
-      <c r="P98" s="117"/>
+      <c r="O98" s="86"/>
+      <c r="P98" s="114"/>
     </row>
     <row r="99" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G99" s="52"/>
       <c r="I99" s="53"/>
       <c r="K99" s="53"/>
       <c r="L99" s="54"/>
-      <c r="M99" s="89"/>
+      <c r="M99" s="86"/>
       <c r="N99" s="54"/>
-      <c r="O99" s="89"/>
-      <c r="P99" s="117"/>
+      <c r="O99" s="86"/>
+      <c r="P99" s="114"/>
     </row>
     <row r="100" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G100" s="52"/>
       <c r="I100" s="53"/>
       <c r="K100" s="53"/>
       <c r="L100" s="54"/>
-      <c r="M100" s="89"/>
+      <c r="M100" s="86"/>
       <c r="N100" s="54"/>
-      <c r="O100" s="89"/>
-      <c r="P100" s="117"/>
+      <c r="O100" s="86"/>
+      <c r="P100" s="114"/>
     </row>
     <row r="101" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G101" s="52"/>
       <c r="I101" s="53"/>
       <c r="K101" s="53"/>
       <c r="L101" s="54"/>
-      <c r="M101" s="89"/>
+      <c r="M101" s="86"/>
       <c r="N101" s="54"/>
-      <c r="O101" s="89"/>
-      <c r="P101" s="117"/>
+      <c r="O101" s="86"/>
+      <c r="P101" s="114"/>
     </row>
     <row r="102" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G102" s="52"/>
       <c r="I102" s="53"/>
       <c r="K102" s="53"/>
       <c r="L102" s="54"/>
-      <c r="M102" s="89"/>
+      <c r="M102" s="86"/>
       <c r="N102" s="54"/>
-      <c r="O102" s="89"/>
-      <c r="P102" s="117"/>
+      <c r="O102" s="86"/>
+      <c r="P102" s="114"/>
     </row>
     <row r="103" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G103" s="52"/>
       <c r="I103" s="53"/>
       <c r="K103" s="53"/>
       <c r="L103" s="54"/>
-      <c r="M103" s="89"/>
+      <c r="M103" s="86"/>
       <c r="N103" s="54"/>
-      <c r="O103" s="89"/>
-      <c r="P103" s="117"/>
+      <c r="O103" s="86"/>
+      <c r="P103" s="114"/>
     </row>
     <row r="104" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G104" s="52"/>
       <c r="I104" s="53"/>
       <c r="K104" s="53"/>
       <c r="L104" s="54"/>
-      <c r="M104" s="89"/>
+      <c r="M104" s="86"/>
       <c r="N104" s="54"/>
-      <c r="O104" s="89"/>
-      <c r="P104" s="117"/>
+      <c r="O104" s="86"/>
+      <c r="P104" s="114"/>
     </row>
     <row r="105" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G105" s="52"/>
       <c r="I105" s="53"/>
       <c r="K105" s="53"/>
       <c r="L105" s="54"/>
-      <c r="M105" s="89"/>
+      <c r="M105" s="86"/>
       <c r="N105" s="54"/>
-      <c r="O105" s="89"/>
-      <c r="P105" s="117"/>
+      <c r="O105" s="86"/>
+      <c r="P105" s="114"/>
     </row>
     <row r="106" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G106" s="52"/>
       <c r="I106" s="53"/>
       <c r="K106" s="53"/>
       <c r="L106" s="54"/>
-      <c r="M106" s="89"/>
+      <c r="M106" s="86"/>
       <c r="N106" s="54"/>
-      <c r="O106" s="89"/>
-      <c r="P106" s="117"/>
+      <c r="O106" s="86"/>
+      <c r="P106" s="114"/>
     </row>
     <row r="107" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G107" s="52"/>
       <c r="I107" s="53"/>
       <c r="K107" s="53"/>
       <c r="L107" s="54"/>
-      <c r="M107" s="89"/>
+      <c r="M107" s="86"/>
       <c r="N107" s="54"/>
-      <c r="O107" s="89"/>
-      <c r="P107" s="117"/>
+      <c r="O107" s="86"/>
+      <c r="P107" s="114"/>
     </row>
     <row r="108" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G108" s="52"/>
       <c r="I108" s="53"/>
       <c r="K108" s="53"/>
       <c r="L108" s="54"/>
-      <c r="M108" s="89"/>
+      <c r="M108" s="86"/>
       <c r="N108" s="54"/>
-      <c r="O108" s="89"/>
-      <c r="P108" s="117"/>
+      <c r="O108" s="86"/>
+      <c r="P108" s="114"/>
     </row>
     <row r="109" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G109" s="52"/>
       <c r="I109" s="53"/>
       <c r="K109" s="53"/>
       <c r="L109" s="54"/>
-      <c r="M109" s="89"/>
+      <c r="M109" s="86"/>
       <c r="N109" s="54"/>
-      <c r="O109" s="89"/>
-      <c r="P109" s="117"/>
+      <c r="O109" s="86"/>
+      <c r="P109" s="114"/>
     </row>
     <row r="110" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G110" s="52"/>
       <c r="I110" s="53"/>
       <c r="K110" s="53"/>
       <c r="L110" s="54"/>
-      <c r="M110" s="89"/>
+      <c r="M110" s="86"/>
       <c r="N110" s="54"/>
-      <c r="O110" s="89"/>
-      <c r="P110" s="117"/>
+      <c r="O110" s="86"/>
+      <c r="P110" s="114"/>
     </row>
     <row r="111" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G111" s="52"/>
       <c r="I111" s="53"/>
       <c r="K111" s="53"/>
       <c r="L111" s="54"/>
-      <c r="M111" s="89"/>
+      <c r="M111" s="86"/>
       <c r="N111" s="54"/>
-      <c r="O111" s="89"/>
-      <c r="P111" s="117"/>
+      <c r="O111" s="86"/>
+      <c r="P111" s="114"/>
     </row>
     <row r="112" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G112" s="52"/>
       <c r="I112" s="53"/>
       <c r="K112" s="53"/>
       <c r="L112" s="54"/>
-      <c r="M112" s="89"/>
+      <c r="M112" s="86"/>
       <c r="N112" s="54"/>
-      <c r="O112" s="89"/>
-      <c r="P112" s="117"/>
+      <c r="O112" s="86"/>
+      <c r="P112" s="114"/>
     </row>
     <row r="113" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G113" s="52"/>
       <c r="I113" s="53"/>
       <c r="K113" s="53"/>
       <c r="L113" s="54"/>
-      <c r="M113" s="89"/>
+      <c r="M113" s="86"/>
       <c r="N113" s="54"/>
-      <c r="O113" s="89"/>
-      <c r="P113" s="117"/>
+      <c r="O113" s="86"/>
+      <c r="P113" s="114"/>
     </row>
     <row r="114" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G114" s="52"/>
       <c r="I114" s="53"/>
       <c r="K114" s="53"/>
       <c r="L114" s="54"/>
-      <c r="M114" s="89"/>
+      <c r="M114" s="86"/>
       <c r="N114" s="54"/>
-      <c r="O114" s="89"/>
-      <c r="P114" s="117"/>
+      <c r="O114" s="86"/>
+      <c r="P114" s="114"/>
     </row>
     <row r="115" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G115" s="52"/>
       <c r="I115" s="53"/>
       <c r="K115" s="53"/>
       <c r="L115" s="54"/>
-      <c r="M115" s="89"/>
+      <c r="M115" s="86"/>
       <c r="N115" s="54"/>
-      <c r="O115" s="89"/>
-      <c r="P115" s="117"/>
+      <c r="O115" s="86"/>
+      <c r="P115" s="114"/>
     </row>
     <row r="116" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G116" s="52"/>
       <c r="I116" s="53"/>
       <c r="K116" s="53"/>
       <c r="L116" s="54"/>
-      <c r="M116" s="89"/>
+      <c r="M116" s="86"/>
       <c r="N116" s="54"/>
-      <c r="O116" s="89"/>
-      <c r="P116" s="117"/>
+      <c r="O116" s="86"/>
+      <c r="P116" s="114"/>
     </row>
     <row r="117" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G117" s="52"/>
       <c r="I117" s="53"/>
       <c r="K117" s="53"/>
       <c r="L117" s="54"/>
-      <c r="M117" s="89"/>
+      <c r="M117" s="86"/>
       <c r="N117" s="54"/>
-      <c r="O117" s="89"/>
-      <c r="P117" s="117"/>
+      <c r="O117" s="86"/>
+      <c r="P117" s="114"/>
     </row>
     <row r="118" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G118" s="52"/>
       <c r="I118" s="53"/>
       <c r="K118" s="53"/>
       <c r="L118" s="54"/>
-      <c r="M118" s="89"/>
+      <c r="M118" s="86"/>
       <c r="N118" s="54"/>
-      <c r="O118" s="89"/>
-      <c r="P118" s="117"/>
+      <c r="O118" s="86"/>
+      <c r="P118" s="114"/>
     </row>
     <row r="119" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G119" s="52"/>
       <c r="I119" s="53"/>
       <c r="K119" s="53"/>
       <c r="L119" s="54"/>
-      <c r="M119" s="89"/>
+      <c r="M119" s="86"/>
       <c r="N119" s="54"/>
-      <c r="O119" s="89"/>
-      <c r="P119" s="117"/>
+      <c r="O119" s="86"/>
+      <c r="P119" s="114"/>
     </row>
     <row r="120" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G120" s="52"/>
       <c r="I120" s="53"/>
       <c r="K120" s="53"/>
       <c r="L120" s="54"/>
-      <c r="M120" s="89"/>
+      <c r="M120" s="86"/>
       <c r="N120" s="54"/>
-      <c r="O120" s="89"/>
-      <c r="P120" s="117"/>
+      <c r="O120" s="86"/>
+      <c r="P120" s="114"/>
     </row>
     <row r="121" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G121" s="52"/>
       <c r="I121" s="53"/>
       <c r="K121" s="53"/>
       <c r="L121" s="54"/>
-      <c r="M121" s="89"/>
+      <c r="M121" s="86"/>
       <c r="N121" s="54"/>
-      <c r="O121" s="89"/>
-      <c r="P121" s="117"/>
+      <c r="O121" s="86"/>
+      <c r="P121" s="114"/>
     </row>
     <row r="122" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G122" s="52"/>
       <c r="I122" s="53"/>
       <c r="K122" s="53"/>
       <c r="L122" s="54"/>
-      <c r="M122" s="89"/>
+      <c r="M122" s="86"/>
       <c r="N122" s="54"/>
-      <c r="O122" s="89"/>
-      <c r="P122" s="117"/>
+      <c r="O122" s="86"/>
+      <c r="P122" s="114"/>
     </row>
     <row r="123" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G123" s="52"/>
       <c r="I123" s="53"/>
       <c r="K123" s="53"/>
       <c r="L123" s="54"/>
-      <c r="M123" s="89"/>
+      <c r="M123" s="86"/>
       <c r="N123" s="54"/>
-      <c r="O123" s="89"/>
-      <c r="P123" s="117"/>
+      <c r="O123" s="86"/>
+      <c r="P123" s="114"/>
     </row>
     <row r="124" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G124" s="52"/>
       <c r="I124" s="53"/>
       <c r="K124" s="53"/>
       <c r="L124" s="54"/>
-      <c r="M124" s="89"/>
+      <c r="M124" s="86"/>
       <c r="N124" s="54"/>
-      <c r="O124" s="89"/>
-      <c r="P124" s="117"/>
+      <c r="O124" s="86"/>
+      <c r="P124" s="114"/>
     </row>
     <row r="125" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G125" s="52"/>
       <c r="I125" s="53"/>
       <c r="K125" s="53"/>
       <c r="L125" s="54"/>
-      <c r="M125" s="89"/>
+      <c r="M125" s="86"/>
       <c r="N125" s="54"/>
-      <c r="O125" s="89"/>
-      <c r="P125" s="117"/>
+      <c r="O125" s="86"/>
+      <c r="P125" s="114"/>
     </row>
     <row r="126" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G126" s="52"/>
       <c r="I126" s="53"/>
       <c r="K126" s="53"/>
       <c r="L126" s="54"/>
-      <c r="M126" s="89"/>
+      <c r="M126" s="86"/>
       <c r="N126" s="54"/>
-      <c r="O126" s="89"/>
-      <c r="P126" s="117"/>
+      <c r="O126" s="86"/>
+      <c r="P126" s="114"/>
     </row>
     <row r="127" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G127" s="52"/>
       <c r="I127" s="53"/>
       <c r="K127" s="53"/>
       <c r="L127" s="54"/>
-      <c r="M127" s="89"/>
+      <c r="M127" s="86"/>
       <c r="N127" s="54"/>
-      <c r="O127" s="89"/>
-      <c r="P127" s="117"/>
+      <c r="O127" s="86"/>
+      <c r="P127" s="114"/>
     </row>
     <row r="128" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G128" s="52"/>
       <c r="I128" s="53"/>
       <c r="K128" s="53"/>
       <c r="L128" s="54"/>
-      <c r="M128" s="89"/>
+      <c r="M128" s="86"/>
       <c r="N128" s="54"/>
-      <c r="O128" s="89"/>
-      <c r="P128" s="117"/>
+      <c r="O128" s="86"/>
+      <c r="P128" s="114"/>
     </row>
     <row r="129" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G129" s="52"/>
       <c r="I129" s="53"/>
       <c r="K129" s="53"/>
       <c r="L129" s="54"/>
-      <c r="M129" s="89"/>
+      <c r="M129" s="86"/>
       <c r="N129" s="54"/>
-      <c r="O129" s="89"/>
-      <c r="P129" s="117"/>
+      <c r="O129" s="86"/>
+      <c r="P129" s="114"/>
     </row>
     <row r="130" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G130" s="52"/>
       <c r="I130" s="53"/>
       <c r="K130" s="53"/>
       <c r="L130" s="54"/>
-      <c r="M130" s="89"/>
+      <c r="M130" s="86"/>
       <c r="N130" s="54"/>
-      <c r="O130" s="89"/>
-      <c r="P130" s="117"/>
+      <c r="O130" s="86"/>
+      <c r="P130" s="114"/>
     </row>
     <row r="131" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G131" s="52"/>
       <c r="I131" s="53"/>
       <c r="K131" s="53"/>
       <c r="L131" s="54"/>
-      <c r="M131" s="89"/>
+      <c r="M131" s="86"/>
       <c r="N131" s="54"/>
-      <c r="O131" s="89"/>
-      <c r="P131" s="117"/>
+      <c r="O131" s="86"/>
+      <c r="P131" s="114"/>
     </row>
     <row r="132" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G132" s="52"/>
       <c r="I132" s="53"/>
       <c r="K132" s="53"/>
       <c r="L132" s="54"/>
-      <c r="M132" s="89"/>
+      <c r="M132" s="86"/>
       <c r="N132" s="54"/>
-      <c r="O132" s="89"/>
-      <c r="P132" s="117"/>
+      <c r="O132" s="86"/>
+      <c r="P132" s="114"/>
     </row>
     <row r="133" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G133" s="52"/>
       <c r="I133" s="53"/>
       <c r="K133" s="53"/>
       <c r="L133" s="54"/>
-      <c r="M133" s="89"/>
+      <c r="M133" s="86"/>
       <c r="N133" s="54"/>
-      <c r="O133" s="89"/>
-      <c r="P133" s="117"/>
+      <c r="O133" s="86"/>
+      <c r="P133" s="114"/>
     </row>
     <row r="134" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G134" s="52"/>
       <c r="I134" s="53"/>
       <c r="K134" s="53"/>
       <c r="L134" s="54"/>
-      <c r="M134" s="89"/>
+      <c r="M134" s="86"/>
       <c r="N134" s="54"/>
-      <c r="O134" s="89"/>
-      <c r="P134" s="117"/>
+      <c r="O134" s="86"/>
+      <c r="P134" s="114"/>
     </row>
     <row r="135" spans="7:16" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G135" s="52"/>
       <c r="I135" s="53"/>
       <c r="K135" s="53"/>
       <c r="L135" s="54"/>
-      <c r="M135" s="89"/>
+      <c r="M135" s="86"/>
       <c r="N135" s="54"/>
-      <c r="O135" s="89"/>
-      <c r="P135" s="117"/>
+      <c r="O135" s="86"/>
+      <c r="P135" s="114"/>
     </row>
     <row r="136" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G136" s="52"/>
       <c r="I136" s="53"/>
       <c r="K136" s="53"/>
       <c r="L136" s="54"/>
-      <c r="M136" s="89"/>
+      <c r="M136" s="86"/>
       <c r="N136" s="54"/>
-      <c r="O136" s="89"/>
-      <c r="P136" s="117"/>
+      <c r="O136" s="86"/>
+      <c r="P136" s="114"/>
     </row>
     <row r="137" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G137" s="52"/>
       <c r="I137" s="53"/>
       <c r="K137" s="53"/>
       <c r="L137" s="54"/>
-      <c r="M137" s="89"/>
+      <c r="M137" s="86"/>
       <c r="N137" s="54"/>
-      <c r="O137" s="89"/>
-      <c r="P137" s="117"/>
+      <c r="O137" s="86"/>
+      <c r="P137" s="114"/>
     </row>
     <row r="138" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G138" s="52"/>
       <c r="I138" s="53"/>
       <c r="K138" s="53"/>
       <c r="L138" s="54"/>
-      <c r="M138" s="89"/>
+      <c r="M138" s="86"/>
       <c r="N138" s="54"/>
-      <c r="O138" s="89"/>
-      <c r="P138" s="117"/>
+      <c r="O138" s="86"/>
+      <c r="P138" s="114"/>
     </row>
     <row r="139" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G139" s="52"/>
       <c r="I139" s="53"/>
       <c r="K139" s="53"/>
       <c r="L139" s="54"/>
-      <c r="M139" s="89"/>
+      <c r="M139" s="86"/>
       <c r="N139" s="54"/>
-      <c r="O139" s="89"/>
-      <c r="P139" s="117"/>
+      <c r="O139" s="86"/>
+      <c r="P139" s="114"/>
     </row>
     <row r="140" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G140" s="52"/>
       <c r="I140" s="53"/>
       <c r="K140" s="53"/>
       <c r="L140" s="54"/>
-      <c r="M140" s="89"/>
+      <c r="M140" s="86"/>
       <c r="N140" s="54"/>
-      <c r="O140" s="89"/>
-      <c r="P140" s="117"/>
+      <c r="O140" s="86"/>
+      <c r="P140" s="114"/>
     </row>
     <row r="141" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G141" s="52"/>
       <c r="I141" s="53"/>
       <c r="K141" s="53"/>
       <c r="L141" s="54"/>
-      <c r="M141" s="89"/>
+      <c r="M141" s="86"/>
       <c r="N141" s="54"/>
-      <c r="O141" s="89"/>
-      <c r="P141" s="117"/>
+      <c r="O141" s="86"/>
+      <c r="P141" s="114"/>
     </row>
     <row r="142" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G142" s="52"/>
       <c r="I142" s="53"/>
       <c r="K142" s="53"/>
       <c r="L142" s="54"/>
-      <c r="M142" s="89"/>
+      <c r="M142" s="86"/>
       <c r="N142" s="54"/>
-      <c r="O142" s="89"/>
-      <c r="P142" s="117"/>
+      <c r="O142" s="86"/>
+      <c r="P142" s="114"/>
     </row>
     <row r="143" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G143" s="52"/>
       <c r="I143" s="53"/>
       <c r="K143" s="53"/>
       <c r="L143" s="54"/>
-      <c r="M143" s="89"/>
+      <c r="M143" s="86"/>
       <c r="N143" s="54"/>
-      <c r="O143" s="89"/>
-      <c r="P143" s="117"/>
+      <c r="O143" s="86"/>
+      <c r="P143" s="114"/>
     </row>
     <row r="144" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G144" s="52"/>
       <c r="I144" s="53"/>
       <c r="K144" s="53"/>
       <c r="L144" s="54"/>
-      <c r="M144" s="89"/>
+      <c r="M144" s="86"/>
       <c r="N144" s="54"/>
-      <c r="O144" s="89"/>
-      <c r="P144" s="117"/>
+      <c r="O144" s="86"/>
+      <c r="P144" s="114"/>
     </row>
     <row r="145" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G145" s="52"/>
       <c r="I145" s="53"/>
       <c r="K145" s="53"/>
       <c r="L145" s="54"/>
-      <c r="M145" s="89"/>
+      <c r="M145" s="86"/>
       <c r="N145" s="54"/>
-      <c r="O145" s="89"/>
-      <c r="P145" s="117"/>
+      <c r="O145" s="86"/>
+      <c r="P145" s="114"/>
     </row>
     <row r="146" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G146" s="52"/>
       <c r="I146" s="53"/>
       <c r="K146" s="53"/>
       <c r="L146" s="54"/>
-      <c r="M146" s="89"/>
+      <c r="M146" s="86"/>
       <c r="N146" s="54"/>
-      <c r="O146" s="89"/>
-      <c r="P146" s="117"/>
+      <c r="O146" s="86"/>
+      <c r="P146" s="114"/>
     </row>
     <row r="147" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G147" s="52"/>
       <c r="I147" s="53"/>
       <c r="K147" s="53"/>
       <c r="L147" s="54"/>
-      <c r="M147" s="89"/>
+      <c r="M147" s="86"/>
       <c r="N147" s="54"/>
-      <c r="O147" s="89"/>
-      <c r="P147" s="117"/>
+      <c r="O147" s="86"/>
+      <c r="P147" s="114"/>
     </row>
     <row r="148" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G148" s="52"/>
       <c r="I148" s="53"/>
       <c r="K148" s="53"/>
       <c r="L148" s="54"/>
-      <c r="M148" s="89"/>
+      <c r="M148" s="86"/>
       <c r="N148" s="54"/>
-      <c r="O148" s="89"/>
-      <c r="P148" s="117"/>
+      <c r="O148" s="86"/>
+      <c r="P148" s="114"/>
     </row>
     <row r="149" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G149" s="52"/>
       <c r="I149" s="53"/>
       <c r="K149" s="53"/>
       <c r="L149" s="54"/>
-      <c r="M149" s="89"/>
+      <c r="M149" s="86"/>
       <c r="N149" s="54"/>
-      <c r="O149" s="89"/>
-      <c r="P149" s="117"/>
+      <c r="O149" s="86"/>
+      <c r="P149" s="114"/>
     </row>
     <row r="150" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G150" s="52"/>
       <c r="I150" s="53"/>
       <c r="K150" s="53"/>
       <c r="L150" s="54"/>
-      <c r="M150" s="89"/>
+      <c r="M150" s="86"/>
       <c r="N150" s="54"/>
-      <c r="O150" s="89"/>
-      <c r="P150" s="117"/>
+      <c r="O150" s="86"/>
+      <c r="P150" s="114"/>
     </row>
     <row r="151" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G151" s="52"/>
       <c r="I151" s="53"/>
       <c r="K151" s="53"/>
       <c r="L151" s="54"/>
-      <c r="M151" s="89"/>
+      <c r="M151" s="86"/>
       <c r="N151" s="54"/>
-      <c r="O151" s="89"/>
-      <c r="P151" s="117"/>
+      <c r="O151" s="86"/>
+      <c r="P151" s="114"/>
     </row>
     <row r="152" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G152" s="52"/>
       <c r="I152" s="53"/>
       <c r="K152" s="53"/>
       <c r="L152" s="54"/>
-      <c r="M152" s="89"/>
+      <c r="M152" s="86"/>
       <c r="N152" s="54"/>
-      <c r="O152" s="89"/>
-      <c r="P152" s="117"/>
+      <c r="O152" s="86"/>
+      <c r="P152" s="114"/>
     </row>
     <row r="153" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G153" s="52"/>
       <c r="I153" s="53"/>
       <c r="K153" s="53"/>
       <c r="L153" s="54"/>
-      <c r="M153" s="89"/>
+      <c r="M153" s="86"/>
       <c r="N153" s="54"/>
-      <c r="O153" s="89"/>
-      <c r="P153" s="117"/>
+      <c r="O153" s="86"/>
+      <c r="P153" s="114"/>
     </row>
     <row r="154" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G154" s="52"/>
       <c r="I154" s="53"/>
       <c r="K154" s="53"/>
       <c r="L154" s="54"/>
-      <c r="M154" s="89"/>
+      <c r="M154" s="86"/>
       <c r="N154" s="54"/>
-      <c r="O154" s="89"/>
-      <c r="P154" s="117"/>
+      <c r="O154" s="86"/>
+      <c r="P154" s="114"/>
     </row>
     <row r="155" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G155" s="52"/>
       <c r="I155" s="53"/>
       <c r="K155" s="53"/>
       <c r="L155" s="54"/>
-      <c r="M155" s="89"/>
+      <c r="M155" s="86"/>
       <c r="N155" s="54"/>
-      <c r="O155" s="89"/>
-      <c r="P155" s="117"/>
+      <c r="O155" s="86"/>
+      <c r="P155" s="114"/>
     </row>
     <row r="156" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G156" s="52"/>
       <c r="I156" s="53"/>
       <c r="K156" s="53"/>
       <c r="L156" s="54"/>
-      <c r="M156" s="89"/>
+      <c r="M156" s="86"/>
       <c r="N156" s="54"/>
-      <c r="O156" s="89"/>
-      <c r="P156" s="117"/>
+      <c r="O156" s="86"/>
+      <c r="P156" s="114"/>
     </row>
     <row r="157" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G157" s="52"/>
       <c r="I157" s="53"/>
       <c r="K157" s="53"/>
       <c r="L157" s="54"/>
-      <c r="M157" s="89"/>
+      <c r="M157" s="86"/>
       <c r="N157" s="54"/>
-      <c r="O157" s="89"/>
-      <c r="P157" s="117"/>
+      <c r="O157" s="86"/>
+      <c r="P157" s="114"/>
     </row>
     <row r="158" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G158" s="52"/>
       <c r="I158" s="53"/>
       <c r="K158" s="53"/>
       <c r="L158" s="54"/>
-      <c r="M158" s="89"/>
+      <c r="M158" s="86"/>
       <c r="N158" s="54"/>
-      <c r="O158" s="89"/>
-      <c r="P158" s="117"/>
+      <c r="O158" s="86"/>
+      <c r="P158" s="114"/>
     </row>
     <row r="159" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G159" s="52"/>
       <c r="I159" s="53"/>
       <c r="K159" s="53"/>
       <c r="L159" s="54"/>
-      <c r="M159" s="89"/>
+      <c r="M159" s="86"/>
       <c r="N159" s="54"/>
-      <c r="O159" s="89"/>
-      <c r="P159" s="117"/>
+      <c r="O159" s="86"/>
+      <c r="P159" s="114"/>
     </row>
     <row r="160" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G160" s="52"/>
       <c r="I160" s="53"/>
       <c r="K160" s="53"/>
       <c r="L160" s="54"/>
-      <c r="M160" s="89"/>
+      <c r="M160" s="86"/>
       <c r="N160" s="54"/>
-      <c r="O160" s="89"/>
-      <c r="P160" s="117"/>
+      <c r="O160" s="86"/>
+      <c r="P160" s="114"/>
     </row>
     <row r="161" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G161" s="52"/>
       <c r="I161" s="53"/>
       <c r="K161" s="53"/>
       <c r="L161" s="54"/>
-      <c r="M161" s="89"/>
+      <c r="M161" s="86"/>
       <c r="N161" s="54"/>
-      <c r="O161" s="89"/>
-      <c r="P161" s="117"/>
+      <c r="O161" s="86"/>
+      <c r="P161" s="114"/>
     </row>
     <row r="162" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G162" s="52"/>
       <c r="I162" s="53"/>
       <c r="K162" s="53"/>
       <c r="L162" s="54"/>
-      <c r="M162" s="89"/>
+      <c r="M162" s="86"/>
       <c r="N162" s="54"/>
-      <c r="O162" s="89"/>
-      <c r="P162" s="117"/>
+      <c r="O162" s="86"/>
+      <c r="P162" s="114"/>
     </row>
     <row r="163" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G163" s="52"/>
       <c r="I163" s="53"/>
       <c r="K163" s="53"/>
       <c r="L163" s="54"/>
-      <c r="M163" s="89"/>
+      <c r="M163" s="86"/>
       <c r="N163" s="54"/>
-      <c r="O163" s="89"/>
-      <c r="P163" s="117"/>
+      <c r="O163" s="86"/>
+      <c r="P163" s="114"/>
     </row>
     <row r="164" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G164" s="52"/>
       <c r="I164" s="53"/>
       <c r="K164" s="53"/>
       <c r="L164" s="54"/>
-      <c r="M164" s="89"/>
+      <c r="M164" s="86"/>
       <c r="N164" s="54"/>
-      <c r="O164" s="89"/>
-      <c r="P164" s="117"/>
+      <c r="O164" s="86"/>
+      <c r="P164" s="114"/>
     </row>
     <row r="165" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G165" s="52"/>
       <c r="I165" s="53"/>
       <c r="K165" s="53"/>
       <c r="L165" s="54"/>
-      <c r="M165" s="89"/>
+      <c r="M165" s="86"/>
       <c r="N165" s="54"/>
-      <c r="O165" s="89"/>
-      <c r="P165" s="117"/>
+      <c r="O165" s="86"/>
+      <c r="P165" s="114"/>
     </row>
     <row r="166" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G166" s="52"/>
       <c r="I166" s="53"/>
       <c r="K166" s="53"/>
       <c r="L166" s="54"/>
-      <c r="M166" s="89"/>
+      <c r="M166" s="86"/>
       <c r="N166" s="54"/>
-      <c r="O166" s="89"/>
-      <c r="P166" s="117"/>
+      <c r="O166" s="86"/>
+      <c r="P166" s="114"/>
     </row>
     <row r="167" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G167" s="52"/>
       <c r="I167" s="53"/>
       <c r="K167" s="53"/>
       <c r="L167" s="54"/>
-      <c r="M167" s="89"/>
+      <c r="M167" s="86"/>
       <c r="N167" s="54"/>
-      <c r="O167" s="89"/>
-      <c r="P167" s="117"/>
+      <c r="O167" s="86"/>
+      <c r="P167" s="114"/>
     </row>
     <row r="168" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G168" s="52"/>
       <c r="I168" s="53"/>
       <c r="K168" s="53"/>
       <c r="L168" s="54"/>
-      <c r="M168" s="89"/>
+      <c r="M168" s="86"/>
       <c r="N168" s="54"/>
-      <c r="O168" s="89"/>
-      <c r="P168" s="117"/>
+      <c r="O168" s="86"/>
+      <c r="P168" s="114"/>
     </row>
     <row r="169" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G169" s="52"/>
       <c r="I169" s="53"/>
       <c r="K169" s="53"/>
       <c r="L169" s="54"/>
-      <c r="M169" s="89"/>
+      <c r="M169" s="86"/>
       <c r="N169" s="54"/>
-      <c r="O169" s="89"/>
-      <c r="P169" s="117"/>
+      <c r="O169" s="86"/>
+      <c r="P169" s="114"/>
     </row>
     <row r="170" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G170" s="52"/>
       <c r="I170" s="53"/>
       <c r="K170" s="53"/>
       <c r="L170" s="54"/>
-      <c r="M170" s="89"/>
+      <c r="M170" s="86"/>
       <c r="N170" s="54"/>
-      <c r="O170" s="89"/>
-      <c r="P170" s="117"/>
+      <c r="O170" s="86"/>
+      <c r="P170" s="114"/>
     </row>
     <row r="171" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G171" s="52"/>
       <c r="I171" s="53"/>
       <c r="K171" s="53"/>
       <c r="L171" s="54"/>
-      <c r="M171" s="89"/>
+      <c r="M171" s="86"/>
       <c r="N171" s="54"/>
-      <c r="O171" s="89"/>
-      <c r="P171" s="117"/>
+      <c r="O171" s="86"/>
+      <c r="P171" s="114"/>
     </row>
     <row r="172" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G172" s="52"/>
       <c r="I172" s="53"/>
       <c r="K172" s="53"/>
       <c r="L172" s="54"/>
-      <c r="M172" s="89"/>
+      <c r="M172" s="86"/>
       <c r="N172" s="54"/>
-      <c r="O172" s="89"/>
-      <c r="P172" s="117"/>
+      <c r="O172" s="86"/>
+      <c r="P172" s="114"/>
     </row>
     <row r="173" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G173" s="52"/>
       <c r="I173" s="53"/>
       <c r="K173" s="53"/>
       <c r="L173" s="54"/>
-      <c r="M173" s="89"/>
+      <c r="M173" s="86"/>
       <c r="N173" s="54"/>
-      <c r="O173" s="89"/>
-      <c r="P173" s="117"/>
+      <c r="O173" s="86"/>
+      <c r="P173" s="114"/>
     </row>
     <row r="174" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G174" s="52"/>
       <c r="I174" s="53"/>
       <c r="K174" s="53"/>
       <c r="L174" s="54"/>
-      <c r="M174" s="89"/>
+      <c r="M174" s="86"/>
       <c r="N174" s="54"/>
-      <c r="O174" s="89"/>
-      <c r="P174" s="117"/>
+      <c r="O174" s="86"/>
+      <c r="P174" s="114"/>
     </row>
     <row r="175" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G175" s="52"/>
       <c r="I175" s="53"/>
       <c r="K175" s="53"/>
       <c r="L175" s="54"/>
-      <c r="M175" s="89"/>
+      <c r="M175" s="86"/>
       <c r="N175" s="54"/>
-      <c r="O175" s="89"/>
-      <c r="P175" s="117"/>
+      <c r="O175" s="86"/>
+      <c r="P175" s="114"/>
     </row>
     <row r="176" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G176" s="52"/>
       <c r="I176" s="53"/>
       <c r="K176" s="53"/>
       <c r="L176" s="54"/>
-      <c r="M176" s="89"/>
+      <c r="M176" s="86"/>
       <c r="N176" s="54"/>
-      <c r="O176" s="89"/>
-      <c r="P176" s="117"/>
+      <c r="O176" s="86"/>
+      <c r="P176" s="114"/>
     </row>
     <row r="177" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G177" s="52"/>
       <c r="I177" s="53"/>
       <c r="K177" s="53"/>
       <c r="L177" s="54"/>
-      <c r="M177" s="89"/>
+      <c r="M177" s="86"/>
       <c r="N177" s="54"/>
-      <c r="O177" s="89"/>
-      <c r="P177" s="117"/>
+      <c r="O177" s="86"/>
+      <c r="P177" s="114"/>
     </row>
     <row r="178" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G178" s="52"/>
       <c r="I178" s="53"/>
       <c r="K178" s="53"/>
       <c r="L178" s="54"/>
-      <c r="M178" s="89"/>
+      <c r="M178" s="86"/>
       <c r="N178" s="54"/>
-      <c r="O178" s="89"/>
-      <c r="P178" s="117"/>
+      <c r="O178" s="86"/>
+      <c r="P178" s="114"/>
     </row>
     <row r="179" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G179" s="52"/>
       <c r="I179" s="53"/>
       <c r="K179" s="53"/>
       <c r="L179" s="54"/>
-      <c r="M179" s="89"/>
+      <c r="M179" s="86"/>
       <c r="N179" s="54"/>
-      <c r="O179" s="89"/>
-      <c r="P179" s="117"/>
+      <c r="O179" s="86"/>
+      <c r="P179" s="114"/>
     </row>
     <row r="180" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G180" s="52"/>
       <c r="I180" s="53"/>
       <c r="K180" s="53"/>
       <c r="L180" s="54"/>
-      <c r="M180" s="89"/>
+      <c r="M180" s="86"/>
       <c r="N180" s="54"/>
-      <c r="O180" s="89"/>
-      <c r="P180" s="117"/>
+      <c r="O180" s="86"/>
+      <c r="P180" s="114"/>
     </row>
     <row r="181" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G181" s="52"/>
       <c r="I181" s="53"/>
       <c r="K181" s="53"/>
       <c r="L181" s="54"/>
-      <c r="M181" s="89"/>
+      <c r="M181" s="86"/>
       <c r="N181" s="54"/>
-      <c r="O181" s="89"/>
-      <c r="P181" s="117"/>
+      <c r="O181" s="86"/>
+      <c r="P181" s="114"/>
     </row>
     <row r="182" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G182" s="52"/>
       <c r="I182" s="53"/>
       <c r="K182" s="53"/>
       <c r="L182" s="54"/>
-      <c r="M182" s="89"/>
+      <c r="M182" s="86"/>
       <c r="N182" s="54"/>
-      <c r="O182" s="89"/>
-      <c r="P182" s="117"/>
+      <c r="O182" s="86"/>
+      <c r="P182" s="114"/>
     </row>
     <row r="183" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G183" s="52"/>
       <c r="I183" s="53"/>
       <c r="K183" s="53"/>
       <c r="L183" s="54"/>
-      <c r="M183" s="89"/>
+      <c r="M183" s="86"/>
       <c r="N183" s="54"/>
-      <c r="O183" s="89"/>
-      <c r="P183" s="117"/>
+      <c r="O183" s="86"/>
+      <c r="P183" s="114"/>
     </row>
     <row r="184" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G184" s="52"/>
       <c r="I184" s="53"/>
       <c r="K184" s="53"/>
       <c r="L184" s="54"/>
-      <c r="M184" s="89"/>
+      <c r="M184" s="86"/>
       <c r="N184" s="54"/>
-      <c r="O184" s="89"/>
-      <c r="P184" s="117"/>
+      <c r="O184" s="86"/>
+      <c r="P184" s="114"/>
     </row>
     <row r="185" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G185" s="52"/>
       <c r="I185" s="53"/>
       <c r="K185" s="53"/>
       <c r="L185" s="54"/>
-      <c r="M185" s="89"/>
+      <c r="M185" s="86"/>
       <c r="N185" s="54"/>
-      <c r="O185" s="89"/>
-      <c r="P185" s="117"/>
+      <c r="O185" s="86"/>
+      <c r="P185" s="114"/>
     </row>
     <row r="186" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G186" s="52"/>
       <c r="I186" s="53"/>
       <c r="K186" s="53"/>
       <c r="L186" s="54"/>
-      <c r="M186" s="89"/>
+      <c r="M186" s="86"/>
       <c r="N186" s="54"/>
-      <c r="O186" s="89"/>
-      <c r="P186" s="117"/>
+      <c r="O186" s="86"/>
+      <c r="P186" s="114"/>
     </row>
     <row r="187" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G187" s="52"/>
       <c r="I187" s="53"/>
       <c r="K187" s="53"/>
       <c r="L187" s="54"/>
-      <c r="M187" s="89"/>
+      <c r="M187" s="86"/>
       <c r="N187" s="54"/>
-      <c r="O187" s="89"/>
-      <c r="P187" s="117"/>
+      <c r="O187" s="86"/>
+      <c r="P187" s="114"/>
     </row>
     <row r="188" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G188" s="52"/>
       <c r="I188" s="53"/>
       <c r="K188" s="53"/>
       <c r="L188" s="54"/>
-      <c r="M188" s="89"/>
+      <c r="M188" s="86"/>
       <c r="N188" s="54"/>
-      <c r="O188" s="89"/>
-      <c r="P188" s="117"/>
+      <c r="O188" s="86"/>
+      <c r="P188" s="114"/>
     </row>
     <row r="189" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G189" s="52"/>
       <c r="I189" s="53"/>
       <c r="K189" s="53"/>
       <c r="L189" s="54"/>
-      <c r="M189" s="89"/>
+      <c r="M189" s="86"/>
       <c r="N189" s="54"/>
-      <c r="O189" s="89"/>
-      <c r="P189" s="117"/>
+      <c r="O189" s="86"/>
+      <c r="P189" s="114"/>
     </row>
     <row r="190" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G190" s="52"/>
       <c r="I190" s="53"/>
       <c r="K190" s="53"/>
       <c r="L190" s="54"/>
-      <c r="M190" s="89"/>
+      <c r="M190" s="86"/>
       <c r="N190" s="54"/>
-      <c r="O190" s="89"/>
-      <c r="P190" s="117"/>
+      <c r="O190" s="86"/>
+      <c r="P190" s="114"/>
     </row>
     <row r="191" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G191" s="52"/>
       <c r="I191" s="53"/>
       <c r="K191" s="53"/>
       <c r="L191" s="54"/>
-      <c r="M191" s="89"/>
+      <c r="M191" s="86"/>
       <c r="N191" s="54"/>
-      <c r="O191" s="89"/>
-      <c r="P191" s="117"/>
+      <c r="O191" s="86"/>
+      <c r="P191" s="114"/>
     </row>
     <row r="192" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G192" s="52"/>
       <c r="I192" s="53"/>
       <c r="K192" s="53"/>
       <c r="L192" s="54"/>
-      <c r="M192" s="89"/>
+      <c r="M192" s="86"/>
       <c r="N192" s="54"/>
-      <c r="O192" s="89"/>
-      <c r="P192" s="117"/>
+      <c r="O192" s="86"/>
+      <c r="P192" s="114"/>
     </row>
     <row r="193" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G193" s="52"/>
       <c r="I193" s="53"/>
       <c r="K193" s="53"/>
       <c r="L193" s="54"/>
-      <c r="M193" s="89"/>
+      <c r="M193" s="86"/>
       <c r="N193" s="54"/>
-      <c r="O193" s="89"/>
-      <c r="P193" s="117"/>
+      <c r="O193" s="86"/>
+      <c r="P193" s="114"/>
     </row>
     <row r="194" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G194" s="52"/>
       <c r="I194" s="53"/>
       <c r="K194" s="53"/>
       <c r="L194" s="54"/>
-      <c r="M194" s="89"/>
+      <c r="M194" s="86"/>
       <c r="N194" s="54"/>
-      <c r="O194" s="89"/>
-      <c r="P194" s="117"/>
+      <c r="O194" s="86"/>
+      <c r="P194" s="114"/>
     </row>
     <row r="195" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G195" s="52"/>
       <c r="I195" s="53"/>
       <c r="K195" s="53"/>
       <c r="L195" s="54"/>
-      <c r="M195" s="89"/>
+      <c r="M195" s="86"/>
       <c r="N195" s="54"/>
-      <c r="O195" s="89"/>
-      <c r="P195" s="117"/>
+      <c r="O195" s="86"/>
+      <c r="P195" s="114"/>
     </row>
     <row r="196" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G196" s="52"/>
       <c r="I196" s="53"/>
       <c r="K196" s="53"/>
       <c r="L196" s="54"/>
-      <c r="M196" s="89"/>
+      <c r="M196" s="86"/>
       <c r="N196" s="54"/>
-      <c r="O196" s="89"/>
-      <c r="P196" s="117"/>
+      <c r="O196" s="86"/>
+      <c r="P196" s="114"/>
     </row>
     <row r="197" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G197" s="52"/>
       <c r="I197" s="53"/>
       <c r="K197" s="53"/>
       <c r="L197" s="54"/>
-      <c r="M197" s="89"/>
+      <c r="M197" s="86"/>
       <c r="N197" s="54"/>
-      <c r="O197" s="89"/>
-      <c r="P197" s="117"/>
+      <c r="O197" s="86"/>
+      <c r="P197" s="114"/>
     </row>
     <row r="198" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G198" s="52"/>
       <c r="I198" s="53"/>
       <c r="K198" s="53"/>
       <c r="L198" s="54"/>
-      <c r="M198" s="89"/>
+      <c r="M198" s="86"/>
       <c r="N198" s="54"/>
-      <c r="O198" s="89"/>
-      <c r="P198" s="117"/>
+      <c r="O198" s="86"/>
+      <c r="P198" s="114"/>
     </row>
     <row r="199" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G199" s="52"/>
       <c r="I199" s="53"/>
       <c r="K199" s="53"/>
       <c r="L199" s="54"/>
-      <c r="M199" s="89"/>
+      <c r="M199" s="86"/>
       <c r="N199" s="54"/>
-      <c r="O199" s="89"/>
-      <c r="P199" s="117"/>
+      <c r="O199" s="86"/>
+      <c r="P199" s="114"/>
     </row>
     <row r="200" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G200" s="52"/>
       <c r="I200" s="53"/>
       <c r="K200" s="53"/>
       <c r="L200" s="54"/>
-      <c r="M200" s="89"/>
+      <c r="M200" s="86"/>
       <c r="N200" s="54"/>
-      <c r="O200" s="89"/>
-      <c r="P200" s="117"/>
+      <c r="O200" s="86"/>
+      <c r="P200" s="114"/>
     </row>
     <row r="201" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G201" s="52"/>
       <c r="I201" s="53"/>
       <c r="K201" s="53"/>
       <c r="L201" s="54"/>
-      <c r="M201" s="89"/>
+      <c r="M201" s="86"/>
       <c r="N201" s="54"/>
-      <c r="O201" s="89"/>
-      <c r="P201" s="117"/>
+      <c r="O201" s="86"/>
+      <c r="P201" s="114"/>
     </row>
     <row r="202" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G202" s="52"/>
       <c r="I202" s="53"/>
       <c r="K202" s="53"/>
       <c r="L202" s="54"/>
-      <c r="M202" s="89"/>
+      <c r="M202" s="86"/>
       <c r="N202" s="54"/>
-      <c r="O202" s="89"/>
-      <c r="P202" s="117"/>
+      <c r="O202" s="86"/>
+      <c r="P202" s="114"/>
     </row>
     <row r="203" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G203" s="52"/>
       <c r="I203" s="53"/>
       <c r="K203" s="53"/>
       <c r="L203" s="54"/>
-      <c r="M203" s="89"/>
+      <c r="M203" s="86"/>
       <c r="N203" s="54"/>
-      <c r="O203" s="89"/>
-      <c r="P203" s="117"/>
+      <c r="O203" s="86"/>
+      <c r="P203" s="114"/>
     </row>
     <row r="204" spans="7:16" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G204" s="52"/>
       <c r="I204" s="53"/>
       <c r="K204" s="53"/>
       <c r="L204" s="54"/>
-      <c r="M204" s="89"/>
+      <c r="M204" s="86"/>
       <c r="N204" s="54"/>
-      <c r="O204" s="89"/>
-      <c r="P204" s="117"/>
+      <c r="O204" s="86"/>
+      <c r="P204" s="114"/>
     </row>
     <row r="205" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G205" s="52"/>
       <c r="I205" s="53"/>
       <c r="K205" s="53"/>
       <c r="L205" s="54"/>
-      <c r="M205" s="89"/>
+      <c r="M205" s="86"/>
       <c r="N205" s="54"/>
-      <c r="O205" s="89"/>
-      <c r="P205" s="117"/>
+      <c r="O205" s="86"/>
+      <c r="P205" s="114"/>
     </row>
     <row r="206" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G206" s="52"/>
       <c r="I206" s="53"/>
       <c r="K206" s="53"/>
       <c r="L206" s="54"/>
-      <c r="M206" s="89"/>
+      <c r="M206" s="86"/>
       <c r="N206" s="54"/>
-      <c r="O206" s="89"/>
-      <c r="P206" s="117"/>
+      <c r="O206" s="86"/>
+      <c r="P206" s="114"/>
     </row>
     <row r="207" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G207" s="52"/>
       <c r="I207" s="53"/>
       <c r="K207" s="53"/>
       <c r="L207" s="54"/>
-      <c r="M207" s="89"/>
+      <c r="M207" s="86"/>
       <c r="N207" s="54"/>
-      <c r="O207" s="89"/>
-      <c r="P207" s="117"/>
+      <c r="O207" s="86"/>
+      <c r="P207" s="114"/>
     </row>
     <row r="208" spans="7:16" s="51" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G208" s="52"/>
       <c r="I208" s="53"/>
       <c r="K208" s="53"/>
       <c r="L208" s="54"/>
-      <c r="M208" s="89"/>
+      <c r="M208" s="86"/>
       <c r="N208" s="54"/>
-      <c r="O208" s="89"/>
-      <c r="P208" s="117"/>
+      <c r="O208" s="86"/>
+      <c r="P208" s="114"/>
     </row>
     <row r="209" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G209" s="52"/>
       <c r="I209" s="53"/>
       <c r="K209" s="53"/>
       <c r="L209" s="54"/>
-      <c r="M209" s="89"/>
+      <c r="M209" s="86"/>
       <c r="N209" s="54"/>
-      <c r="O209" s="89"/>
-      <c r="P209" s="117"/>
+      <c r="O209" s="86"/>
+      <c r="P209" s="114"/>
     </row>
     <row r="210" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G210" s="52"/>
       <c r="I210" s="53"/>
       <c r="K210" s="53"/>
       <c r="L210" s="54"/>
-      <c r="M210" s="89"/>
+      <c r="M210" s="86"/>
       <c r="N210" s="54"/>
-      <c r="O210" s="89"/>
-      <c r="P210" s="117"/>
+      <c r="O210" s="86"/>
+      <c r="P210" s="114"/>
     </row>
     <row r="211" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G211" s="52"/>
       <c r="I211" s="53"/>
       <c r="K211" s="53"/>
       <c r="L211" s="54"/>
-      <c r="M211" s="89"/>
+      <c r="M211" s="86"/>
       <c r="N211" s="54"/>
-      <c r="O211" s="89"/>
-      <c r="P211" s="117"/>
+      <c r="O211" s="86"/>
+      <c r="P211" s="114"/>
     </row>
     <row r="212" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G212" s="52"/>
       <c r="I212" s="53"/>
       <c r="K212" s="53"/>
       <c r="L212" s="54"/>
-      <c r="M212" s="89"/>
+      <c r="M212" s="86"/>
       <c r="N212" s="54"/>
-      <c r="O212" s="89"/>
-      <c r="P212" s="117"/>
+      <c r="O212" s="86"/>
+      <c r="P212" s="114"/>
     </row>
     <row r="213" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G213" s="52"/>
       <c r="I213" s="53"/>
       <c r="K213" s="53"/>
       <c r="L213" s="54"/>
-      <c r="M213" s="89"/>
+      <c r="M213" s="86"/>
       <c r="N213" s="54"/>
-      <c r="O213" s="89"/>
-      <c r="P213" s="117"/>
+      <c r="O213" s="86"/>
+      <c r="P213" s="114"/>
     </row>
     <row r="214" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G214" s="52"/>
       <c r="I214" s="53"/>
       <c r="K214" s="53"/>
       <c r="L214" s="54"/>
-      <c r="M214" s="89"/>
+      <c r="M214" s="86"/>
       <c r="N214" s="54"/>
-      <c r="O214" s="89"/>
-      <c r="P214" s="117"/>
+      <c r="O214" s="86"/>
+      <c r="P214" s="114"/>
     </row>
     <row r="215" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G215" s="52"/>
       <c r="I215" s="53"/>
       <c r="K215" s="53"/>
       <c r="L215" s="54"/>
-      <c r="M215" s="89"/>
+      <c r="M215" s="86"/>
       <c r="N215" s="54"/>
-      <c r="O215" s="89"/>
-      <c r="P215" s="117"/>
+      <c r="O215" s="86"/>
+      <c r="P215" s="114"/>
     </row>
     <row r="216" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G216" s="52"/>
       <c r="I216" s="53"/>
       <c r="K216" s="53"/>
       <c r="L216" s="54"/>
-      <c r="M216" s="89"/>
+      <c r="M216" s="86"/>
       <c r="N216" s="54"/>
-      <c r="O216" s="89"/>
-      <c r="P216" s="117"/>
+      <c r="O216" s="86"/>
+      <c r="P216" s="114"/>
     </row>
     <row r="217" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G217" s="52"/>
       <c r="I217" s="53"/>
       <c r="K217" s="53"/>
       <c r="L217" s="54"/>
-      <c r="M217" s="89"/>
+      <c r="M217" s="86"/>
       <c r="N217" s="54"/>
-      <c r="O217" s="89"/>
-      <c r="P217" s="117"/>
+      <c r="O217" s="86"/>
+      <c r="P217" s="114"/>
     </row>
     <row r="218" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G218" s="52"/>
       <c r="I218" s="53"/>
       <c r="K218" s="53"/>
       <c r="L218" s="54"/>
-      <c r="M218" s="89"/>
+      <c r="M218" s="86"/>
       <c r="N218" s="54"/>
-      <c r="O218" s="89"/>
-      <c r="P218" s="117"/>
+      <c r="O218" s="86"/>
+      <c r="P218" s="114"/>
     </row>
     <row r="219" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G219" s="52"/>
       <c r="I219" s="53"/>
       <c r="K219" s="53"/>
       <c r="L219" s="54"/>
-      <c r="M219" s="89"/>
+      <c r="M219" s="86"/>
       <c r="N219" s="54"/>
-      <c r="O219" s="89"/>
-      <c r="P219" s="117"/>
+      <c r="O219" s="86"/>
+      <c r="P219" s="114"/>
     </row>
     <row r="224" spans="4:16" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D224" s="55"/>
@@ -8877,10 +8899,10 @@
       <c r="I224" s="56"/>
       <c r="K224" s="56"/>
       <c r="L224" s="5"/>
-      <c r="M224" s="90"/>
+      <c r="M224" s="87"/>
       <c r="N224" s="5"/>
-      <c r="O224" s="90"/>
-      <c r="P224" s="113"/>
+      <c r="O224" s="87"/>
+      <c r="P224" s="110"/>
     </row>
     <row r="225" spans="4:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D225" s="50"/>
@@ -8889,9 +8911,9 @@
       <c r="G225" s="4"/>
       <c r="I225" s="6"/>
       <c r="K225" s="6"/>
-      <c r="M225" s="84"/>
-      <c r="O225" s="84"/>
-      <c r="P225" s="113"/>
+      <c r="M225" s="81"/>
+      <c r="O225" s="81"/>
+      <c r="P225" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8936,21 +8958,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
       <c r="D3" s="57" t="s">
         <v>6</v>
       </c>

--- a/DS 2017 Seed Support/DS 2017 SEED ALLOCATIONS revised.xlsx
+++ b/DS 2017 Seed Support/DS 2017 SEED ALLOCATIONS revised.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">simplified!$A:$K</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">simplified!$A:$S</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Summary by mun 315 final'!$A:$P</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -112,6 +112,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="P19" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>BOHOL APC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pre-masterlist only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P24" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>BOHOL APC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+wrong form</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P27" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>BOHOL APC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+photocopy only</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="P30" authorId="1">
       <text>
         <r>
@@ -160,12 +232,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="P52" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>BOHOL APC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pre-masterlist only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P54" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>BOHOL APC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+photocopy</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="112">
   <si>
     <t>RECONCILED DATA FOR RICE AREAS (HAS)</t>
   </si>
@@ -413,9 +533,6 @@
     <t>KG</t>
   </si>
   <si>
-    <t>MASTERLIST SUBMITTED</t>
-  </si>
-  <si>
     <t>INBRED</t>
   </si>
   <si>
@@ -430,6 +547,81 @@
   <si>
     <t>11/11/16</t>
   </si>
+  <si>
+    <t>11/15/16</t>
+  </si>
+  <si>
+    <t>INBRED BALANCE</t>
+  </si>
+  <si>
+    <t>ALLOCATION</t>
+  </si>
+  <si>
+    <t>HYBRID BALANCE</t>
+  </si>
+  <si>
+    <t>BAGS</t>
+  </si>
+  <si>
+    <t>111/15/16</t>
+  </si>
+  <si>
+    <t>11/16/16</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t>NO NAME OF IA/FA FOR CERTIFIED SEEDS</t>
+  </si>
+  <si>
+    <t>NO SIGNATURE #5 COGON SCFO, LACKING MASTERLIST FOR BOYOG SUR SCFO</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>NO SIGNATURE #6 BASIAO FA</t>
+  </si>
+  <si>
+    <t>LACKING MASTERLIST</t>
+  </si>
+  <si>
+    <t>OVER MASTERLIST</t>
+  </si>
+  <si>
+    <t>NO VALUES</t>
+  </si>
+  <si>
+    <t>OVER MASTERLIST, WRONG FORM, PHOTOCOPY ONLY</t>
+  </si>
+  <si>
+    <t>OVER MASTERLIST HYBRID, NO MASTERLIST CS</t>
+  </si>
+  <si>
+    <t>PREMASTERLIST ONLY</t>
+  </si>
+  <si>
+    <t>NO SIGNATURE #5 POB1 FA</t>
+  </si>
+  <si>
+    <t>WRONG FORM</t>
+  </si>
+  <si>
+    <t>OVERMASTERLISTED AND UNDERMASTERLISTED</t>
+  </si>
+  <si>
+    <t>PHOTOCOPY ONLY, NO KG UNIT</t>
+  </si>
+  <si>
+    <t>WRONG FORM, LACKING SIGNATURES</t>
+  </si>
+  <si>
+    <t>TO FOLLOW 11/17/16</t>
+  </si>
+  <si>
+    <t>THRU TXT</t>
+  </si>
 </sst>
 </file>
 
@@ -440,7 +632,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -493,6 +685,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -582,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -684,9 +889,6 @@
     <xf numFmtId="1" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -695,9 +897,6 @@
     <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -731,6 +930,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -746,23 +960,97 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1066,11 +1354,11 @@
   <dimension ref="A1:AA224"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1078,11 +1366,11 @@
     <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="57" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="57" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="57" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="57" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="57" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="57" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" style="3" customWidth="1"/>
     <col min="10" max="10" width="5" style="2" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" style="2" customWidth="1"/>
@@ -1098,24 +1386,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
     </row>
     <row r="2" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
       <c r="G2" s="4"/>
       <c r="I2" s="6"/>
       <c r="L2" s="6"/>
@@ -1132,19 +1420,19 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
@@ -1155,20 +1443,20 @@
         <v>5</v>
       </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="106"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1240,11 +1528,11 @@
       <c r="X7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Y7" s="108" t="s">
+      <c r="Y7" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="Z7" s="108"/>
-      <c r="AA7" s="108"/>
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="117"/>
     </row>
     <row r="8" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
@@ -4626,14 +4914,14 @@
     <tabColor theme="0" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC225"/>
+  <dimension ref="A1:AF225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="R36" sqref="R36"/>
+      <selection pane="bottomRight" activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4649,46 +4937,51 @@
     <col min="9" max="9" width="11.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="80" customWidth="1"/>
-    <col min="14" max="14" width="5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="80" customWidth="1"/>
-    <col min="16" max="16" width="13" style="109" customWidth="1"/>
-    <col min="17" max="18" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="9.140625" style="2"/>
-    <col min="25" max="25" width="12" style="2" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="12" width="10.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="79" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="79" customWidth="1"/>
+    <col min="16" max="16" width="13" style="102" customWidth="1"/>
+    <col min="17" max="18" width="10" style="102" customWidth="1"/>
+    <col min="19" max="19" width="46.42578125" style="102" customWidth="1"/>
+    <col min="20" max="21" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="9.140625" style="2"/>
+    <col min="28" max="28" width="12" style="2" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" style="2" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-    </row>
-    <row r="2" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="105" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+    </row>
+    <row r="2" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
       <c r="G2" s="4"/>
       <c r="I2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="M2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="110"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="M2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="58"/>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
@@ -4699,20 +4992,20 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106" t="s">
+    <row r="4" spans="1:32" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
+    <row r="5" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
@@ -4723,78 +5016,95 @@
         <v>5</v>
       </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="106"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A6" s="115"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="107" t="s">
+      <c r="I6" s="116" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" s="107"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-    </row>
-    <row r="7" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="106"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="R6" s="118" t="s">
+        <v>90</v>
+      </c>
+      <c r="S6" s="111"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+    </row>
+    <row r="7" spans="1:32" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="115"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="101" t="s">
+      <c r="I7" s="99" t="s">
         <v>79</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="101" t="s">
+      <c r="K7" s="99" t="s">
         <v>80</v>
       </c>
       <c r="L7" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="M7" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="75" t="s">
+      <c r="M7" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" s="102" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="O7" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="111" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
@@ -4829,169 +5139,187 @@
         <v>1670</v>
       </c>
       <c r="L8" s="19"/>
-      <c r="M8" s="83">
+      <c r="M8" s="81">
         <f>SUM(M9+M23+M38)</f>
-        <v>47.924999999999997</v>
+        <v>1879.3274999999999</v>
       </c>
       <c r="N8" s="19"/>
-      <c r="O8" s="83">
+      <c r="O8" s="81">
         <f>SUM(O9+O23+O38)</f>
-        <v>88.2</v>
-      </c>
-      <c r="P8" s="112"/>
-      <c r="Q8" t="s">
+        <v>888.08999999999992</v>
+      </c>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="81">
+        <f>SUM(Q9+Q23+Q38)</f>
+        <v>-1012.6725</v>
+      </c>
+      <c r="R8" s="81">
+        <f>SUM(R9+R23+R38)</f>
+        <v>-781.91</v>
+      </c>
+      <c r="S8" s="61"/>
+      <c r="T8" t="s">
         <v>9</v>
       </c>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8"/>
-      <c r="X8" s="21" t="s">
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Y8" s="21" t="s">
+      <c r="AB8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Z8" s="21" t="s">
+      <c r="AC8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="108" t="s">
+      <c r="AD8" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="AB8" s="108"/>
-      <c r="AC8" s="108"/>
-    </row>
-    <row r="9" spans="1:29" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="89" t="s">
+      <c r="AE8" s="117"/>
+      <c r="AF8" s="117"/>
+    </row>
+    <row r="9" spans="1:32" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="100">
+      <c r="B9" s="94"/>
+      <c r="C9" s="98">
         <v>12</v>
       </c>
-      <c r="D9" s="97">
+      <c r="D9" s="95">
         <v>1141.9625725706671</v>
       </c>
-      <c r="E9" s="97">
+      <c r="E9" s="95">
         <v>4227.5374274293326</v>
       </c>
-      <c r="F9" s="97">
+      <c r="F9" s="95">
         <v>5369.5</v>
       </c>
-      <c r="G9" s="98">
+      <c r="G9" s="96">
         <f>F9/47378</f>
         <v>0.11333319262104774</v>
       </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="93">
+      <c r="H9" s="97"/>
+      <c r="I9" s="91">
         <f>SUM(I11:I22)</f>
         <v>325</v>
       </c>
-      <c r="J9" s="99"/>
-      <c r="K9" s="93">
+      <c r="J9" s="97"/>
+      <c r="K9" s="91">
         <f>SUM(K11:K22)</f>
         <v>189</v>
       </c>
-      <c r="L9" s="99"/>
-      <c r="M9" s="93">
+      <c r="L9" s="97"/>
+      <c r="M9" s="91">
         <f>SUM(M11:M22)</f>
-        <v>7</v>
-      </c>
-      <c r="N9" s="99"/>
-      <c r="O9" s="93">
+        <v>206.0025</v>
+      </c>
+      <c r="N9" s="97"/>
+      <c r="O9" s="91">
         <f>SUM(O11:O22)</f>
-        <v>4</v>
-      </c>
-      <c r="Q9" t="s">
+        <v>92.89</v>
+      </c>
+      <c r="Q9" s="91">
+        <f>SUM(Q11:Q22)</f>
+        <v>-118.9975</v>
+      </c>
+      <c r="R9" s="91">
+        <f>SUM(R11:R22)</f>
+        <v>-96.11</v>
+      </c>
+      <c r="S9" s="110"/>
+      <c r="T9" t="s">
         <v>15</v>
       </c>
-      <c r="R9" t="s">
+      <c r="U9" t="s">
         <v>16</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>17</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>18</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>19</v>
       </c>
-      <c r="V9" t="s">
+      <c r="Y9" t="s">
         <v>20</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Z9" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="21" t="s">
+      <c r="AA9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Y9" s="21" t="s">
+      <c r="AB9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="Z9" s="21" t="s">
+      <c r="AC9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AA9" s="29" t="s">
+      <c r="AD9" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AB9" s="29" t="s">
+      <c r="AE9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AC9" s="30" t="s">
+      <c r="AF9" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="Q10" t="s">
+      <c r="T10" t="s">
         <v>28</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <v>823</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>71</v>
       </c>
-      <c r="T10">
+      <c r="W10">
         <v>123</v>
       </c>
-      <c r="U10">
+      <c r="X10">
         <v>126</v>
       </c>
-      <c r="V10">
+      <c r="Y10">
         <v>378</v>
       </c>
-      <c r="W10">
+      <c r="Z10">
         <v>837</v>
       </c>
-      <c r="X10" s="21">
+      <c r="AA10" s="21">
         <v>425</v>
       </c>
-      <c r="Y10" s="21">
+      <c r="AB10" s="21">
         <v>493</v>
       </c>
-      <c r="Z10" s="21">
+      <c r="AC10" s="21">
         <v>723</v>
       </c>
-      <c r="AA10" s="29">
+      <c r="AD10" s="29">
         <v>289</v>
       </c>
-      <c r="AB10" s="29">
+      <c r="AE10" s="29">
         <v>165</v>
       </c>
-      <c r="AC10" s="30">
+      <c r="AF10" s="30">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
       <c r="B11" s="31">
         <v>1</v>
@@ -5026,27 +5354,45 @@
       <c r="K11" s="35">
         <v>4</v>
       </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="84">
+      <c r="L11" s="36">
+        <v>280</v>
+      </c>
+      <c r="M11" s="82">
         <f t="shared" ref="M11:M17" si="1">L11/40</f>
+        <v>7</v>
+      </c>
+      <c r="N11" s="36">
+        <v>180</v>
+      </c>
+      <c r="O11" s="82">
+        <f t="shared" ref="O11:O17" si="2">N11/15</f>
+        <v>12</v>
+      </c>
+      <c r="P11" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11" s="112">
+        <f>M11-I11</f>
         <v>0</v>
       </c>
-      <c r="N11" s="36"/>
-      <c r="O11" s="84">
-        <f t="shared" ref="O11:O17" si="2">N11/15</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37" t="s">
+      <c r="R11" s="112">
+        <f>O11-K11</f>
+        <v>8</v>
+      </c>
+      <c r="S11" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="Z11" s="38">
-        <f>SUM(X10:AC10)</f>
+      <c r="AC11" s="38">
+        <f>SUM(AA10:AF10)</f>
         <v>2287</v>
       </c>
-      <c r="AA11" s="38"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="38"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="32"/>
       <c r="B12" s="31">
         <v>2</v>
@@ -5081,27 +5427,46 @@
       <c r="K12" s="35">
         <v>18</v>
       </c>
-      <c r="L12" s="36"/>
-      <c r="M12" s="84">
+      <c r="L12" s="36">
+        <f>660+580</f>
+        <v>1240</v>
+      </c>
+      <c r="M12" s="82">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="36"/>
-      <c r="O12" s="84">
+        <v>31</v>
+      </c>
+      <c r="N12" s="36">
+        <v>90</v>
+      </c>
+      <c r="O12" s="82">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" s="112">
+        <f t="shared" ref="Q12:Q57" si="3">M12-I12</f>
+        <v>1</v>
+      </c>
+      <c r="R12" s="112">
+        <f t="shared" ref="R12:R57" si="4">O12-K12</f>
+        <v>-12</v>
+      </c>
+      <c r="S12" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="Z12" s="38">
-        <f>Z11*73%</f>
+      <c r="AC12" s="38">
+        <f>AC11*73%</f>
         <v>1669.51</v>
       </c>
-      <c r="AA12" s="39"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="39"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="32"/>
       <c r="B13" s="31">
         <v>3</v>
@@ -5137,17 +5502,26 @@
         <v>3</v>
       </c>
       <c r="L13" s="36"/>
-      <c r="M13" s="84">
+      <c r="M13" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="36"/>
-      <c r="O13" s="84">
+      <c r="O13" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Q13" s="112">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="R13" s="112">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="S13" s="112"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
       <c r="B14" s="31">
         <v>4</v>
@@ -5181,21 +5555,37 @@
         <f>21+13</f>
         <v>34</v>
       </c>
-      <c r="L14" s="36"/>
-      <c r="M14" s="84">
+      <c r="L14" s="36">
+        <v>0</v>
+      </c>
+      <c r="M14" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N14" s="36"/>
-      <c r="O14" s="84">
+      <c r="N14" s="36">
+        <f>390</f>
+        <v>390</v>
+      </c>
+      <c r="O14" s="82">
         <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="P14" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="112">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P14" s="109" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="R14" s="112">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="S14" s="112" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
       <c r="B15" s="31">
         <v>5</v>
@@ -5230,18 +5620,36 @@
       <c r="K15" s="35">
         <v>37</v>
       </c>
-      <c r="L15" s="36"/>
-      <c r="M15" s="84">
+      <c r="L15" s="36">
+        <f>360+80+280+1120+360.1</f>
+        <v>2200.1</v>
+      </c>
+      <c r="M15" s="82">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="36"/>
-      <c r="O15" s="84">
+        <v>55.002499999999998</v>
+      </c>
+      <c r="N15" s="36">
+        <f>89.85+24+49.5</f>
+        <v>163.35</v>
+      </c>
+      <c r="O15" s="82">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+        <v>10.889999999999999</v>
+      </c>
+      <c r="P15" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q15" s="112">
+        <f t="shared" si="3"/>
+        <v>-8.9975000000000023</v>
+      </c>
+      <c r="R15" s="112">
+        <f t="shared" si="4"/>
+        <v>-26.11</v>
+      </c>
+      <c r="S15" s="112"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
       <c r="B16" s="31">
         <v>6</v>
@@ -5277,17 +5685,26 @@
         <v>46</v>
       </c>
       <c r="L16" s="36"/>
-      <c r="M16" s="84">
+      <c r="M16" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N16" s="36"/>
-      <c r="O16" s="84">
+      <c r="O16" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="112">
+        <f t="shared" si="3"/>
+        <v>-80</v>
+      </c>
+      <c r="R16" s="112">
+        <f t="shared" si="4"/>
+        <v>-46</v>
+      </c>
+      <c r="S16" s="112"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="32"/>
       <c r="B17" s="31">
         <v>7</v>
@@ -5323,17 +5740,26 @@
         <v>3</v>
       </c>
       <c r="L17" s="36"/>
-      <c r="M17" s="84">
+      <c r="M17" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N17" s="36"/>
-      <c r="O17" s="84">
+      <c r="O17" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="112">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="R17" s="112">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="S17" s="112"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
       <c r="B18" s="31">
         <v>8</v>
@@ -5371,22 +5797,33 @@
       <c r="L18" s="36">
         <v>280</v>
       </c>
-      <c r="M18" s="84">
+      <c r="M18" s="82">
         <f>L18/40</f>
         <v>7</v>
       </c>
       <c r="N18" s="36">
         <v>60</v>
       </c>
-      <c r="O18" s="84">
+      <c r="O18" s="82">
         <f>N18/15</f>
         <v>4</v>
       </c>
-      <c r="P18" s="109" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P18" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q18" s="112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="112">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="119" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="32"/>
       <c r="B19" s="31">
         <v>9</v>
@@ -5420,18 +5857,37 @@
       <c r="K19" s="35">
         <v>0</v>
       </c>
-      <c r="L19" s="36"/>
-      <c r="M19" s="84">
-        <f t="shared" ref="M19:M57" si="3">L19/40</f>
+      <c r="L19" s="36">
+        <f>160+600+200+560+240</f>
+        <v>1760</v>
+      </c>
+      <c r="M19" s="82">
+        <f t="shared" ref="M19:M57" si="5">L19/40</f>
+        <v>44</v>
+      </c>
+      <c r="N19" s="36">
         <v>0</v>
       </c>
-      <c r="N19" s="36"/>
-      <c r="O19" s="84">
-        <f t="shared" ref="O19:O57" si="4">N19/15</f>
+      <c r="O19" s="82">
+        <f t="shared" ref="O19:O57" si="6">N19/15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P19" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q19" s="112">
+        <f t="shared" si="3"/>
+        <v>-15</v>
+      </c>
+      <c r="R19" s="112">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="112" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="32"/>
       <c r="B20" s="31">
         <v>10</v>
@@ -5467,17 +5923,26 @@
         <v>7</v>
       </c>
       <c r="L20" s="36"/>
-      <c r="M20" s="84">
+      <c r="M20" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="36"/>
+      <c r="O20" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="36"/>
-      <c r="O20" s="84">
+        <v>-11</v>
+      </c>
+      <c r="R20" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>-7</v>
+      </c>
+      <c r="S20" s="112"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="32"/>
       <c r="B21" s="31">
         <v>11</v>
@@ -5512,18 +5977,37 @@
       <c r="K21" s="35">
         <v>9</v>
       </c>
-      <c r="L21" s="36"/>
-      <c r="M21" s="84">
+      <c r="L21" s="36">
+        <f>120+100+130+250</f>
+        <v>600</v>
+      </c>
+      <c r="M21" s="82">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="36">
+        <v>135</v>
+      </c>
+      <c r="O21" s="82">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="P21" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q21" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N21" s="36"/>
-      <c r="O21" s="84">
+      <c r="R21" s="112">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S21" s="112" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="31">
         <v>12</v>
@@ -5558,58 +6042,87 @@
       <c r="K22" s="35">
         <v>24</v>
       </c>
-      <c r="L22" s="36"/>
-      <c r="M22" s="84">
+      <c r="L22" s="36">
+        <f>200+600+280+600+200</f>
+        <v>1880</v>
+      </c>
+      <c r="M22" s="82">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="N22" s="36">
+        <f>54+150+75+96</f>
+        <v>375</v>
+      </c>
+      <c r="O22" s="82">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="P22" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q22" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="36"/>
-      <c r="O22" s="84">
+        <v>5</v>
+      </c>
+      <c r="R22" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="95" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" s="112" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="93" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90">
+      <c r="B23" s="88"/>
+      <c r="C23" s="88">
         <v>14</v>
       </c>
-      <c r="D23" s="91">
+      <c r="D23" s="89">
         <v>10693.111658894071</v>
       </c>
-      <c r="E23" s="91">
+      <c r="E23" s="89">
         <v>12058.398341105929</v>
       </c>
-      <c r="F23" s="91">
+      <c r="F23" s="89">
         <v>22751.510000000002</v>
       </c>
-      <c r="G23" s="92"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93">
+      <c r="G23" s="90"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91">
         <f>SUM(I24:I37)</f>
         <v>1390</v>
       </c>
-      <c r="J23" s="94"/>
-      <c r="K23" s="93">
+      <c r="J23" s="92"/>
+      <c r="K23" s="91">
         <f>SUM(K24:K37)</f>
         <v>801</v>
       </c>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93">
+      <c r="L23" s="91"/>
+      <c r="M23" s="91">
         <f>SUM(M24:M37)</f>
-        <v>40.924999999999997</v>
-      </c>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93">
+        <v>1098.3249999999998</v>
+      </c>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91">
         <f>SUM(O24:O37)</f>
-        <v>29.2</v>
-      </c>
-      <c r="P23" s="113"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="91">
+        <f>SUM(Q24:Q37)</f>
+        <v>-291.67500000000001</v>
+      </c>
+      <c r="R23" s="91">
+        <f>SUM(R24:R37)</f>
+        <v>-659.8</v>
+      </c>
+      <c r="S23" s="91"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="32"/>
       <c r="B24" s="31">
         <v>1</v>
@@ -5627,35 +6140,54 @@
         <v>896.42</v>
       </c>
       <c r="G24" s="34">
-        <f t="shared" ref="G24:G37" si="5">F24/47378</f>
+        <f t="shared" ref="G24:G37" si="7">F24/47378</f>
         <v>1.8920596057241758E-2</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" ref="H24:H37" si="6">G24*2892</f>
+        <f t="shared" ref="H24:H37" si="8">G24*2892</f>
         <v>54.718363797543162</v>
       </c>
       <c r="I24" s="35">
         <v>55</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" ref="J24:J37" si="7">G24*1670</f>
+        <f t="shared" ref="J24:J37" si="9">G24*1670</f>
         <v>31.597395415593734</v>
       </c>
       <c r="K24" s="35">
         <v>32</v>
       </c>
-      <c r="L24" s="36"/>
-      <c r="M24" s="84">
+      <c r="L24" s="36">
+        <v>1100</v>
+      </c>
+      <c r="M24" s="82">
+        <f t="shared" si="5"/>
+        <v>27.5</v>
+      </c>
+      <c r="N24" s="36">
+        <f>255</f>
+        <v>255</v>
+      </c>
+      <c r="O24" s="82">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="P24" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q24" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="36"/>
-      <c r="O24" s="84">
+        <v>-27.5</v>
+      </c>
+      <c r="R24" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <v>-15</v>
+      </c>
+      <c r="S24" s="112" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="32"/>
       <c r="B25" s="31">
         <v>2</v>
@@ -5673,35 +6205,44 @@
         <v>724.65</v>
       </c>
       <c r="G25" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5295073662881506E-2</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44.233353033053312</v>
       </c>
       <c r="I25" s="35">
         <v>44</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25.542773017012117</v>
       </c>
       <c r="K25" s="35">
         <v>26</v>
       </c>
       <c r="L25" s="36"/>
-      <c r="M25" s="84">
+      <c r="M25" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="36"/>
+      <c r="O25" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="36"/>
-      <c r="O25" s="84">
+        <v>-44</v>
+      </c>
+      <c r="R25" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <v>-26</v>
+      </c>
+      <c r="S25" s="112"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="32"/>
       <c r="B26" s="31">
         <v>3</v>
@@ -5719,35 +6260,44 @@
         <v>324.49</v>
       </c>
       <c r="G26" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.8489594326480649E-3</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>19.807190679218202</v>
       </c>
       <c r="I26" s="35">
         <v>20</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11.437762252522269</v>
       </c>
       <c r="K26" s="35">
         <v>11</v>
       </c>
       <c r="L26" s="36"/>
-      <c r="M26" s="84">
+      <c r="M26" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="36"/>
+      <c r="O26" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="36"/>
-      <c r="O26" s="84">
+        <v>-20</v>
+      </c>
+      <c r="R26" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <v>-11</v>
+      </c>
+      <c r="S26" s="112"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="32"/>
       <c r="B27" s="31">
         <v>4</v>
@@ -5765,35 +6315,55 @@
         <v>2815.43</v>
       </c>
       <c r="G27" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.9424838532652284E-2</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>171.8566330364304</v>
       </c>
       <c r="I27" s="35">
         <v>172</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>99.239480349529316</v>
       </c>
       <c r="K27" s="35">
         <v>99</v>
       </c>
-      <c r="L27" s="36"/>
-      <c r="M27" s="84">
+      <c r="L27" s="36">
+        <f>1280+1376+1160+360+20000</f>
+        <v>24176</v>
+      </c>
+      <c r="M27" s="82">
+        <f t="shared" si="5"/>
+        <v>604.4</v>
+      </c>
+      <c r="N27" s="36">
+        <f>80+295+285+55+300</f>
+        <v>1015</v>
+      </c>
+      <c r="O27" s="82">
+        <f t="shared" si="6"/>
+        <v>67.666666666666671</v>
+      </c>
+      <c r="P27" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q27" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="36"/>
-      <c r="O27" s="84">
+        <v>432.4</v>
+      </c>
+      <c r="R27" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+        <v>-31.333333333333329</v>
+      </c>
+      <c r="S27" s="112" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="32"/>
       <c r="B28" s="31">
         <v>5</v>
@@ -5811,35 +6381,44 @@
         <v>696.5200000000001</v>
       </c>
       <c r="G28" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4701338173835959E-2</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>42.516269998733591</v>
       </c>
       <c r="I28" s="35">
         <v>43</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.551234750306051</v>
       </c>
       <c r="K28" s="35">
         <v>25</v>
       </c>
       <c r="L28" s="36"/>
-      <c r="M28" s="84">
+      <c r="M28" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="36"/>
+      <c r="O28" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="36"/>
-      <c r="O28" s="84">
+        <v>-43</v>
+      </c>
+      <c r="R28" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+        <v>-25</v>
+      </c>
+      <c r="S28" s="112"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="32"/>
       <c r="B29" s="31">
         <v>6</v>
@@ -5857,90 +6436,121 @@
         <v>412.5</v>
       </c>
       <c r="G29" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.7065726708598929E-3</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25.179408164126809</v>
       </c>
       <c r="I29" s="35">
         <v>25</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14.539976360336022</v>
       </c>
       <c r="K29" s="35">
         <v>15</v>
       </c>
-      <c r="L29" s="36"/>
-      <c r="M29" s="84">
+      <c r="L29" s="36">
+        <f>660+400+1000</f>
+        <v>2060</v>
+      </c>
+      <c r="M29" s="82">
+        <f t="shared" si="5"/>
+        <v>51.5</v>
+      </c>
+      <c r="N29" s="36">
+        <f>155+90</f>
+        <v>245</v>
+      </c>
+      <c r="O29" s="82">
+        <f t="shared" si="6"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="P29" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q29" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="36"/>
-      <c r="O29" s="84">
+        <v>26.5</v>
+      </c>
+      <c r="R29" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="115"/>
+        <v>1.3333333333333321</v>
+      </c>
+      <c r="S29" s="112" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="108"/>
       <c r="B30" s="10">
         <v>7</v>
       </c>
-      <c r="C30" s="115" t="s">
+      <c r="C30" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="76">
+      <c r="D30" s="75">
         <v>196.26625107071476</v>
       </c>
-      <c r="E30" s="76">
+      <c r="E30" s="75">
         <v>350.73374892928524</v>
       </c>
-      <c r="F30" s="76">
+      <c r="F30" s="75">
         <v>547</v>
       </c>
-      <c r="G30" s="77">
-        <f t="shared" si="5"/>
+      <c r="G30" s="76">
+        <f t="shared" si="7"/>
         <v>1.154544303263118E-2</v>
       </c>
-      <c r="H30" s="78">
-        <f t="shared" si="6"/>
+      <c r="H30" s="77">
+        <f t="shared" si="8"/>
         <v>33.389421250369374</v>
       </c>
       <c r="I30" s="35">
         <v>33</v>
       </c>
-      <c r="J30" s="116">
-        <f t="shared" si="7"/>
+      <c r="J30" s="109">
+        <f t="shared" si="9"/>
         <v>19.280889864494071</v>
       </c>
       <c r="K30" s="35">
         <v>19</v>
       </c>
-      <c r="L30" s="117">
+      <c r="L30" s="110">
         <f>649+988</f>
         <v>1637</v>
       </c>
-      <c r="M30" s="84">
-        <f t="shared" si="3"/>
+      <c r="M30" s="82">
+        <f t="shared" si="5"/>
         <v>40.924999999999997</v>
       </c>
-      <c r="N30" s="117">
+      <c r="N30" s="110">
         <f>240+198</f>
         <v>438</v>
       </c>
-      <c r="O30" s="84">
+      <c r="O30" s="82">
+        <f t="shared" si="6"/>
+        <v>29.2</v>
+      </c>
+      <c r="P30" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q30" s="112">
+        <f t="shared" si="3"/>
+        <v>7.9249999999999972</v>
+      </c>
+      <c r="R30" s="112">
         <f t="shared" si="4"/>
-        <v>29.2</v>
-      </c>
-      <c r="P30" s="103" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="S30" s="112" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="32"/>
       <c r="B31" s="31">
         <v>8</v>
@@ -5958,35 +6568,55 @@
         <v>325</v>
       </c>
       <c r="G31" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.8597239224956735E-3</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>19.838321583857489</v>
       </c>
       <c r="I31" s="35">
         <v>20</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11.455738950567774</v>
       </c>
       <c r="K31" s="35">
         <v>11</v>
       </c>
-      <c r="L31" s="36"/>
-      <c r="M31" s="84">
+      <c r="L31" s="36">
+        <f>800</f>
+        <v>800</v>
+      </c>
+      <c r="M31" s="82">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="N31" s="36">
+        <f>165</f>
+        <v>165</v>
+      </c>
+      <c r="O31" s="82">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="P31" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q31" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N31" s="36"/>
-      <c r="O31" s="84">
+      <c r="R31" s="112">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S31" s="112" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="32"/>
       <c r="B32" s="31">
         <v>9</v>
@@ -6004,35 +6634,44 @@
         <v>719</v>
       </c>
       <c r="G32" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5175820000844274E-2</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>43.888471442441642</v>
       </c>
       <c r="I32" s="35">
         <v>44</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25.343619401409939</v>
       </c>
       <c r="K32" s="35">
         <v>25</v>
       </c>
       <c r="L32" s="36"/>
-      <c r="M32" s="84">
+      <c r="M32" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="36"/>
+      <c r="O32" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="36"/>
-      <c r="O32" s="84">
+        <v>-44</v>
+      </c>
+      <c r="R32" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+        <v>-25</v>
+      </c>
+      <c r="S32" s="112"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="32"/>
       <c r="B33" s="31">
         <v>10</v>
@@ -6050,35 +6689,44 @@
         <v>405.5</v>
       </c>
       <c r="G33" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.5588247709907552E-3</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24.752121237705264</v>
       </c>
       <c r="I33" s="35">
         <v>25</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14.293237367554561</v>
       </c>
       <c r="K33" s="35">
         <v>14</v>
       </c>
       <c r="L33" s="36"/>
-      <c r="M33" s="84">
+      <c r="M33" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="36"/>
+      <c r="O33" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="36"/>
-      <c r="O33" s="84">
+        <v>-25</v>
+      </c>
+      <c r="R33" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+        <v>-14</v>
+      </c>
+      <c r="S33" s="112"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="32"/>
       <c r="B34" s="31">
         <v>11</v>
@@ -6096,35 +6744,44 @@
         <v>2282</v>
       </c>
       <c r="G34" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.8165815357338847E-2</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>139.29553801342394</v>
       </c>
       <c r="I34" s="35">
         <v>140</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>80.436911646755874</v>
       </c>
       <c r="K34" s="35">
         <v>80</v>
       </c>
       <c r="L34" s="36"/>
-      <c r="M34" s="84">
+      <c r="M34" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="36"/>
+      <c r="O34" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="36"/>
-      <c r="O34" s="84">
+        <v>-140</v>
+      </c>
+      <c r="R34" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+        <v>-80</v>
+      </c>
+      <c r="S34" s="112"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="32"/>
       <c r="B35" s="31">
         <v>12</v>
@@ -6142,35 +6799,44 @@
         <v>2735.5</v>
       </c>
       <c r="G35" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.7737768584575119E-2</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>166.97762674659126</v>
       </c>
       <c r="I35" s="35">
         <v>167</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>96.422073536240447</v>
       </c>
       <c r="K35" s="35">
         <v>96</v>
       </c>
       <c r="L35" s="36"/>
-      <c r="M35" s="84">
+      <c r="M35" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="36"/>
+      <c r="O35" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="36"/>
-      <c r="O35" s="84">
+        <v>-167</v>
+      </c>
+      <c r="R35" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+        <v>-96</v>
+      </c>
+      <c r="S35" s="112"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="32"/>
       <c r="B36" s="31">
         <v>13</v>
@@ -6188,35 +6854,44 @@
         <v>3802.5</v>
       </c>
       <c r="G36" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.0258769893199369E-2</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>232.10836253113257</v>
       </c>
       <c r="I36" s="35">
         <v>232</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>134.03214572164293</v>
       </c>
       <c r="K36" s="35">
         <v>134</v>
       </c>
       <c r="L36" s="36"/>
-      <c r="M36" s="84">
+      <c r="M36" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="36"/>
+      <c r="O36" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="36"/>
-      <c r="O36" s="84">
+        <v>-232</v>
+      </c>
+      <c r="R36" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+        <v>-134</v>
+      </c>
+      <c r="S36" s="112"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="32"/>
       <c r="B37" s="31">
         <v>14</v>
@@ -6234,75 +6909,97 @@
         <v>6065</v>
       </c>
       <c r="G37" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12801300181518849</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>370.21360124952508</v>
       </c>
       <c r="I37" s="35">
         <v>370</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>213.78171303136477</v>
       </c>
       <c r="K37" s="35">
         <v>214</v>
       </c>
-      <c r="L37" s="36"/>
-      <c r="M37" s="84">
+      <c r="L37" s="36">
+        <v>14160</v>
+      </c>
+      <c r="M37" s="82">
+        <f t="shared" si="5"/>
+        <v>354</v>
+      </c>
+      <c r="N37" s="36"/>
+      <c r="O37" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="36"/>
-      <c r="O37" s="84">
+        <v>-16</v>
+      </c>
+      <c r="R37" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="89" t="s">
+        <v>-214</v>
+      </c>
+      <c r="S37" s="112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="90"/>
-      <c r="C38" s="90">
+      <c r="B38" s="88"/>
+      <c r="C38" s="88">
         <v>19</v>
       </c>
-      <c r="D38" s="91">
+      <c r="D38" s="89">
         <v>11206.364352336535</v>
       </c>
-      <c r="E38" s="91">
+      <c r="E38" s="89">
         <v>8050.1356476634619</v>
       </c>
-      <c r="F38" s="91">
+      <c r="F38" s="89">
         <v>19256.5</v>
       </c>
-      <c r="G38" s="92"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="93">
+      <c r="G38" s="90"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="91">
         <f>SUM(I39:I57)</f>
         <v>1177</v>
       </c>
-      <c r="J38" s="94"/>
-      <c r="K38" s="93">
+      <c r="J38" s="92"/>
+      <c r="K38" s="91">
         <f>SUM(K39:K57)</f>
         <v>680</v>
       </c>
-      <c r="L38" s="93"/>
-      <c r="M38" s="93">
+      <c r="L38" s="91"/>
+      <c r="M38" s="91">
         <f>SUM(M39:M57)</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="93"/>
-      <c r="O38" s="93">
+        <v>575</v>
+      </c>
+      <c r="N38" s="91"/>
+      <c r="O38" s="91">
         <f>SUM(O39:O57)</f>
-        <v>55</v>
-      </c>
-      <c r="P38" s="109"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="91">
+        <f>SUM(Q39:Q57)</f>
+        <v>-602</v>
+      </c>
+      <c r="R38" s="91">
+        <f>SUM(R39:R57)</f>
+        <v>-26</v>
+      </c>
+      <c r="S38" s="91"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="32"/>
       <c r="B39" s="31">
         <v>1</v>
@@ -6320,35 +7017,55 @@
         <v>2201</v>
       </c>
       <c r="G39" s="34">
-        <f t="shared" ref="G39:G57" si="8">F39/47378</f>
+        <f t="shared" ref="G39:G57" si="10">F39/47378</f>
         <v>4.6456161087424543E-2</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" ref="H39:H57" si="9">G39*2892</f>
+        <f t="shared" ref="H39:H57" si="11">G39*2892</f>
         <v>134.35121786483177</v>
       </c>
       <c r="I39" s="35">
         <v>134</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" ref="J39:J57" si="10">G39*1670</f>
+        <f t="shared" ref="J39:J57" si="12">G39*1670</f>
         <v>77.581789015998993</v>
       </c>
       <c r="K39" s="35">
         <v>78</v>
       </c>
-      <c r="L39" s="36"/>
-      <c r="M39" s="84">
+      <c r="L39" s="36">
+        <f>920+1800+400+680+680+880</f>
+        <v>5360</v>
+      </c>
+      <c r="M39" s="82">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+      <c r="N39" s="36">
+        <f>675+360+900+630+225+270+135+315</f>
+        <v>3510</v>
+      </c>
+      <c r="O39" s="82">
+        <f t="shared" si="6"/>
+        <v>234</v>
+      </c>
+      <c r="P39" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q39" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N39" s="36"/>
-      <c r="O39" s="84">
+      <c r="R39" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="S39" s="112" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="32"/>
       <c r="B40" s="31">
         <v>2</v>
@@ -6366,35 +7083,44 @@
         <v>83</v>
       </c>
       <c r="G40" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.7518679555912026E-3</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.0664021275697575</v>
       </c>
       <c r="I40" s="35">
         <v>5</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.9256194858373084</v>
       </c>
       <c r="K40" s="35">
         <v>3</v>
       </c>
       <c r="L40" s="36"/>
-      <c r="M40" s="84">
+      <c r="M40" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="36"/>
+      <c r="O40" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="36"/>
-      <c r="O40" s="84">
+        <v>-5</v>
+      </c>
+      <c r="R40" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+        <v>-3</v>
+      </c>
+      <c r="S40" s="112"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="32"/>
       <c r="B41" s="31">
         <v>3</v>
@@ -6412,35 +7138,44 @@
         <v>979</v>
       </c>
       <c r="G41" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.0663599138840812E-2</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>59.75912870952763</v>
       </c>
       <c r="I41" s="35">
         <v>60</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>34.508210561864153</v>
       </c>
       <c r="K41" s="35">
         <v>35</v>
       </c>
       <c r="L41" s="36"/>
-      <c r="M41" s="84">
+      <c r="M41" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="36"/>
+      <c r="O41" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="36"/>
-      <c r="O41" s="84">
+        <v>-60</v>
+      </c>
+      <c r="R41" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-35</v>
+      </c>
+      <c r="S41" s="112"/>
+    </row>
+    <row r="42" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
       <c r="B42" s="31">
         <v>4</v>
@@ -6458,40 +7193,49 @@
         <v>921.5</v>
       </c>
       <c r="G42" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9449955675630039E-2</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>56.249271813922071</v>
       </c>
       <c r="I42" s="35">
         <v>56</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32.481425978302163</v>
       </c>
       <c r="K42" s="35">
         <v>32</v>
       </c>
       <c r="L42" s="36"/>
-      <c r="M42" s="84">
+      <c r="M42" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="36"/>
+      <c r="O42" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="102"/>
+      <c r="Q42" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="36"/>
-      <c r="O42" s="84">
+        <v>-56</v>
+      </c>
+      <c r="R42" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="109"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
+        <v>-32</v>
+      </c>
+      <c r="S42" s="112"/>
       <c r="T42" s="2"/>
-    </row>
-    <row r="43" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="32"/>
       <c r="B43" s="31">
         <v>5</v>
@@ -6509,40 +7253,49 @@
         <v>1667</v>
       </c>
       <c r="G43" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.5185107011693188E-2</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>101.7553294778167</v>
       </c>
       <c r="I43" s="35">
         <v>102</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>58.759128709527623</v>
       </c>
       <c r="K43" s="35">
         <v>59</v>
       </c>
       <c r="L43" s="36"/>
-      <c r="M43" s="84">
+      <c r="M43" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="36"/>
+      <c r="O43" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="102"/>
+      <c r="Q43" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="36"/>
-      <c r="O43" s="84">
+        <v>-102</v>
+      </c>
+      <c r="R43" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="109"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
+        <v>-59</v>
+      </c>
+      <c r="S43" s="112"/>
       <c r="T43" s="2"/>
-    </row>
-    <row r="44" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+    </row>
+    <row r="44" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="32"/>
       <c r="B44" s="31">
         <v>6</v>
@@ -6560,40 +7313,49 @@
         <v>2886</v>
       </c>
       <c r="G44" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.0914348431761578E-2</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>176.16429566465447</v>
       </c>
       <c r="I44" s="35">
         <v>176</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>101.72696188104183</v>
       </c>
       <c r="K44" s="35">
         <v>102</v>
       </c>
       <c r="L44" s="36"/>
-      <c r="M44" s="84">
+      <c r="M44" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="36"/>
+      <c r="O44" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="102"/>
+      <c r="Q44" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="36"/>
-      <c r="O44" s="84">
+        <v>-176</v>
+      </c>
+      <c r="R44" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="109"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
+        <v>-102</v>
+      </c>
+      <c r="S44" s="112"/>
       <c r="T44" s="2"/>
-    </row>
-    <row r="45" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+    </row>
+    <row r="45" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="32"/>
       <c r="B45" s="31">
         <v>7</v>
@@ -6611,40 +7373,57 @@
         <v>327</v>
       </c>
       <c r="G45" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.9019376081725699E-3</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.960403562835072</v>
       </c>
       <c r="I45" s="35">
         <v>20</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>11.526235805648192</v>
       </c>
       <c r="K45" s="35">
         <v>12</v>
       </c>
-      <c r="L45" s="36"/>
-      <c r="M45" s="84">
+      <c r="L45" s="36">
+        <v>800</v>
+      </c>
+      <c r="M45" s="82">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="N45" s="36">
+        <v>180</v>
+      </c>
+      <c r="O45" s="82">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="P45" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q45" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N45" s="36"/>
-      <c r="O45" s="84">
+      <c r="R45" s="112">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P45" s="109"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
+      <c r="S45" s="112" t="s">
+        <v>97</v>
+      </c>
       <c r="T45" s="2"/>
-    </row>
-    <row r="46" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+    </row>
+    <row r="46" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="32"/>
       <c r="B46" s="31">
         <v>8</v>
@@ -6662,40 +7441,53 @@
         <v>780</v>
       </c>
       <c r="G46" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6463337413989615E-2</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>47.611971801257965</v>
       </c>
       <c r="I46" s="35">
         <v>48</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>27.493773481362656</v>
       </c>
       <c r="K46" s="35">
         <v>27</v>
       </c>
-      <c r="L46" s="36"/>
-      <c r="M46" s="84">
+      <c r="L46" s="36">
+        <v>4000</v>
+      </c>
+      <c r="M46" s="82">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="N46" s="36"/>
+      <c r="O46" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="102"/>
+      <c r="Q46" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="36"/>
-      <c r="O46" s="84">
+        <v>52</v>
+      </c>
+      <c r="R46" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="109"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
+        <v>-27</v>
+      </c>
+      <c r="S46" s="112" t="s">
+        <v>110</v>
+      </c>
       <c r="T46" s="2"/>
-    </row>
-    <row r="47" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+    </row>
+    <row r="47" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="32"/>
       <c r="B47" s="31">
         <v>9</v>
@@ -6713,93 +7505,123 @@
         <v>691.5</v>
       </c>
       <c r="G47" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4595381822786947E-2</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42.209844231499851</v>
       </c>
       <c r="I47" s="35">
         <v>42</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>24.374287644054203</v>
       </c>
       <c r="K47" s="35">
         <v>24</v>
       </c>
-      <c r="L47" s="36"/>
-      <c r="M47" s="84">
+      <c r="L47" s="36">
+        <f>480+280+280+280</f>
+        <v>1320</v>
+      </c>
+      <c r="M47" s="82">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="N47" s="36">
+        <f>120+60+60</f>
+        <v>240</v>
+      </c>
+      <c r="O47" s="82">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="P47" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q47" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="36"/>
-      <c r="O47" s="84">
+        <v>-9</v>
+      </c>
+      <c r="R47" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="109"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
+        <v>-8</v>
+      </c>
+      <c r="S47" s="112" t="s">
+        <v>99</v>
+      </c>
       <c r="T47" s="2"/>
-    </row>
-    <row r="48" spans="1:20" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="115"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+    </row>
+    <row r="48" spans="1:23" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="108"/>
       <c r="B48" s="10">
         <v>10</v>
       </c>
-      <c r="C48" s="115" t="s">
+      <c r="C48" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="76">
+      <c r="D48" s="75">
         <v>329.48608070809939</v>
       </c>
-      <c r="E48" s="76">
+      <c r="E48" s="75">
         <v>525.01391929190061</v>
       </c>
-      <c r="F48" s="76">
+      <c r="F48" s="75">
         <v>854.5</v>
       </c>
-      <c r="G48" s="77">
-        <f t="shared" si="8"/>
+      <c r="G48" s="76">
+        <f t="shared" si="10"/>
         <v>1.8035797205454007E-2</v>
       </c>
-      <c r="H48" s="78">
-        <f t="shared" si="9"/>
+      <c r="H48" s="77">
+        <f t="shared" si="11"/>
         <v>52.159525518172991</v>
       </c>
       <c r="I48" s="35">
         <v>52</v>
       </c>
-      <c r="J48" s="116">
-        <f t="shared" si="10"/>
+      <c r="J48" s="109">
+        <f t="shared" si="12"/>
         <v>30.119781333108193</v>
       </c>
       <c r="K48" s="35">
         <v>30</v>
       </c>
-      <c r="L48" s="117"/>
-      <c r="M48" s="84">
+      <c r="L48" s="110"/>
+      <c r="M48" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="110"/>
+      <c r="O48" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q48" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="117"/>
-      <c r="O48" s="84">
+        <v>-52</v>
+      </c>
+      <c r="R48" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
+        <v>-30</v>
+      </c>
+      <c r="S48" s="112" t="s">
+        <v>101</v>
+      </c>
       <c r="T48" s="37"/>
-    </row>
-    <row r="49" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+    </row>
+    <row r="49" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="32"/>
       <c r="B49" s="31">
         <v>11</v>
@@ -6817,40 +7639,59 @@
         <v>682.5</v>
       </c>
       <c r="G49" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4405420237240913E-2</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>41.660475326100723</v>
       </c>
       <c r="I49" s="35">
         <v>42</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>24.057051796192326</v>
       </c>
       <c r="K49" s="35">
         <v>24</v>
       </c>
-      <c r="L49" s="36"/>
-      <c r="M49" s="84">
+      <c r="L49" s="36">
+        <f>280+200+200+200+280+400+120</f>
+        <v>1680</v>
+      </c>
+      <c r="M49" s="82">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="N49" s="36">
+        <f>45+35+45+70+60+45+45</f>
+        <v>345</v>
+      </c>
+      <c r="O49" s="82">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="P49" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q49" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N49" s="36"/>
-      <c r="O49" s="84">
+      <c r="R49" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="109"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
+        <v>-1</v>
+      </c>
+      <c r="S49" s="112" t="s">
+        <v>99</v>
+      </c>
       <c r="T49" s="2"/>
-    </row>
-    <row r="50" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+    </row>
+    <row r="50" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="32"/>
       <c r="B50" s="31">
         <v>12</v>
@@ -6868,45 +7709,56 @@
         <v>84</v>
       </c>
       <c r="G50" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.7729747984296508E-3</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.1274431170585499</v>
       </c>
       <c r="I50" s="35">
         <v>5</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.9608679133775166</v>
       </c>
       <c r="K50" s="35">
         <v>3</v>
       </c>
       <c r="L50" s="36"/>
-      <c r="M50" s="84">
-        <f t="shared" si="3"/>
+      <c r="M50" s="82">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N50" s="36">
         <f>450+105+180+90</f>
         <v>825</v>
       </c>
-      <c r="O50" s="84">
+      <c r="O50" s="82">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="P50" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q50" s="112">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="R50" s="112">
         <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="P50" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="S50" s="112" t="s">
+        <v>103</v>
+      </c>
       <c r="T50" s="2"/>
-    </row>
-    <row r="51" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+    </row>
+    <row r="51" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="32"/>
       <c r="B51" s="31">
         <v>13</v>
@@ -6924,40 +7776,49 @@
         <v>130</v>
       </c>
       <c r="G51" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.7438895689982693E-3</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.9353286335429951</v>
       </c>
       <c r="I51" s="35">
         <v>8</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.5822955802271101</v>
       </c>
       <c r="K51" s="35">
         <v>5</v>
       </c>
       <c r="L51" s="36"/>
-      <c r="M51" s="84">
+      <c r="M51" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="36"/>
+      <c r="O51" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="102"/>
+      <c r="Q51" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="36"/>
-      <c r="O51" s="84">
+        <v>-8</v>
+      </c>
+      <c r="R51" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="109"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
+        <v>-5</v>
+      </c>
+      <c r="S51" s="112"/>
       <c r="T51" s="2"/>
-    </row>
-    <row r="52" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+    </row>
+    <row r="52" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="32"/>
       <c r="B52" s="31">
         <v>14</v>
@@ -6975,40 +7836,53 @@
         <v>425</v>
       </c>
       <c r="G52" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.9704082063404959E-3</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>25.942420532736715</v>
       </c>
       <c r="I52" s="35">
         <v>26</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>14.980581704588628</v>
       </c>
       <c r="K52" s="35">
         <v>15</v>
       </c>
       <c r="L52" s="36"/>
-      <c r="M52" s="84">
+      <c r="M52" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="36"/>
+      <c r="O52" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q52" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N52" s="36"/>
-      <c r="O52" s="84">
+        <v>-26</v>
+      </c>
+      <c r="R52" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="109"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
+        <v>-15</v>
+      </c>
+      <c r="S52" s="112" t="s">
+        <v>104</v>
+      </c>
       <c r="T52" s="2"/>
-    </row>
-    <row r="53" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+    </row>
+    <row r="53" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="32"/>
       <c r="B53" s="31">
         <v>15</v>
@@ -7026,40 +7900,49 @@
         <v>1135.5</v>
       </c>
       <c r="G53" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.396682004305796E-2</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>69.31204356452362</v>
       </c>
       <c r="I53" s="35">
         <v>70</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>40.024589471906793</v>
       </c>
       <c r="K53" s="35">
         <v>40</v>
       </c>
       <c r="L53" s="36"/>
-      <c r="M53" s="84">
+      <c r="M53" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="36"/>
+      <c r="O53" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="102"/>
+      <c r="Q53" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="36"/>
-      <c r="O53" s="84">
+        <v>-70</v>
+      </c>
+      <c r="R53" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="109"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
+        <v>-40</v>
+      </c>
+      <c r="S53" s="112"/>
       <c r="T53" s="2"/>
-    </row>
-    <row r="54" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+    </row>
+    <row r="54" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="32"/>
       <c r="B54" s="31">
         <v>16</v>
@@ -7077,40 +7960,59 @@
         <v>2855</v>
       </c>
       <c r="G54" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.0260036303769679E-2</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>174.2720249905019</v>
       </c>
       <c r="I54" s="35">
         <v>175</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>100.63426062729536</v>
       </c>
       <c r="K54" s="35">
         <v>101</v>
       </c>
-      <c r="L54" s="36"/>
-      <c r="M54" s="84">
+      <c r="L54" s="36">
+        <f>3680+3280</f>
+        <v>6960</v>
+      </c>
+      <c r="M54" s="82">
+        <f t="shared" si="5"/>
+        <v>174</v>
+      </c>
+      <c r="N54" s="36">
+        <f>4080</f>
+        <v>4080</v>
+      </c>
+      <c r="O54" s="82">
+        <f t="shared" si="6"/>
+        <v>272</v>
+      </c>
+      <c r="P54" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q54" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="36"/>
-      <c r="O54" s="84">
+        <v>-1</v>
+      </c>
+      <c r="R54" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="109"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="S54" s="112" t="s">
+        <v>107</v>
+      </c>
       <c r="T54" s="2"/>
-    </row>
-    <row r="55" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+    </row>
+    <row r="55" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="32"/>
       <c r="B55" s="31">
         <v>17</v>
@@ -7128,40 +8030,49 @@
         <v>558</v>
       </c>
       <c r="G55" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1777618303854109E-2</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>34.060872134746084</v>
       </c>
       <c r="I55" s="35">
         <v>34</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19.668622567436362</v>
       </c>
       <c r="K55" s="35">
         <v>20</v>
       </c>
       <c r="L55" s="36"/>
-      <c r="M55" s="84">
+      <c r="M55" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="36"/>
+      <c r="O55" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="102"/>
+      <c r="Q55" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="36"/>
-      <c r="O55" s="84">
+        <v>-34</v>
+      </c>
+      <c r="R55" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="109"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
+        <v>-20</v>
+      </c>
+      <c r="S55" s="112"/>
       <c r="T55" s="2"/>
-    </row>
-    <row r="56" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+    </row>
+    <row r="56" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="32"/>
       <c r="B56" s="31">
         <v>18</v>
@@ -7179,40 +8090,59 @@
         <v>1199</v>
       </c>
       <c r="G56" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.5307104563299421E-2</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>73.188146397061928</v>
       </c>
       <c r="I56" s="35">
         <v>73</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>42.262864620710033</v>
       </c>
       <c r="K56" s="35">
         <v>42</v>
       </c>
-      <c r="L56" s="36"/>
-      <c r="M56" s="84">
+      <c r="L56" s="36">
+        <f>960+960+560+400</f>
+        <v>2880</v>
+      </c>
+      <c r="M56" s="82">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="N56" s="36">
+        <f>75+135+210+150+60</f>
+        <v>630</v>
+      </c>
+      <c r="O56" s="82">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="P56" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q56" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="36"/>
-      <c r="O56" s="84">
+        <v>-1</v>
+      </c>
+      <c r="R56" s="112">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P56" s="109"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
+      <c r="S56" s="112" t="s">
+        <v>99</v>
+      </c>
       <c r="T56" s="2"/>
-    </row>
-    <row r="57" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+    </row>
+    <row r="57" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="32"/>
       <c r="B57" s="31">
         <v>19</v>
@@ -7230,40 +8160,49 @@
         <v>797</v>
       </c>
       <c r="G57" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6822153742243235E-2</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>48.649668622567432</v>
       </c>
       <c r="I57" s="35">
         <v>49</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28.092996749546202</v>
       </c>
       <c r="K57" s="35">
         <v>28</v>
       </c>
       <c r="L57" s="36"/>
-      <c r="M57" s="84">
+      <c r="M57" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="36"/>
+      <c r="O57" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="102"/>
+      <c r="Q57" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="36"/>
-      <c r="O57" s="84">
+        <v>-49</v>
+      </c>
+      <c r="R57" s="112">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="109"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
+        <v>-28</v>
+      </c>
+      <c r="S57" s="112"/>
       <c r="T57" s="2"/>
-    </row>
-    <row r="58" spans="1:20" s="45" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+    </row>
+    <row r="58" spans="1:23" s="45" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D58" s="46"/>
       <c r="E58" s="46"/>
       <c r="F58" s="46"/>
@@ -7279,45 +8218,57 @@
       <c r="J58" s="36"/>
       <c r="K58" s="35"/>
       <c r="L58" s="36"/>
-      <c r="M58" s="85"/>
+      <c r="M58" s="83"/>
       <c r="N58" s="36"/>
-      <c r="O58" s="84"/>
-      <c r="P58" s="109"/>
-    </row>
-    <row r="59" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O58" s="82"/>
+      <c r="P58" s="102"/>
+      <c r="Q58" s="102"/>
+      <c r="R58" s="102"/>
+      <c r="S58" s="102"/>
+    </row>
+    <row r="59" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D59" s="50"/>
       <c r="E59" s="50"/>
       <c r="F59" s="50"/>
       <c r="G59" s="4"/>
       <c r="I59" s="6"/>
       <c r="K59" s="6"/>
-      <c r="M59" s="81"/>
-      <c r="O59" s="81"/>
-      <c r="P59" s="110"/>
-    </row>
-    <row r="60" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M59" s="80"/>
+      <c r="O59" s="80"/>
+      <c r="P59" s="103"/>
+      <c r="Q59" s="103"/>
+      <c r="R59" s="103"/>
+      <c r="S59" s="103"/>
+    </row>
+    <row r="60" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D60" s="50"/>
       <c r="E60" s="50"/>
       <c r="F60" s="50"/>
       <c r="G60" s="4"/>
       <c r="I60" s="6"/>
       <c r="K60" s="6"/>
-      <c r="M60" s="81"/>
-      <c r="O60" s="81"/>
-      <c r="P60" s="110"/>
-    </row>
-    <row r="61" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M60" s="80"/>
+      <c r="O60" s="80"/>
+      <c r="P60" s="103"/>
+      <c r="Q60" s="103"/>
+      <c r="R60" s="103"/>
+      <c r="S60" s="103"/>
+    </row>
+    <row r="61" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D61" s="50"/>
       <c r="E61" s="50"/>
       <c r="F61" s="50"/>
       <c r="G61" s="4"/>
       <c r="I61" s="6"/>
       <c r="K61" s="6"/>
-      <c r="M61" s="81"/>
-      <c r="O61" s="81"/>
-      <c r="P61" s="110"/>
-    </row>
-    <row r="63" spans="1:20" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M61" s="80"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="103"/>
+      <c r="Q61" s="103"/>
+      <c r="R61" s="103"/>
+      <c r="S61" s="103"/>
+    </row>
+    <row r="63" spans="1:23" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="51"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
@@ -7327,1571 +8278,2042 @@
       <c r="G63" s="4"/>
       <c r="I63" s="6"/>
       <c r="K63" s="6"/>
-      <c r="M63" s="81"/>
-      <c r="O63" s="81"/>
-      <c r="P63" s="110"/>
-    </row>
-    <row r="64" spans="1:20" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M63" s="80"/>
+      <c r="O63" s="80"/>
+      <c r="P63" s="103"/>
+      <c r="Q63" s="103"/>
+      <c r="R63" s="103"/>
+      <c r="S63" s="103"/>
+    </row>
+    <row r="64" spans="1:23" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G64" s="52"/>
       <c r="I64" s="53"/>
       <c r="K64" s="53"/>
       <c r="L64" s="54"/>
-      <c r="M64" s="86"/>
+      <c r="M64" s="84"/>
       <c r="N64" s="54"/>
-      <c r="O64" s="86"/>
-      <c r="P64" s="114"/>
-    </row>
-    <row r="65" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O64" s="84"/>
+      <c r="P64" s="107"/>
+      <c r="Q64" s="107"/>
+      <c r="R64" s="107"/>
+      <c r="S64" s="107"/>
+    </row>
+    <row r="65" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G65" s="52"/>
       <c r="I65" s="53"/>
       <c r="K65" s="53"/>
       <c r="L65" s="54"/>
-      <c r="M65" s="86"/>
+      <c r="M65" s="84"/>
       <c r="N65" s="54"/>
-      <c r="O65" s="86"/>
-      <c r="P65" s="114"/>
-    </row>
-    <row r="66" spans="7:16" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O65" s="84"/>
+      <c r="P65" s="107"/>
+      <c r="Q65" s="107"/>
+      <c r="R65" s="107"/>
+      <c r="S65" s="107"/>
+    </row>
+    <row r="66" spans="7:19" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G66" s="52"/>
       <c r="I66" s="53"/>
       <c r="K66" s="53"/>
       <c r="L66" s="54"/>
-      <c r="M66" s="86"/>
+      <c r="M66" s="84"/>
       <c r="N66" s="54"/>
-      <c r="O66" s="86"/>
-      <c r="P66" s="114"/>
-    </row>
-    <row r="67" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O66" s="84"/>
+      <c r="P66" s="107"/>
+      <c r="Q66" s="107"/>
+      <c r="R66" s="107"/>
+      <c r="S66" s="107"/>
+    </row>
+    <row r="67" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G67" s="52"/>
       <c r="I67" s="53"/>
       <c r="K67" s="53"/>
       <c r="L67" s="54"/>
-      <c r="M67" s="86"/>
+      <c r="M67" s="84"/>
       <c r="N67" s="54"/>
-      <c r="O67" s="86"/>
-      <c r="P67" s="114"/>
-    </row>
-    <row r="68" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O67" s="84"/>
+      <c r="P67" s="107"/>
+      <c r="Q67" s="107"/>
+      <c r="R67" s="107"/>
+      <c r="S67" s="107"/>
+    </row>
+    <row r="68" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G68" s="52"/>
       <c r="I68" s="53"/>
       <c r="K68" s="53"/>
       <c r="L68" s="54"/>
-      <c r="M68" s="86"/>
+      <c r="M68" s="84"/>
       <c r="N68" s="54"/>
-      <c r="O68" s="86"/>
-      <c r="P68" s="114"/>
-    </row>
-    <row r="69" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O68" s="84"/>
+      <c r="P68" s="107"/>
+      <c r="Q68" s="107"/>
+      <c r="R68" s="107"/>
+      <c r="S68" s="107"/>
+    </row>
+    <row r="69" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G69" s="52"/>
       <c r="I69" s="53"/>
       <c r="K69" s="53"/>
       <c r="L69" s="54"/>
-      <c r="M69" s="86"/>
+      <c r="M69" s="84"/>
       <c r="N69" s="54"/>
-      <c r="O69" s="86"/>
-      <c r="P69" s="114"/>
-    </row>
-    <row r="70" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O69" s="84"/>
+      <c r="P69" s="107"/>
+      <c r="Q69" s="107"/>
+      <c r="R69" s="107"/>
+      <c r="S69" s="107"/>
+    </row>
+    <row r="70" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G70" s="52"/>
       <c r="I70" s="53"/>
       <c r="K70" s="53"/>
       <c r="L70" s="54"/>
-      <c r="M70" s="86"/>
+      <c r="M70" s="84"/>
       <c r="N70" s="54"/>
-      <c r="O70" s="86"/>
-      <c r="P70" s="114"/>
-    </row>
-    <row r="71" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O70" s="84"/>
+      <c r="P70" s="107"/>
+      <c r="Q70" s="107"/>
+      <c r="R70" s="107"/>
+      <c r="S70" s="107"/>
+    </row>
+    <row r="71" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G71" s="52"/>
       <c r="I71" s="53"/>
       <c r="K71" s="53"/>
       <c r="L71" s="54"/>
-      <c r="M71" s="86"/>
+      <c r="M71" s="84"/>
       <c r="N71" s="54"/>
-      <c r="O71" s="86"/>
-      <c r="P71" s="114"/>
-    </row>
-    <row r="72" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O71" s="84"/>
+      <c r="P71" s="107"/>
+      <c r="Q71" s="107"/>
+      <c r="R71" s="107"/>
+      <c r="S71" s="107"/>
+    </row>
+    <row r="72" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G72" s="52"/>
       <c r="I72" s="53"/>
       <c r="K72" s="53"/>
       <c r="L72" s="54"/>
-      <c r="M72" s="86"/>
+      <c r="M72" s="84"/>
       <c r="N72" s="54"/>
-      <c r="O72" s="86"/>
-      <c r="P72" s="114"/>
-    </row>
-    <row r="73" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O72" s="84"/>
+      <c r="P72" s="107"/>
+      <c r="Q72" s="107"/>
+      <c r="R72" s="107"/>
+      <c r="S72" s="107"/>
+    </row>
+    <row r="73" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G73" s="52"/>
       <c r="I73" s="53"/>
       <c r="K73" s="53"/>
       <c r="L73" s="54"/>
-      <c r="M73" s="86"/>
+      <c r="M73" s="84"/>
       <c r="N73" s="54"/>
-      <c r="O73" s="86"/>
-      <c r="P73" s="114"/>
-    </row>
-    <row r="74" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O73" s="84"/>
+      <c r="P73" s="107"/>
+      <c r="Q73" s="107"/>
+      <c r="R73" s="107"/>
+      <c r="S73" s="107"/>
+    </row>
+    <row r="74" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G74" s="52"/>
       <c r="I74" s="53"/>
       <c r="K74" s="53"/>
       <c r="L74" s="54"/>
-      <c r="M74" s="86"/>
+      <c r="M74" s="84"/>
       <c r="N74" s="54"/>
-      <c r="O74" s="86"/>
-      <c r="P74" s="114"/>
-    </row>
-    <row r="75" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O74" s="84"/>
+      <c r="P74" s="107"/>
+      <c r="Q74" s="107"/>
+      <c r="R74" s="107"/>
+      <c r="S74" s="107"/>
+    </row>
+    <row r="75" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G75" s="52"/>
       <c r="I75" s="53"/>
       <c r="K75" s="53"/>
       <c r="L75" s="54"/>
-      <c r="M75" s="86"/>
+      <c r="M75" s="84"/>
       <c r="N75" s="54"/>
-      <c r="O75" s="86"/>
-      <c r="P75" s="114"/>
-    </row>
-    <row r="76" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O75" s="84"/>
+      <c r="P75" s="107"/>
+      <c r="Q75" s="107"/>
+      <c r="R75" s="107"/>
+      <c r="S75" s="107"/>
+    </row>
+    <row r="76" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G76" s="52"/>
       <c r="I76" s="53"/>
       <c r="K76" s="53"/>
       <c r="L76" s="54"/>
-      <c r="M76" s="86"/>
+      <c r="M76" s="84"/>
       <c r="N76" s="54"/>
-      <c r="O76" s="86"/>
-      <c r="P76" s="114"/>
-    </row>
-    <row r="77" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O76" s="84"/>
+      <c r="P76" s="107"/>
+      <c r="Q76" s="107"/>
+      <c r="R76" s="107"/>
+      <c r="S76" s="107"/>
+    </row>
+    <row r="77" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G77" s="52"/>
       <c r="I77" s="53"/>
       <c r="K77" s="53"/>
       <c r="L77" s="54"/>
-      <c r="M77" s="86"/>
+      <c r="M77" s="84"/>
       <c r="N77" s="54"/>
-      <c r="O77" s="86"/>
-      <c r="P77" s="114"/>
-    </row>
-    <row r="78" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O77" s="84"/>
+      <c r="P77" s="107"/>
+      <c r="Q77" s="107"/>
+      <c r="R77" s="107"/>
+      <c r="S77" s="107"/>
+    </row>
+    <row r="78" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G78" s="52"/>
       <c r="I78" s="53"/>
       <c r="K78" s="53"/>
       <c r="L78" s="54"/>
-      <c r="M78" s="86"/>
+      <c r="M78" s="84"/>
       <c r="N78" s="54"/>
-      <c r="O78" s="86"/>
-      <c r="P78" s="114"/>
-    </row>
-    <row r="79" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O78" s="84"/>
+      <c r="P78" s="107"/>
+      <c r="Q78" s="107"/>
+      <c r="R78" s="107"/>
+      <c r="S78" s="107"/>
+    </row>
+    <row r="79" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G79" s="52"/>
       <c r="I79" s="53"/>
       <c r="K79" s="53"/>
       <c r="L79" s="54"/>
-      <c r="M79" s="86"/>
+      <c r="M79" s="84"/>
       <c r="N79" s="54"/>
-      <c r="O79" s="86"/>
-      <c r="P79" s="114"/>
-    </row>
-    <row r="80" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O79" s="84"/>
+      <c r="P79" s="107"/>
+      <c r="Q79" s="107"/>
+      <c r="R79" s="107"/>
+      <c r="S79" s="107"/>
+    </row>
+    <row r="80" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G80" s="52"/>
       <c r="I80" s="53"/>
       <c r="K80" s="53"/>
       <c r="L80" s="54"/>
-      <c r="M80" s="86"/>
+      <c r="M80" s="84"/>
       <c r="N80" s="54"/>
-      <c r="O80" s="86"/>
-      <c r="P80" s="114"/>
-    </row>
-    <row r="81" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O80" s="84"/>
+      <c r="P80" s="107"/>
+      <c r="Q80" s="107"/>
+      <c r="R80" s="107"/>
+      <c r="S80" s="107"/>
+    </row>
+    <row r="81" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G81" s="52"/>
       <c r="I81" s="53"/>
       <c r="K81" s="53"/>
       <c r="L81" s="54"/>
-      <c r="M81" s="86"/>
+      <c r="M81" s="84"/>
       <c r="N81" s="54"/>
-      <c r="O81" s="86"/>
-      <c r="P81" s="114"/>
-    </row>
-    <row r="82" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O81" s="84"/>
+      <c r="P81" s="107"/>
+      <c r="Q81" s="107"/>
+      <c r="R81" s="107"/>
+      <c r="S81" s="107"/>
+    </row>
+    <row r="82" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G82" s="52"/>
       <c r="I82" s="53"/>
       <c r="K82" s="53"/>
       <c r="L82" s="54"/>
-      <c r="M82" s="86"/>
+      <c r="M82" s="84"/>
       <c r="N82" s="54"/>
-      <c r="O82" s="86"/>
-      <c r="P82" s="114"/>
-    </row>
-    <row r="83" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O82" s="84"/>
+      <c r="P82" s="107"/>
+      <c r="Q82" s="107"/>
+      <c r="R82" s="107"/>
+      <c r="S82" s="107"/>
+    </row>
+    <row r="83" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G83" s="52"/>
       <c r="I83" s="53"/>
       <c r="K83" s="53"/>
       <c r="L83" s="54"/>
-      <c r="M83" s="86"/>
+      <c r="M83" s="84"/>
       <c r="N83" s="54"/>
-      <c r="O83" s="86"/>
-      <c r="P83" s="114"/>
-    </row>
-    <row r="84" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O83" s="84"/>
+      <c r="P83" s="107"/>
+      <c r="Q83" s="107"/>
+      <c r="R83" s="107"/>
+      <c r="S83" s="107"/>
+    </row>
+    <row r="84" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G84" s="52"/>
       <c r="I84" s="53"/>
       <c r="K84" s="53"/>
       <c r="L84" s="54"/>
-      <c r="M84" s="86"/>
+      <c r="M84" s="84"/>
       <c r="N84" s="54"/>
-      <c r="O84" s="86"/>
-      <c r="P84" s="114"/>
-    </row>
-    <row r="85" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O84" s="84"/>
+      <c r="P84" s="107"/>
+      <c r="Q84" s="107"/>
+      <c r="R84" s="107"/>
+      <c r="S84" s="107"/>
+    </row>
+    <row r="85" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G85" s="52"/>
       <c r="I85" s="53"/>
       <c r="K85" s="53"/>
       <c r="L85" s="54"/>
-      <c r="M85" s="86"/>
+      <c r="M85" s="84"/>
       <c r="N85" s="54"/>
-      <c r="O85" s="86"/>
-      <c r="P85" s="114"/>
-    </row>
-    <row r="86" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O85" s="84"/>
+      <c r="P85" s="107"/>
+      <c r="Q85" s="107"/>
+      <c r="R85" s="107"/>
+      <c r="S85" s="107"/>
+    </row>
+    <row r="86" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G86" s="52"/>
       <c r="I86" s="53"/>
       <c r="K86" s="53"/>
       <c r="L86" s="54"/>
-      <c r="M86" s="86"/>
+      <c r="M86" s="84"/>
       <c r="N86" s="54"/>
-      <c r="O86" s="86"/>
-      <c r="P86" s="114"/>
-    </row>
-    <row r="87" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O86" s="84"/>
+      <c r="P86" s="107"/>
+      <c r="Q86" s="107"/>
+      <c r="R86" s="107"/>
+      <c r="S86" s="107"/>
+    </row>
+    <row r="87" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G87" s="52"/>
       <c r="I87" s="53"/>
       <c r="K87" s="53"/>
       <c r="L87" s="54"/>
-      <c r="M87" s="86"/>
+      <c r="M87" s="84"/>
       <c r="N87" s="54"/>
-      <c r="O87" s="86"/>
-      <c r="P87" s="114"/>
-    </row>
-    <row r="88" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O87" s="84"/>
+      <c r="P87" s="107"/>
+      <c r="Q87" s="107"/>
+      <c r="R87" s="107"/>
+      <c r="S87" s="107"/>
+    </row>
+    <row r="88" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G88" s="52"/>
       <c r="I88" s="53"/>
       <c r="K88" s="53"/>
       <c r="L88" s="54"/>
-      <c r="M88" s="86"/>
+      <c r="M88" s="84"/>
       <c r="N88" s="54"/>
-      <c r="O88" s="86"/>
-      <c r="P88" s="114"/>
-    </row>
-    <row r="89" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O88" s="84"/>
+      <c r="P88" s="107"/>
+      <c r="Q88" s="107"/>
+      <c r="R88" s="107"/>
+      <c r="S88" s="107"/>
+    </row>
+    <row r="89" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G89" s="52"/>
       <c r="I89" s="53"/>
       <c r="K89" s="53"/>
       <c r="L89" s="54"/>
-      <c r="M89" s="86"/>
+      <c r="M89" s="84"/>
       <c r="N89" s="54"/>
-      <c r="O89" s="86"/>
-      <c r="P89" s="114"/>
-    </row>
-    <row r="90" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O89" s="84"/>
+      <c r="P89" s="107"/>
+      <c r="Q89" s="107"/>
+      <c r="R89" s="107"/>
+      <c r="S89" s="107"/>
+    </row>
+    <row r="90" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G90" s="52"/>
       <c r="I90" s="53"/>
       <c r="K90" s="53"/>
       <c r="L90" s="54"/>
-      <c r="M90" s="86"/>
+      <c r="M90" s="84"/>
       <c r="N90" s="54"/>
-      <c r="O90" s="86"/>
-      <c r="P90" s="114"/>
-    </row>
-    <row r="91" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O90" s="84"/>
+      <c r="P90" s="107"/>
+      <c r="Q90" s="107"/>
+      <c r="R90" s="107"/>
+      <c r="S90" s="107"/>
+    </row>
+    <row r="91" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G91" s="52"/>
       <c r="I91" s="53"/>
       <c r="K91" s="53"/>
       <c r="L91" s="54"/>
-      <c r="M91" s="86"/>
+      <c r="M91" s="84"/>
       <c r="N91" s="54"/>
-      <c r="O91" s="86"/>
-      <c r="P91" s="114"/>
-    </row>
-    <row r="92" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O91" s="84"/>
+      <c r="P91" s="107"/>
+      <c r="Q91" s="107"/>
+      <c r="R91" s="107"/>
+      <c r="S91" s="107"/>
+    </row>
+    <row r="92" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G92" s="52"/>
       <c r="I92" s="53"/>
       <c r="K92" s="53"/>
       <c r="L92" s="54"/>
-      <c r="M92" s="86"/>
+      <c r="M92" s="84"/>
       <c r="N92" s="54"/>
-      <c r="O92" s="86"/>
-      <c r="P92" s="114"/>
-    </row>
-    <row r="93" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O92" s="84"/>
+      <c r="P92" s="107"/>
+      <c r="Q92" s="107"/>
+      <c r="R92" s="107"/>
+      <c r="S92" s="107"/>
+    </row>
+    <row r="93" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G93" s="52"/>
       <c r="I93" s="53"/>
       <c r="K93" s="53"/>
       <c r="L93" s="54"/>
-      <c r="M93" s="86"/>
+      <c r="M93" s="84"/>
       <c r="N93" s="54"/>
-      <c r="O93" s="86"/>
-      <c r="P93" s="114"/>
-    </row>
-    <row r="94" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O93" s="84"/>
+      <c r="P93" s="107"/>
+      <c r="Q93" s="107"/>
+      <c r="R93" s="107"/>
+      <c r="S93" s="107"/>
+    </row>
+    <row r="94" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G94" s="52"/>
       <c r="I94" s="53"/>
       <c r="K94" s="53"/>
       <c r="L94" s="54"/>
-      <c r="M94" s="86"/>
+      <c r="M94" s="84"/>
       <c r="N94" s="54"/>
-      <c r="O94" s="86"/>
-      <c r="P94" s="114"/>
-    </row>
-    <row r="95" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O94" s="84"/>
+      <c r="P94" s="107"/>
+      <c r="Q94" s="107"/>
+      <c r="R94" s="107"/>
+      <c r="S94" s="107"/>
+    </row>
+    <row r="95" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G95" s="52"/>
       <c r="I95" s="53"/>
       <c r="K95" s="53"/>
       <c r="L95" s="54"/>
-      <c r="M95" s="86"/>
+      <c r="M95" s="84"/>
       <c r="N95" s="54"/>
-      <c r="O95" s="86"/>
-      <c r="P95" s="114"/>
-    </row>
-    <row r="96" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O95" s="84"/>
+      <c r="P95" s="107"/>
+      <c r="Q95" s="107"/>
+      <c r="R95" s="107"/>
+      <c r="S95" s="107"/>
+    </row>
+    <row r="96" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G96" s="52"/>
       <c r="I96" s="53"/>
       <c r="K96" s="53"/>
       <c r="L96" s="54"/>
-      <c r="M96" s="86"/>
+      <c r="M96" s="84"/>
       <c r="N96" s="54"/>
-      <c r="O96" s="86"/>
-      <c r="P96" s="114"/>
-    </row>
-    <row r="97" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O96" s="84"/>
+      <c r="P96" s="107"/>
+      <c r="Q96" s="107"/>
+      <c r="R96" s="107"/>
+      <c r="S96" s="107"/>
+    </row>
+    <row r="97" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G97" s="52"/>
       <c r="I97" s="53"/>
       <c r="K97" s="53"/>
       <c r="L97" s="54"/>
-      <c r="M97" s="86"/>
+      <c r="M97" s="84"/>
       <c r="N97" s="54"/>
-      <c r="O97" s="86"/>
-      <c r="P97" s="114"/>
-    </row>
-    <row r="98" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O97" s="84"/>
+      <c r="P97" s="107"/>
+      <c r="Q97" s="107"/>
+      <c r="R97" s="107"/>
+      <c r="S97" s="107"/>
+    </row>
+    <row r="98" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G98" s="52"/>
       <c r="I98" s="53"/>
       <c r="K98" s="53"/>
       <c r="L98" s="54"/>
-      <c r="M98" s="86"/>
+      <c r="M98" s="84"/>
       <c r="N98" s="54"/>
-      <c r="O98" s="86"/>
-      <c r="P98" s="114"/>
-    </row>
-    <row r="99" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O98" s="84"/>
+      <c r="P98" s="107"/>
+      <c r="Q98" s="107"/>
+      <c r="R98" s="107"/>
+      <c r="S98" s="107"/>
+    </row>
+    <row r="99" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G99" s="52"/>
       <c r="I99" s="53"/>
       <c r="K99" s="53"/>
       <c r="L99" s="54"/>
-      <c r="M99" s="86"/>
+      <c r="M99" s="84"/>
       <c r="N99" s="54"/>
-      <c r="O99" s="86"/>
-      <c r="P99" s="114"/>
-    </row>
-    <row r="100" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O99" s="84"/>
+      <c r="P99" s="107"/>
+      <c r="Q99" s="107"/>
+      <c r="R99" s="107"/>
+      <c r="S99" s="107"/>
+    </row>
+    <row r="100" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G100" s="52"/>
       <c r="I100" s="53"/>
       <c r="K100" s="53"/>
       <c r="L100" s="54"/>
-      <c r="M100" s="86"/>
+      <c r="M100" s="84"/>
       <c r="N100" s="54"/>
-      <c r="O100" s="86"/>
-      <c r="P100" s="114"/>
-    </row>
-    <row r="101" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O100" s="84"/>
+      <c r="P100" s="107"/>
+      <c r="Q100" s="107"/>
+      <c r="R100" s="107"/>
+      <c r="S100" s="107"/>
+    </row>
+    <row r="101" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G101" s="52"/>
       <c r="I101" s="53"/>
       <c r="K101" s="53"/>
       <c r="L101" s="54"/>
-      <c r="M101" s="86"/>
+      <c r="M101" s="84"/>
       <c r="N101" s="54"/>
-      <c r="O101" s="86"/>
-      <c r="P101" s="114"/>
-    </row>
-    <row r="102" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O101" s="84"/>
+      <c r="P101" s="107"/>
+      <c r="Q101" s="107"/>
+      <c r="R101" s="107"/>
+      <c r="S101" s="107"/>
+    </row>
+    <row r="102" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G102" s="52"/>
       <c r="I102" s="53"/>
       <c r="K102" s="53"/>
       <c r="L102" s="54"/>
-      <c r="M102" s="86"/>
+      <c r="M102" s="84"/>
       <c r="N102" s="54"/>
-      <c r="O102" s="86"/>
-      <c r="P102" s="114"/>
-    </row>
-    <row r="103" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O102" s="84"/>
+      <c r="P102" s="107"/>
+      <c r="Q102" s="107"/>
+      <c r="R102" s="107"/>
+      <c r="S102" s="107"/>
+    </row>
+    <row r="103" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G103" s="52"/>
       <c r="I103" s="53"/>
       <c r="K103" s="53"/>
       <c r="L103" s="54"/>
-      <c r="M103" s="86"/>
+      <c r="M103" s="84"/>
       <c r="N103" s="54"/>
-      <c r="O103" s="86"/>
-      <c r="P103" s="114"/>
-    </row>
-    <row r="104" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O103" s="84"/>
+      <c r="P103" s="107"/>
+      <c r="Q103" s="107"/>
+      <c r="R103" s="107"/>
+      <c r="S103" s="107"/>
+    </row>
+    <row r="104" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G104" s="52"/>
       <c r="I104" s="53"/>
       <c r="K104" s="53"/>
       <c r="L104" s="54"/>
-      <c r="M104" s="86"/>
+      <c r="M104" s="84"/>
       <c r="N104" s="54"/>
-      <c r="O104" s="86"/>
-      <c r="P104" s="114"/>
-    </row>
-    <row r="105" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O104" s="84"/>
+      <c r="P104" s="107"/>
+      <c r="Q104" s="107"/>
+      <c r="R104" s="107"/>
+      <c r="S104" s="107"/>
+    </row>
+    <row r="105" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G105" s="52"/>
       <c r="I105" s="53"/>
       <c r="K105" s="53"/>
       <c r="L105" s="54"/>
-      <c r="M105" s="86"/>
+      <c r="M105" s="84"/>
       <c r="N105" s="54"/>
-      <c r="O105" s="86"/>
-      <c r="P105" s="114"/>
-    </row>
-    <row r="106" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O105" s="84"/>
+      <c r="P105" s="107"/>
+      <c r="Q105" s="107"/>
+      <c r="R105" s="107"/>
+      <c r="S105" s="107"/>
+    </row>
+    <row r="106" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G106" s="52"/>
       <c r="I106" s="53"/>
       <c r="K106" s="53"/>
       <c r="L106" s="54"/>
-      <c r="M106" s="86"/>
+      <c r="M106" s="84"/>
       <c r="N106" s="54"/>
-      <c r="O106" s="86"/>
-      <c r="P106" s="114"/>
-    </row>
-    <row r="107" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O106" s="84"/>
+      <c r="P106" s="107"/>
+      <c r="Q106" s="107"/>
+      <c r="R106" s="107"/>
+      <c r="S106" s="107"/>
+    </row>
+    <row r="107" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G107" s="52"/>
       <c r="I107" s="53"/>
       <c r="K107" s="53"/>
       <c r="L107" s="54"/>
-      <c r="M107" s="86"/>
+      <c r="M107" s="84"/>
       <c r="N107" s="54"/>
-      <c r="O107" s="86"/>
-      <c r="P107" s="114"/>
-    </row>
-    <row r="108" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O107" s="84"/>
+      <c r="P107" s="107"/>
+      <c r="Q107" s="107"/>
+      <c r="R107" s="107"/>
+      <c r="S107" s="107"/>
+    </row>
+    <row r="108" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G108" s="52"/>
       <c r="I108" s="53"/>
       <c r="K108" s="53"/>
       <c r="L108" s="54"/>
-      <c r="M108" s="86"/>
+      <c r="M108" s="84"/>
       <c r="N108" s="54"/>
-      <c r="O108" s="86"/>
-      <c r="P108" s="114"/>
-    </row>
-    <row r="109" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O108" s="84"/>
+      <c r="P108" s="107"/>
+      <c r="Q108" s="107"/>
+      <c r="R108" s="107"/>
+      <c r="S108" s="107"/>
+    </row>
+    <row r="109" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G109" s="52"/>
       <c r="I109" s="53"/>
       <c r="K109" s="53"/>
       <c r="L109" s="54"/>
-      <c r="M109" s="86"/>
+      <c r="M109" s="84"/>
       <c r="N109" s="54"/>
-      <c r="O109" s="86"/>
-      <c r="P109" s="114"/>
-    </row>
-    <row r="110" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O109" s="84"/>
+      <c r="P109" s="107"/>
+      <c r="Q109" s="107"/>
+      <c r="R109" s="107"/>
+      <c r="S109" s="107"/>
+    </row>
+    <row r="110" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G110" s="52"/>
       <c r="I110" s="53"/>
       <c r="K110" s="53"/>
       <c r="L110" s="54"/>
-      <c r="M110" s="86"/>
+      <c r="M110" s="84"/>
       <c r="N110" s="54"/>
-      <c r="O110" s="86"/>
-      <c r="P110" s="114"/>
-    </row>
-    <row r="111" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O110" s="84"/>
+      <c r="P110" s="107"/>
+      <c r="Q110" s="107"/>
+      <c r="R110" s="107"/>
+      <c r="S110" s="107"/>
+    </row>
+    <row r="111" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G111" s="52"/>
       <c r="I111" s="53"/>
       <c r="K111" s="53"/>
       <c r="L111" s="54"/>
-      <c r="M111" s="86"/>
+      <c r="M111" s="84"/>
       <c r="N111" s="54"/>
-      <c r="O111" s="86"/>
-      <c r="P111" s="114"/>
-    </row>
-    <row r="112" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O111" s="84"/>
+      <c r="P111" s="107"/>
+      <c r="Q111" s="107"/>
+      <c r="R111" s="107"/>
+      <c r="S111" s="107"/>
+    </row>
+    <row r="112" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G112" s="52"/>
       <c r="I112" s="53"/>
       <c r="K112" s="53"/>
       <c r="L112" s="54"/>
-      <c r="M112" s="86"/>
+      <c r="M112" s="84"/>
       <c r="N112" s="54"/>
-      <c r="O112" s="86"/>
-      <c r="P112" s="114"/>
-    </row>
-    <row r="113" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O112" s="84"/>
+      <c r="P112" s="107"/>
+      <c r="Q112" s="107"/>
+      <c r="R112" s="107"/>
+      <c r="S112" s="107"/>
+    </row>
+    <row r="113" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G113" s="52"/>
       <c r="I113" s="53"/>
       <c r="K113" s="53"/>
       <c r="L113" s="54"/>
-      <c r="M113" s="86"/>
+      <c r="M113" s="84"/>
       <c r="N113" s="54"/>
-      <c r="O113" s="86"/>
-      <c r="P113" s="114"/>
-    </row>
-    <row r="114" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O113" s="84"/>
+      <c r="P113" s="107"/>
+      <c r="Q113" s="107"/>
+      <c r="R113" s="107"/>
+      <c r="S113" s="107"/>
+    </row>
+    <row r="114" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G114" s="52"/>
       <c r="I114" s="53"/>
       <c r="K114" s="53"/>
       <c r="L114" s="54"/>
-      <c r="M114" s="86"/>
+      <c r="M114" s="84"/>
       <c r="N114" s="54"/>
-      <c r="O114" s="86"/>
-      <c r="P114" s="114"/>
-    </row>
-    <row r="115" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O114" s="84"/>
+      <c r="P114" s="107"/>
+      <c r="Q114" s="107"/>
+      <c r="R114" s="107"/>
+      <c r="S114" s="107"/>
+    </row>
+    <row r="115" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G115" s="52"/>
       <c r="I115" s="53"/>
       <c r="K115" s="53"/>
       <c r="L115" s="54"/>
-      <c r="M115" s="86"/>
+      <c r="M115" s="84"/>
       <c r="N115" s="54"/>
-      <c r="O115" s="86"/>
-      <c r="P115" s="114"/>
-    </row>
-    <row r="116" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O115" s="84"/>
+      <c r="P115" s="107"/>
+      <c r="Q115" s="107"/>
+      <c r="R115" s="107"/>
+      <c r="S115" s="107"/>
+    </row>
+    <row r="116" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G116" s="52"/>
       <c r="I116" s="53"/>
       <c r="K116" s="53"/>
       <c r="L116" s="54"/>
-      <c r="M116" s="86"/>
+      <c r="M116" s="84"/>
       <c r="N116" s="54"/>
-      <c r="O116" s="86"/>
-      <c r="P116" s="114"/>
-    </row>
-    <row r="117" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O116" s="84"/>
+      <c r="P116" s="107"/>
+      <c r="Q116" s="107"/>
+      <c r="R116" s="107"/>
+      <c r="S116" s="107"/>
+    </row>
+    <row r="117" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G117" s="52"/>
       <c r="I117" s="53"/>
       <c r="K117" s="53"/>
       <c r="L117" s="54"/>
-      <c r="M117" s="86"/>
+      <c r="M117" s="84"/>
       <c r="N117" s="54"/>
-      <c r="O117" s="86"/>
-      <c r="P117" s="114"/>
-    </row>
-    <row r="118" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O117" s="84"/>
+      <c r="P117" s="107"/>
+      <c r="Q117" s="107"/>
+      <c r="R117" s="107"/>
+      <c r="S117" s="107"/>
+    </row>
+    <row r="118" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G118" s="52"/>
       <c r="I118" s="53"/>
       <c r="K118" s="53"/>
       <c r="L118" s="54"/>
-      <c r="M118" s="86"/>
+      <c r="M118" s="84"/>
       <c r="N118" s="54"/>
-      <c r="O118" s="86"/>
-      <c r="P118" s="114"/>
-    </row>
-    <row r="119" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O118" s="84"/>
+      <c r="P118" s="107"/>
+      <c r="Q118" s="107"/>
+      <c r="R118" s="107"/>
+      <c r="S118" s="107"/>
+    </row>
+    <row r="119" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G119" s="52"/>
       <c r="I119" s="53"/>
       <c r="K119" s="53"/>
       <c r="L119" s="54"/>
-      <c r="M119" s="86"/>
+      <c r="M119" s="84"/>
       <c r="N119" s="54"/>
-      <c r="O119" s="86"/>
-      <c r="P119" s="114"/>
-    </row>
-    <row r="120" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O119" s="84"/>
+      <c r="P119" s="107"/>
+      <c r="Q119" s="107"/>
+      <c r="R119" s="107"/>
+      <c r="S119" s="107"/>
+    </row>
+    <row r="120" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G120" s="52"/>
       <c r="I120" s="53"/>
       <c r="K120" s="53"/>
       <c r="L120" s="54"/>
-      <c r="M120" s="86"/>
+      <c r="M120" s="84"/>
       <c r="N120" s="54"/>
-      <c r="O120" s="86"/>
-      <c r="P120" s="114"/>
-    </row>
-    <row r="121" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O120" s="84"/>
+      <c r="P120" s="107"/>
+      <c r="Q120" s="107"/>
+      <c r="R120" s="107"/>
+      <c r="S120" s="107"/>
+    </row>
+    <row r="121" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G121" s="52"/>
       <c r="I121" s="53"/>
       <c r="K121" s="53"/>
       <c r="L121" s="54"/>
-      <c r="M121" s="86"/>
+      <c r="M121" s="84"/>
       <c r="N121" s="54"/>
-      <c r="O121" s="86"/>
-      <c r="P121" s="114"/>
-    </row>
-    <row r="122" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O121" s="84"/>
+      <c r="P121" s="107"/>
+      <c r="Q121" s="107"/>
+      <c r="R121" s="107"/>
+      <c r="S121" s="107"/>
+    </row>
+    <row r="122" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G122" s="52"/>
       <c r="I122" s="53"/>
       <c r="K122" s="53"/>
       <c r="L122" s="54"/>
-      <c r="M122" s="86"/>
+      <c r="M122" s="84"/>
       <c r="N122" s="54"/>
-      <c r="O122" s="86"/>
-      <c r="P122" s="114"/>
-    </row>
-    <row r="123" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O122" s="84"/>
+      <c r="P122" s="107"/>
+      <c r="Q122" s="107"/>
+      <c r="R122" s="107"/>
+      <c r="S122" s="107"/>
+    </row>
+    <row r="123" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G123" s="52"/>
       <c r="I123" s="53"/>
       <c r="K123" s="53"/>
       <c r="L123" s="54"/>
-      <c r="M123" s="86"/>
+      <c r="M123" s="84"/>
       <c r="N123" s="54"/>
-      <c r="O123" s="86"/>
-      <c r="P123" s="114"/>
-    </row>
-    <row r="124" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O123" s="84"/>
+      <c r="P123" s="107"/>
+      <c r="Q123" s="107"/>
+      <c r="R123" s="107"/>
+      <c r="S123" s="107"/>
+    </row>
+    <row r="124" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G124" s="52"/>
       <c r="I124" s="53"/>
       <c r="K124" s="53"/>
       <c r="L124" s="54"/>
-      <c r="M124" s="86"/>
+      <c r="M124" s="84"/>
       <c r="N124" s="54"/>
-      <c r="O124" s="86"/>
-      <c r="P124" s="114"/>
-    </row>
-    <row r="125" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O124" s="84"/>
+      <c r="P124" s="107"/>
+      <c r="Q124" s="107"/>
+      <c r="R124" s="107"/>
+      <c r="S124" s="107"/>
+    </row>
+    <row r="125" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G125" s="52"/>
       <c r="I125" s="53"/>
       <c r="K125" s="53"/>
       <c r="L125" s="54"/>
-      <c r="M125" s="86"/>
+      <c r="M125" s="84"/>
       <c r="N125" s="54"/>
-      <c r="O125" s="86"/>
-      <c r="P125" s="114"/>
-    </row>
-    <row r="126" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O125" s="84"/>
+      <c r="P125" s="107"/>
+      <c r="Q125" s="107"/>
+      <c r="R125" s="107"/>
+      <c r="S125" s="107"/>
+    </row>
+    <row r="126" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G126" s="52"/>
       <c r="I126" s="53"/>
       <c r="K126" s="53"/>
       <c r="L126" s="54"/>
-      <c r="M126" s="86"/>
+      <c r="M126" s="84"/>
       <c r="N126" s="54"/>
-      <c r="O126" s="86"/>
-      <c r="P126" s="114"/>
-    </row>
-    <row r="127" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O126" s="84"/>
+      <c r="P126" s="107"/>
+      <c r="Q126" s="107"/>
+      <c r="R126" s="107"/>
+      <c r="S126" s="107"/>
+    </row>
+    <row r="127" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G127" s="52"/>
       <c r="I127" s="53"/>
       <c r="K127" s="53"/>
       <c r="L127" s="54"/>
-      <c r="M127" s="86"/>
+      <c r="M127" s="84"/>
       <c r="N127" s="54"/>
-      <c r="O127" s="86"/>
-      <c r="P127" s="114"/>
-    </row>
-    <row r="128" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O127" s="84"/>
+      <c r="P127" s="107"/>
+      <c r="Q127" s="107"/>
+      <c r="R127" s="107"/>
+      <c r="S127" s="107"/>
+    </row>
+    <row r="128" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G128" s="52"/>
       <c r="I128" s="53"/>
       <c r="K128" s="53"/>
       <c r="L128" s="54"/>
-      <c r="M128" s="86"/>
+      <c r="M128" s="84"/>
       <c r="N128" s="54"/>
-      <c r="O128" s="86"/>
-      <c r="P128" s="114"/>
-    </row>
-    <row r="129" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O128" s="84"/>
+      <c r="P128" s="107"/>
+      <c r="Q128" s="107"/>
+      <c r="R128" s="107"/>
+      <c r="S128" s="107"/>
+    </row>
+    <row r="129" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G129" s="52"/>
       <c r="I129" s="53"/>
       <c r="K129" s="53"/>
       <c r="L129" s="54"/>
-      <c r="M129" s="86"/>
+      <c r="M129" s="84"/>
       <c r="N129" s="54"/>
-      <c r="O129" s="86"/>
-      <c r="P129" s="114"/>
-    </row>
-    <row r="130" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O129" s="84"/>
+      <c r="P129" s="107"/>
+      <c r="Q129" s="107"/>
+      <c r="R129" s="107"/>
+      <c r="S129" s="107"/>
+    </row>
+    <row r="130" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G130" s="52"/>
       <c r="I130" s="53"/>
       <c r="K130" s="53"/>
       <c r="L130" s="54"/>
-      <c r="M130" s="86"/>
+      <c r="M130" s="84"/>
       <c r="N130" s="54"/>
-      <c r="O130" s="86"/>
-      <c r="P130" s="114"/>
-    </row>
-    <row r="131" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O130" s="84"/>
+      <c r="P130" s="107"/>
+      <c r="Q130" s="107"/>
+      <c r="R130" s="107"/>
+      <c r="S130" s="107"/>
+    </row>
+    <row r="131" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G131" s="52"/>
       <c r="I131" s="53"/>
       <c r="K131" s="53"/>
       <c r="L131" s="54"/>
-      <c r="M131" s="86"/>
+      <c r="M131" s="84"/>
       <c r="N131" s="54"/>
-      <c r="O131" s="86"/>
-      <c r="P131" s="114"/>
-    </row>
-    <row r="132" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O131" s="84"/>
+      <c r="P131" s="107"/>
+      <c r="Q131" s="107"/>
+      <c r="R131" s="107"/>
+      <c r="S131" s="107"/>
+    </row>
+    <row r="132" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G132" s="52"/>
       <c r="I132" s="53"/>
       <c r="K132" s="53"/>
       <c r="L132" s="54"/>
-      <c r="M132" s="86"/>
+      <c r="M132" s="84"/>
       <c r="N132" s="54"/>
-      <c r="O132" s="86"/>
-      <c r="P132" s="114"/>
-    </row>
-    <row r="133" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O132" s="84"/>
+      <c r="P132" s="107"/>
+      <c r="Q132" s="107"/>
+      <c r="R132" s="107"/>
+      <c r="S132" s="107"/>
+    </row>
+    <row r="133" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G133" s="52"/>
       <c r="I133" s="53"/>
       <c r="K133" s="53"/>
       <c r="L133" s="54"/>
-      <c r="M133" s="86"/>
+      <c r="M133" s="84"/>
       <c r="N133" s="54"/>
-      <c r="O133" s="86"/>
-      <c r="P133" s="114"/>
-    </row>
-    <row r="134" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O133" s="84"/>
+      <c r="P133" s="107"/>
+      <c r="Q133" s="107"/>
+      <c r="R133" s="107"/>
+      <c r="S133" s="107"/>
+    </row>
+    <row r="134" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G134" s="52"/>
       <c r="I134" s="53"/>
       <c r="K134" s="53"/>
       <c r="L134" s="54"/>
-      <c r="M134" s="86"/>
+      <c r="M134" s="84"/>
       <c r="N134" s="54"/>
-      <c r="O134" s="86"/>
-      <c r="P134" s="114"/>
-    </row>
-    <row r="135" spans="7:16" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O134" s="84"/>
+      <c r="P134" s="107"/>
+      <c r="Q134" s="107"/>
+      <c r="R134" s="107"/>
+      <c r="S134" s="107"/>
+    </row>
+    <row r="135" spans="7:19" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G135" s="52"/>
       <c r="I135" s="53"/>
       <c r="K135" s="53"/>
       <c r="L135" s="54"/>
-      <c r="M135" s="86"/>
+      <c r="M135" s="84"/>
       <c r="N135" s="54"/>
-      <c r="O135" s="86"/>
-      <c r="P135" s="114"/>
-    </row>
-    <row r="136" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O135" s="84"/>
+      <c r="P135" s="107"/>
+      <c r="Q135" s="107"/>
+      <c r="R135" s="107"/>
+      <c r="S135" s="107"/>
+    </row>
+    <row r="136" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G136" s="52"/>
       <c r="I136" s="53"/>
       <c r="K136" s="53"/>
       <c r="L136" s="54"/>
-      <c r="M136" s="86"/>
+      <c r="M136" s="84"/>
       <c r="N136" s="54"/>
-      <c r="O136" s="86"/>
-      <c r="P136" s="114"/>
-    </row>
-    <row r="137" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O136" s="84"/>
+      <c r="P136" s="107"/>
+      <c r="Q136" s="107"/>
+      <c r="R136" s="107"/>
+      <c r="S136" s="107"/>
+    </row>
+    <row r="137" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G137" s="52"/>
       <c r="I137" s="53"/>
       <c r="K137" s="53"/>
       <c r="L137" s="54"/>
-      <c r="M137" s="86"/>
+      <c r="M137" s="84"/>
       <c r="N137" s="54"/>
-      <c r="O137" s="86"/>
-      <c r="P137" s="114"/>
-    </row>
-    <row r="138" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O137" s="84"/>
+      <c r="P137" s="107"/>
+      <c r="Q137" s="107"/>
+      <c r="R137" s="107"/>
+      <c r="S137" s="107"/>
+    </row>
+    <row r="138" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G138" s="52"/>
       <c r="I138" s="53"/>
       <c r="K138" s="53"/>
       <c r="L138" s="54"/>
-      <c r="M138" s="86"/>
+      <c r="M138" s="84"/>
       <c r="N138" s="54"/>
-      <c r="O138" s="86"/>
-      <c r="P138" s="114"/>
-    </row>
-    <row r="139" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O138" s="84"/>
+      <c r="P138" s="107"/>
+      <c r="Q138" s="107"/>
+      <c r="R138" s="107"/>
+      <c r="S138" s="107"/>
+    </row>
+    <row r="139" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G139" s="52"/>
       <c r="I139" s="53"/>
       <c r="K139" s="53"/>
       <c r="L139" s="54"/>
-      <c r="M139" s="86"/>
+      <c r="M139" s="84"/>
       <c r="N139" s="54"/>
-      <c r="O139" s="86"/>
-      <c r="P139" s="114"/>
-    </row>
-    <row r="140" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O139" s="84"/>
+      <c r="P139" s="107"/>
+      <c r="Q139" s="107"/>
+      <c r="R139" s="107"/>
+      <c r="S139" s="107"/>
+    </row>
+    <row r="140" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G140" s="52"/>
       <c r="I140" s="53"/>
       <c r="K140" s="53"/>
       <c r="L140" s="54"/>
-      <c r="M140" s="86"/>
+      <c r="M140" s="84"/>
       <c r="N140" s="54"/>
-      <c r="O140" s="86"/>
-      <c r="P140" s="114"/>
-    </row>
-    <row r="141" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O140" s="84"/>
+      <c r="P140" s="107"/>
+      <c r="Q140" s="107"/>
+      <c r="R140" s="107"/>
+      <c r="S140" s="107"/>
+    </row>
+    <row r="141" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G141" s="52"/>
       <c r="I141" s="53"/>
       <c r="K141" s="53"/>
       <c r="L141" s="54"/>
-      <c r="M141" s="86"/>
+      <c r="M141" s="84"/>
       <c r="N141" s="54"/>
-      <c r="O141" s="86"/>
-      <c r="P141" s="114"/>
-    </row>
-    <row r="142" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O141" s="84"/>
+      <c r="P141" s="107"/>
+      <c r="Q141" s="107"/>
+      <c r="R141" s="107"/>
+      <c r="S141" s="107"/>
+    </row>
+    <row r="142" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G142" s="52"/>
       <c r="I142" s="53"/>
       <c r="K142" s="53"/>
       <c r="L142" s="54"/>
-      <c r="M142" s="86"/>
+      <c r="M142" s="84"/>
       <c r="N142" s="54"/>
-      <c r="O142" s="86"/>
-      <c r="P142" s="114"/>
-    </row>
-    <row r="143" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O142" s="84"/>
+      <c r="P142" s="107"/>
+      <c r="Q142" s="107"/>
+      <c r="R142" s="107"/>
+      <c r="S142" s="107"/>
+    </row>
+    <row r="143" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G143" s="52"/>
       <c r="I143" s="53"/>
       <c r="K143" s="53"/>
       <c r="L143" s="54"/>
-      <c r="M143" s="86"/>
+      <c r="M143" s="84"/>
       <c r="N143" s="54"/>
-      <c r="O143" s="86"/>
-      <c r="P143" s="114"/>
-    </row>
-    <row r="144" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O143" s="84"/>
+      <c r="P143" s="107"/>
+      <c r="Q143" s="107"/>
+      <c r="R143" s="107"/>
+      <c r="S143" s="107"/>
+    </row>
+    <row r="144" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G144" s="52"/>
       <c r="I144" s="53"/>
       <c r="K144" s="53"/>
       <c r="L144" s="54"/>
-      <c r="M144" s="86"/>
+      <c r="M144" s="84"/>
       <c r="N144" s="54"/>
-      <c r="O144" s="86"/>
-      <c r="P144" s="114"/>
-    </row>
-    <row r="145" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O144" s="84"/>
+      <c r="P144" s="107"/>
+      <c r="Q144" s="107"/>
+      <c r="R144" s="107"/>
+      <c r="S144" s="107"/>
+    </row>
+    <row r="145" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G145" s="52"/>
       <c r="I145" s="53"/>
       <c r="K145" s="53"/>
       <c r="L145" s="54"/>
-      <c r="M145" s="86"/>
+      <c r="M145" s="84"/>
       <c r="N145" s="54"/>
-      <c r="O145" s="86"/>
-      <c r="P145" s="114"/>
-    </row>
-    <row r="146" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O145" s="84"/>
+      <c r="P145" s="107"/>
+      <c r="Q145" s="107"/>
+      <c r="R145" s="107"/>
+      <c r="S145" s="107"/>
+    </row>
+    <row r="146" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G146" s="52"/>
       <c r="I146" s="53"/>
       <c r="K146" s="53"/>
       <c r="L146" s="54"/>
-      <c r="M146" s="86"/>
+      <c r="M146" s="84"/>
       <c r="N146" s="54"/>
-      <c r="O146" s="86"/>
-      <c r="P146" s="114"/>
-    </row>
-    <row r="147" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O146" s="84"/>
+      <c r="P146" s="107"/>
+      <c r="Q146" s="107"/>
+      <c r="R146" s="107"/>
+      <c r="S146" s="107"/>
+    </row>
+    <row r="147" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G147" s="52"/>
       <c r="I147" s="53"/>
       <c r="K147" s="53"/>
       <c r="L147" s="54"/>
-      <c r="M147" s="86"/>
+      <c r="M147" s="84"/>
       <c r="N147" s="54"/>
-      <c r="O147" s="86"/>
-      <c r="P147" s="114"/>
-    </row>
-    <row r="148" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O147" s="84"/>
+      <c r="P147" s="107"/>
+      <c r="Q147" s="107"/>
+      <c r="R147" s="107"/>
+      <c r="S147" s="107"/>
+    </row>
+    <row r="148" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G148" s="52"/>
       <c r="I148" s="53"/>
       <c r="K148" s="53"/>
       <c r="L148" s="54"/>
-      <c r="M148" s="86"/>
+      <c r="M148" s="84"/>
       <c r="N148" s="54"/>
-      <c r="O148" s="86"/>
-      <c r="P148" s="114"/>
-    </row>
-    <row r="149" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O148" s="84"/>
+      <c r="P148" s="107"/>
+      <c r="Q148" s="107"/>
+      <c r="R148" s="107"/>
+      <c r="S148" s="107"/>
+    </row>
+    <row r="149" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G149" s="52"/>
       <c r="I149" s="53"/>
       <c r="K149" s="53"/>
       <c r="L149" s="54"/>
-      <c r="M149" s="86"/>
+      <c r="M149" s="84"/>
       <c r="N149" s="54"/>
-      <c r="O149" s="86"/>
-      <c r="P149" s="114"/>
-    </row>
-    <row r="150" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O149" s="84"/>
+      <c r="P149" s="107"/>
+      <c r="Q149" s="107"/>
+      <c r="R149" s="107"/>
+      <c r="S149" s="107"/>
+    </row>
+    <row r="150" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G150" s="52"/>
       <c r="I150" s="53"/>
       <c r="K150" s="53"/>
       <c r="L150" s="54"/>
-      <c r="M150" s="86"/>
+      <c r="M150" s="84"/>
       <c r="N150" s="54"/>
-      <c r="O150" s="86"/>
-      <c r="P150" s="114"/>
-    </row>
-    <row r="151" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O150" s="84"/>
+      <c r="P150" s="107"/>
+      <c r="Q150" s="107"/>
+      <c r="R150" s="107"/>
+      <c r="S150" s="107"/>
+    </row>
+    <row r="151" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G151" s="52"/>
       <c r="I151" s="53"/>
       <c r="K151" s="53"/>
       <c r="L151" s="54"/>
-      <c r="M151" s="86"/>
+      <c r="M151" s="84"/>
       <c r="N151" s="54"/>
-      <c r="O151" s="86"/>
-      <c r="P151" s="114"/>
-    </row>
-    <row r="152" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O151" s="84"/>
+      <c r="P151" s="107"/>
+      <c r="Q151" s="107"/>
+      <c r="R151" s="107"/>
+      <c r="S151" s="107"/>
+    </row>
+    <row r="152" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G152" s="52"/>
       <c r="I152" s="53"/>
       <c r="K152" s="53"/>
       <c r="L152" s="54"/>
-      <c r="M152" s="86"/>
+      <c r="M152" s="84"/>
       <c r="N152" s="54"/>
-      <c r="O152" s="86"/>
-      <c r="P152" s="114"/>
-    </row>
-    <row r="153" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O152" s="84"/>
+      <c r="P152" s="107"/>
+      <c r="Q152" s="107"/>
+      <c r="R152" s="107"/>
+      <c r="S152" s="107"/>
+    </row>
+    <row r="153" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G153" s="52"/>
       <c r="I153" s="53"/>
       <c r="K153" s="53"/>
       <c r="L153" s="54"/>
-      <c r="M153" s="86"/>
+      <c r="M153" s="84"/>
       <c r="N153" s="54"/>
-      <c r="O153" s="86"/>
-      <c r="P153" s="114"/>
-    </row>
-    <row r="154" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O153" s="84"/>
+      <c r="P153" s="107"/>
+      <c r="Q153" s="107"/>
+      <c r="R153" s="107"/>
+      <c r="S153" s="107"/>
+    </row>
+    <row r="154" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G154" s="52"/>
       <c r="I154" s="53"/>
       <c r="K154" s="53"/>
       <c r="L154" s="54"/>
-      <c r="M154" s="86"/>
+      <c r="M154" s="84"/>
       <c r="N154" s="54"/>
-      <c r="O154" s="86"/>
-      <c r="P154" s="114"/>
-    </row>
-    <row r="155" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O154" s="84"/>
+      <c r="P154" s="107"/>
+      <c r="Q154" s="107"/>
+      <c r="R154" s="107"/>
+      <c r="S154" s="107"/>
+    </row>
+    <row r="155" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G155" s="52"/>
       <c r="I155" s="53"/>
       <c r="K155" s="53"/>
       <c r="L155" s="54"/>
-      <c r="M155" s="86"/>
+      <c r="M155" s="84"/>
       <c r="N155" s="54"/>
-      <c r="O155" s="86"/>
-      <c r="P155" s="114"/>
-    </row>
-    <row r="156" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O155" s="84"/>
+      <c r="P155" s="107"/>
+      <c r="Q155" s="107"/>
+      <c r="R155" s="107"/>
+      <c r="S155" s="107"/>
+    </row>
+    <row r="156" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G156" s="52"/>
       <c r="I156" s="53"/>
       <c r="K156" s="53"/>
       <c r="L156" s="54"/>
-      <c r="M156" s="86"/>
+      <c r="M156" s="84"/>
       <c r="N156" s="54"/>
-      <c r="O156" s="86"/>
-      <c r="P156" s="114"/>
-    </row>
-    <row r="157" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O156" s="84"/>
+      <c r="P156" s="107"/>
+      <c r="Q156" s="107"/>
+      <c r="R156" s="107"/>
+      <c r="S156" s="107"/>
+    </row>
+    <row r="157" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G157" s="52"/>
       <c r="I157" s="53"/>
       <c r="K157" s="53"/>
       <c r="L157" s="54"/>
-      <c r="M157" s="86"/>
+      <c r="M157" s="84"/>
       <c r="N157" s="54"/>
-      <c r="O157" s="86"/>
-      <c r="P157" s="114"/>
-    </row>
-    <row r="158" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O157" s="84"/>
+      <c r="P157" s="107"/>
+      <c r="Q157" s="107"/>
+      <c r="R157" s="107"/>
+      <c r="S157" s="107"/>
+    </row>
+    <row r="158" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G158" s="52"/>
       <c r="I158" s="53"/>
       <c r="K158" s="53"/>
       <c r="L158" s="54"/>
-      <c r="M158" s="86"/>
+      <c r="M158" s="84"/>
       <c r="N158" s="54"/>
-      <c r="O158" s="86"/>
-      <c r="P158" s="114"/>
-    </row>
-    <row r="159" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O158" s="84"/>
+      <c r="P158" s="107"/>
+      <c r="Q158" s="107"/>
+      <c r="R158" s="107"/>
+      <c r="S158" s="107"/>
+    </row>
+    <row r="159" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G159" s="52"/>
       <c r="I159" s="53"/>
       <c r="K159" s="53"/>
       <c r="L159" s="54"/>
-      <c r="M159" s="86"/>
+      <c r="M159" s="84"/>
       <c r="N159" s="54"/>
-      <c r="O159" s="86"/>
-      <c r="P159" s="114"/>
-    </row>
-    <row r="160" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O159" s="84"/>
+      <c r="P159" s="107"/>
+      <c r="Q159" s="107"/>
+      <c r="R159" s="107"/>
+      <c r="S159" s="107"/>
+    </row>
+    <row r="160" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G160" s="52"/>
       <c r="I160" s="53"/>
       <c r="K160" s="53"/>
       <c r="L160" s="54"/>
-      <c r="M160" s="86"/>
+      <c r="M160" s="84"/>
       <c r="N160" s="54"/>
-      <c r="O160" s="86"/>
-      <c r="P160" s="114"/>
-    </row>
-    <row r="161" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O160" s="84"/>
+      <c r="P160" s="107"/>
+      <c r="Q160" s="107"/>
+      <c r="R160" s="107"/>
+      <c r="S160" s="107"/>
+    </row>
+    <row r="161" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G161" s="52"/>
       <c r="I161" s="53"/>
       <c r="K161" s="53"/>
       <c r="L161" s="54"/>
-      <c r="M161" s="86"/>
+      <c r="M161" s="84"/>
       <c r="N161" s="54"/>
-      <c r="O161" s="86"/>
-      <c r="P161" s="114"/>
-    </row>
-    <row r="162" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O161" s="84"/>
+      <c r="P161" s="107"/>
+      <c r="Q161" s="107"/>
+      <c r="R161" s="107"/>
+      <c r="S161" s="107"/>
+    </row>
+    <row r="162" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G162" s="52"/>
       <c r="I162" s="53"/>
       <c r="K162" s="53"/>
       <c r="L162" s="54"/>
-      <c r="M162" s="86"/>
+      <c r="M162" s="84"/>
       <c r="N162" s="54"/>
-      <c r="O162" s="86"/>
-      <c r="P162" s="114"/>
-    </row>
-    <row r="163" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O162" s="84"/>
+      <c r="P162" s="107"/>
+      <c r="Q162" s="107"/>
+      <c r="R162" s="107"/>
+      <c r="S162" s="107"/>
+    </row>
+    <row r="163" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G163" s="52"/>
       <c r="I163" s="53"/>
       <c r="K163" s="53"/>
       <c r="L163" s="54"/>
-      <c r="M163" s="86"/>
+      <c r="M163" s="84"/>
       <c r="N163" s="54"/>
-      <c r="O163" s="86"/>
-      <c r="P163" s="114"/>
-    </row>
-    <row r="164" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O163" s="84"/>
+      <c r="P163" s="107"/>
+      <c r="Q163" s="107"/>
+      <c r="R163" s="107"/>
+      <c r="S163" s="107"/>
+    </row>
+    <row r="164" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G164" s="52"/>
       <c r="I164" s="53"/>
       <c r="K164" s="53"/>
       <c r="L164" s="54"/>
-      <c r="M164" s="86"/>
+      <c r="M164" s="84"/>
       <c r="N164" s="54"/>
-      <c r="O164" s="86"/>
-      <c r="P164" s="114"/>
-    </row>
-    <row r="165" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O164" s="84"/>
+      <c r="P164" s="107"/>
+      <c r="Q164" s="107"/>
+      <c r="R164" s="107"/>
+      <c r="S164" s="107"/>
+    </row>
+    <row r="165" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G165" s="52"/>
       <c r="I165" s="53"/>
       <c r="K165" s="53"/>
       <c r="L165" s="54"/>
-      <c r="M165" s="86"/>
+      <c r="M165" s="84"/>
       <c r="N165" s="54"/>
-      <c r="O165" s="86"/>
-      <c r="P165" s="114"/>
-    </row>
-    <row r="166" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O165" s="84"/>
+      <c r="P165" s="107"/>
+      <c r="Q165" s="107"/>
+      <c r="R165" s="107"/>
+      <c r="S165" s="107"/>
+    </row>
+    <row r="166" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G166" s="52"/>
       <c r="I166" s="53"/>
       <c r="K166" s="53"/>
       <c r="L166" s="54"/>
-      <c r="M166" s="86"/>
+      <c r="M166" s="84"/>
       <c r="N166" s="54"/>
-      <c r="O166" s="86"/>
-      <c r="P166" s="114"/>
-    </row>
-    <row r="167" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O166" s="84"/>
+      <c r="P166" s="107"/>
+      <c r="Q166" s="107"/>
+      <c r="R166" s="107"/>
+      <c r="S166" s="107"/>
+    </row>
+    <row r="167" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G167" s="52"/>
       <c r="I167" s="53"/>
       <c r="K167" s="53"/>
       <c r="L167" s="54"/>
-      <c r="M167" s="86"/>
+      <c r="M167" s="84"/>
       <c r="N167" s="54"/>
-      <c r="O167" s="86"/>
-      <c r="P167" s="114"/>
-    </row>
-    <row r="168" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O167" s="84"/>
+      <c r="P167" s="107"/>
+      <c r="Q167" s="107"/>
+      <c r="R167" s="107"/>
+      <c r="S167" s="107"/>
+    </row>
+    <row r="168" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G168" s="52"/>
       <c r="I168" s="53"/>
       <c r="K168" s="53"/>
       <c r="L168" s="54"/>
-      <c r="M168" s="86"/>
+      <c r="M168" s="84"/>
       <c r="N168" s="54"/>
-      <c r="O168" s="86"/>
-      <c r="P168" s="114"/>
-    </row>
-    <row r="169" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O168" s="84"/>
+      <c r="P168" s="107"/>
+      <c r="Q168" s="107"/>
+      <c r="R168" s="107"/>
+      <c r="S168" s="107"/>
+    </row>
+    <row r="169" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G169" s="52"/>
       <c r="I169" s="53"/>
       <c r="K169" s="53"/>
       <c r="L169" s="54"/>
-      <c r="M169" s="86"/>
+      <c r="M169" s="84"/>
       <c r="N169" s="54"/>
-      <c r="O169" s="86"/>
-      <c r="P169" s="114"/>
-    </row>
-    <row r="170" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O169" s="84"/>
+      <c r="P169" s="107"/>
+      <c r="Q169" s="107"/>
+      <c r="R169" s="107"/>
+      <c r="S169" s="107"/>
+    </row>
+    <row r="170" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G170" s="52"/>
       <c r="I170" s="53"/>
       <c r="K170" s="53"/>
       <c r="L170" s="54"/>
-      <c r="M170" s="86"/>
+      <c r="M170" s="84"/>
       <c r="N170" s="54"/>
-      <c r="O170" s="86"/>
-      <c r="P170" s="114"/>
-    </row>
-    <row r="171" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O170" s="84"/>
+      <c r="P170" s="107"/>
+      <c r="Q170" s="107"/>
+      <c r="R170" s="107"/>
+      <c r="S170" s="107"/>
+    </row>
+    <row r="171" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G171" s="52"/>
       <c r="I171" s="53"/>
       <c r="K171" s="53"/>
       <c r="L171" s="54"/>
-      <c r="M171" s="86"/>
+      <c r="M171" s="84"/>
       <c r="N171" s="54"/>
-      <c r="O171" s="86"/>
-      <c r="P171" s="114"/>
-    </row>
-    <row r="172" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O171" s="84"/>
+      <c r="P171" s="107"/>
+      <c r="Q171" s="107"/>
+      <c r="R171" s="107"/>
+      <c r="S171" s="107"/>
+    </row>
+    <row r="172" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G172" s="52"/>
       <c r="I172" s="53"/>
       <c r="K172" s="53"/>
       <c r="L172" s="54"/>
-      <c r="M172" s="86"/>
+      <c r="M172" s="84"/>
       <c r="N172" s="54"/>
-      <c r="O172" s="86"/>
-      <c r="P172" s="114"/>
-    </row>
-    <row r="173" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O172" s="84"/>
+      <c r="P172" s="107"/>
+      <c r="Q172" s="107"/>
+      <c r="R172" s="107"/>
+      <c r="S172" s="107"/>
+    </row>
+    <row r="173" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G173" s="52"/>
       <c r="I173" s="53"/>
       <c r="K173" s="53"/>
       <c r="L173" s="54"/>
-      <c r="M173" s="86"/>
+      <c r="M173" s="84"/>
       <c r="N173" s="54"/>
-      <c r="O173" s="86"/>
-      <c r="P173" s="114"/>
-    </row>
-    <row r="174" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O173" s="84"/>
+      <c r="P173" s="107"/>
+      <c r="Q173" s="107"/>
+      <c r="R173" s="107"/>
+      <c r="S173" s="107"/>
+    </row>
+    <row r="174" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G174" s="52"/>
       <c r="I174" s="53"/>
       <c r="K174" s="53"/>
       <c r="L174" s="54"/>
-      <c r="M174" s="86"/>
+      <c r="M174" s="84"/>
       <c r="N174" s="54"/>
-      <c r="O174" s="86"/>
-      <c r="P174" s="114"/>
-    </row>
-    <row r="175" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O174" s="84"/>
+      <c r="P174" s="107"/>
+      <c r="Q174" s="107"/>
+      <c r="R174" s="107"/>
+      <c r="S174" s="107"/>
+    </row>
+    <row r="175" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G175" s="52"/>
       <c r="I175" s="53"/>
       <c r="K175" s="53"/>
       <c r="L175" s="54"/>
-      <c r="M175" s="86"/>
+      <c r="M175" s="84"/>
       <c r="N175" s="54"/>
-      <c r="O175" s="86"/>
-      <c r="P175" s="114"/>
-    </row>
-    <row r="176" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O175" s="84"/>
+      <c r="P175" s="107"/>
+      <c r="Q175" s="107"/>
+      <c r="R175" s="107"/>
+      <c r="S175" s="107"/>
+    </row>
+    <row r="176" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G176" s="52"/>
       <c r="I176" s="53"/>
       <c r="K176" s="53"/>
       <c r="L176" s="54"/>
-      <c r="M176" s="86"/>
+      <c r="M176" s="84"/>
       <c r="N176" s="54"/>
-      <c r="O176" s="86"/>
-      <c r="P176" s="114"/>
-    </row>
-    <row r="177" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O176" s="84"/>
+      <c r="P176" s="107"/>
+      <c r="Q176" s="107"/>
+      <c r="R176" s="107"/>
+      <c r="S176" s="107"/>
+    </row>
+    <row r="177" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G177" s="52"/>
       <c r="I177" s="53"/>
       <c r="K177" s="53"/>
       <c r="L177" s="54"/>
-      <c r="M177" s="86"/>
+      <c r="M177" s="84"/>
       <c r="N177" s="54"/>
-      <c r="O177" s="86"/>
-      <c r="P177" s="114"/>
-    </row>
-    <row r="178" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O177" s="84"/>
+      <c r="P177" s="107"/>
+      <c r="Q177" s="107"/>
+      <c r="R177" s="107"/>
+      <c r="S177" s="107"/>
+    </row>
+    <row r="178" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G178" s="52"/>
       <c r="I178" s="53"/>
       <c r="K178" s="53"/>
       <c r="L178" s="54"/>
-      <c r="M178" s="86"/>
+      <c r="M178" s="84"/>
       <c r="N178" s="54"/>
-      <c r="O178" s="86"/>
-      <c r="P178" s="114"/>
-    </row>
-    <row r="179" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O178" s="84"/>
+      <c r="P178" s="107"/>
+      <c r="Q178" s="107"/>
+      <c r="R178" s="107"/>
+      <c r="S178" s="107"/>
+    </row>
+    <row r="179" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G179" s="52"/>
       <c r="I179" s="53"/>
       <c r="K179" s="53"/>
       <c r="L179" s="54"/>
-      <c r="M179" s="86"/>
+      <c r="M179" s="84"/>
       <c r="N179" s="54"/>
-      <c r="O179" s="86"/>
-      <c r="P179" s="114"/>
-    </row>
-    <row r="180" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O179" s="84"/>
+      <c r="P179" s="107"/>
+      <c r="Q179" s="107"/>
+      <c r="R179" s="107"/>
+      <c r="S179" s="107"/>
+    </row>
+    <row r="180" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G180" s="52"/>
       <c r="I180" s="53"/>
       <c r="K180" s="53"/>
       <c r="L180" s="54"/>
-      <c r="M180" s="86"/>
+      <c r="M180" s="84"/>
       <c r="N180" s="54"/>
-      <c r="O180" s="86"/>
-      <c r="P180" s="114"/>
-    </row>
-    <row r="181" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O180" s="84"/>
+      <c r="P180" s="107"/>
+      <c r="Q180" s="107"/>
+      <c r="R180" s="107"/>
+      <c r="S180" s="107"/>
+    </row>
+    <row r="181" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G181" s="52"/>
       <c r="I181" s="53"/>
       <c r="K181" s="53"/>
       <c r="L181" s="54"/>
-      <c r="M181" s="86"/>
+      <c r="M181" s="84"/>
       <c r="N181" s="54"/>
-      <c r="O181" s="86"/>
-      <c r="P181" s="114"/>
-    </row>
-    <row r="182" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O181" s="84"/>
+      <c r="P181" s="107"/>
+      <c r="Q181" s="107"/>
+      <c r="R181" s="107"/>
+      <c r="S181" s="107"/>
+    </row>
+    <row r="182" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G182" s="52"/>
       <c r="I182" s="53"/>
       <c r="K182" s="53"/>
       <c r="L182" s="54"/>
-      <c r="M182" s="86"/>
+      <c r="M182" s="84"/>
       <c r="N182" s="54"/>
-      <c r="O182" s="86"/>
-      <c r="P182" s="114"/>
-    </row>
-    <row r="183" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O182" s="84"/>
+      <c r="P182" s="107"/>
+      <c r="Q182" s="107"/>
+      <c r="R182" s="107"/>
+      <c r="S182" s="107"/>
+    </row>
+    <row r="183" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G183" s="52"/>
       <c r="I183" s="53"/>
       <c r="K183" s="53"/>
       <c r="L183" s="54"/>
-      <c r="M183" s="86"/>
+      <c r="M183" s="84"/>
       <c r="N183" s="54"/>
-      <c r="O183" s="86"/>
-      <c r="P183" s="114"/>
-    </row>
-    <row r="184" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O183" s="84"/>
+      <c r="P183" s="107"/>
+      <c r="Q183" s="107"/>
+      <c r="R183" s="107"/>
+      <c r="S183" s="107"/>
+    </row>
+    <row r="184" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G184" s="52"/>
       <c r="I184" s="53"/>
       <c r="K184" s="53"/>
       <c r="L184" s="54"/>
-      <c r="M184" s="86"/>
+      <c r="M184" s="84"/>
       <c r="N184" s="54"/>
-      <c r="O184" s="86"/>
-      <c r="P184" s="114"/>
-    </row>
-    <row r="185" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O184" s="84"/>
+      <c r="P184" s="107"/>
+      <c r="Q184" s="107"/>
+      <c r="R184" s="107"/>
+      <c r="S184" s="107"/>
+    </row>
+    <row r="185" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G185" s="52"/>
       <c r="I185" s="53"/>
       <c r="K185" s="53"/>
       <c r="L185" s="54"/>
-      <c r="M185" s="86"/>
+      <c r="M185" s="84"/>
       <c r="N185" s="54"/>
-      <c r="O185" s="86"/>
-      <c r="P185" s="114"/>
-    </row>
-    <row r="186" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O185" s="84"/>
+      <c r="P185" s="107"/>
+      <c r="Q185" s="107"/>
+      <c r="R185" s="107"/>
+      <c r="S185" s="107"/>
+    </row>
+    <row r="186" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G186" s="52"/>
       <c r="I186" s="53"/>
       <c r="K186" s="53"/>
       <c r="L186" s="54"/>
-      <c r="M186" s="86"/>
+      <c r="M186" s="84"/>
       <c r="N186" s="54"/>
-      <c r="O186" s="86"/>
-      <c r="P186" s="114"/>
-    </row>
-    <row r="187" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O186" s="84"/>
+      <c r="P186" s="107"/>
+      <c r="Q186" s="107"/>
+      <c r="R186" s="107"/>
+      <c r="S186" s="107"/>
+    </row>
+    <row r="187" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G187" s="52"/>
       <c r="I187" s="53"/>
       <c r="K187" s="53"/>
       <c r="L187" s="54"/>
-      <c r="M187" s="86"/>
+      <c r="M187" s="84"/>
       <c r="N187" s="54"/>
-      <c r="O187" s="86"/>
-      <c r="P187" s="114"/>
-    </row>
-    <row r="188" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O187" s="84"/>
+      <c r="P187" s="107"/>
+      <c r="Q187" s="107"/>
+      <c r="R187" s="107"/>
+      <c r="S187" s="107"/>
+    </row>
+    <row r="188" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G188" s="52"/>
       <c r="I188" s="53"/>
       <c r="K188" s="53"/>
       <c r="L188" s="54"/>
-      <c r="M188" s="86"/>
+      <c r="M188" s="84"/>
       <c r="N188" s="54"/>
-      <c r="O188" s="86"/>
-      <c r="P188" s="114"/>
-    </row>
-    <row r="189" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O188" s="84"/>
+      <c r="P188" s="107"/>
+      <c r="Q188" s="107"/>
+      <c r="R188" s="107"/>
+      <c r="S188" s="107"/>
+    </row>
+    <row r="189" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G189" s="52"/>
       <c r="I189" s="53"/>
       <c r="K189" s="53"/>
       <c r="L189" s="54"/>
-      <c r="M189" s="86"/>
+      <c r="M189" s="84"/>
       <c r="N189" s="54"/>
-      <c r="O189" s="86"/>
-      <c r="P189" s="114"/>
-    </row>
-    <row r="190" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O189" s="84"/>
+      <c r="P189" s="107"/>
+      <c r="Q189" s="107"/>
+      <c r="R189" s="107"/>
+      <c r="S189" s="107"/>
+    </row>
+    <row r="190" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G190" s="52"/>
       <c r="I190" s="53"/>
       <c r="K190" s="53"/>
       <c r="L190" s="54"/>
-      <c r="M190" s="86"/>
+      <c r="M190" s="84"/>
       <c r="N190" s="54"/>
-      <c r="O190" s="86"/>
-      <c r="P190" s="114"/>
-    </row>
-    <row r="191" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O190" s="84"/>
+      <c r="P190" s="107"/>
+      <c r="Q190" s="107"/>
+      <c r="R190" s="107"/>
+      <c r="S190" s="107"/>
+    </row>
+    <row r="191" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G191" s="52"/>
       <c r="I191" s="53"/>
       <c r="K191" s="53"/>
       <c r="L191" s="54"/>
-      <c r="M191" s="86"/>
+      <c r="M191" s="84"/>
       <c r="N191" s="54"/>
-      <c r="O191" s="86"/>
-      <c r="P191" s="114"/>
-    </row>
-    <row r="192" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O191" s="84"/>
+      <c r="P191" s="107"/>
+      <c r="Q191" s="107"/>
+      <c r="R191" s="107"/>
+      <c r="S191" s="107"/>
+    </row>
+    <row r="192" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G192" s="52"/>
       <c r="I192" s="53"/>
       <c r="K192" s="53"/>
       <c r="L192" s="54"/>
-      <c r="M192" s="86"/>
+      <c r="M192" s="84"/>
       <c r="N192" s="54"/>
-      <c r="O192" s="86"/>
-      <c r="P192" s="114"/>
-    </row>
-    <row r="193" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O192" s="84"/>
+      <c r="P192" s="107"/>
+      <c r="Q192" s="107"/>
+      <c r="R192" s="107"/>
+      <c r="S192" s="107"/>
+    </row>
+    <row r="193" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G193" s="52"/>
       <c r="I193" s="53"/>
       <c r="K193" s="53"/>
       <c r="L193" s="54"/>
-      <c r="M193" s="86"/>
+      <c r="M193" s="84"/>
       <c r="N193" s="54"/>
-      <c r="O193" s="86"/>
-      <c r="P193" s="114"/>
-    </row>
-    <row r="194" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O193" s="84"/>
+      <c r="P193" s="107"/>
+      <c r="Q193" s="107"/>
+      <c r="R193" s="107"/>
+      <c r="S193" s="107"/>
+    </row>
+    <row r="194" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G194" s="52"/>
       <c r="I194" s="53"/>
       <c r="K194" s="53"/>
       <c r="L194" s="54"/>
-      <c r="M194" s="86"/>
+      <c r="M194" s="84"/>
       <c r="N194" s="54"/>
-      <c r="O194" s="86"/>
-      <c r="P194" s="114"/>
-    </row>
-    <row r="195" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O194" s="84"/>
+      <c r="P194" s="107"/>
+      <c r="Q194" s="107"/>
+      <c r="R194" s="107"/>
+      <c r="S194" s="107"/>
+    </row>
+    <row r="195" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G195" s="52"/>
       <c r="I195" s="53"/>
       <c r="K195" s="53"/>
       <c r="L195" s="54"/>
-      <c r="M195" s="86"/>
+      <c r="M195" s="84"/>
       <c r="N195" s="54"/>
-      <c r="O195" s="86"/>
-      <c r="P195" s="114"/>
-    </row>
-    <row r="196" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O195" s="84"/>
+      <c r="P195" s="107"/>
+      <c r="Q195" s="107"/>
+      <c r="R195" s="107"/>
+      <c r="S195" s="107"/>
+    </row>
+    <row r="196" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G196" s="52"/>
       <c r="I196" s="53"/>
       <c r="K196" s="53"/>
       <c r="L196" s="54"/>
-      <c r="M196" s="86"/>
+      <c r="M196" s="84"/>
       <c r="N196" s="54"/>
-      <c r="O196" s="86"/>
-      <c r="P196" s="114"/>
-    </row>
-    <row r="197" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O196" s="84"/>
+      <c r="P196" s="107"/>
+      <c r="Q196" s="107"/>
+      <c r="R196" s="107"/>
+      <c r="S196" s="107"/>
+    </row>
+    <row r="197" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G197" s="52"/>
       <c r="I197" s="53"/>
       <c r="K197" s="53"/>
       <c r="L197" s="54"/>
-      <c r="M197" s="86"/>
+      <c r="M197" s="84"/>
       <c r="N197" s="54"/>
-      <c r="O197" s="86"/>
-      <c r="P197" s="114"/>
-    </row>
-    <row r="198" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O197" s="84"/>
+      <c r="P197" s="107"/>
+      <c r="Q197" s="107"/>
+      <c r="R197" s="107"/>
+      <c r="S197" s="107"/>
+    </row>
+    <row r="198" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G198" s="52"/>
       <c r="I198" s="53"/>
       <c r="K198" s="53"/>
       <c r="L198" s="54"/>
-      <c r="M198" s="86"/>
+      <c r="M198" s="84"/>
       <c r="N198" s="54"/>
-      <c r="O198" s="86"/>
-      <c r="P198" s="114"/>
-    </row>
-    <row r="199" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O198" s="84"/>
+      <c r="P198" s="107"/>
+      <c r="Q198" s="107"/>
+      <c r="R198" s="107"/>
+      <c r="S198" s="107"/>
+    </row>
+    <row r="199" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G199" s="52"/>
       <c r="I199" s="53"/>
       <c r="K199" s="53"/>
       <c r="L199" s="54"/>
-      <c r="M199" s="86"/>
+      <c r="M199" s="84"/>
       <c r="N199" s="54"/>
-      <c r="O199" s="86"/>
-      <c r="P199" s="114"/>
-    </row>
-    <row r="200" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O199" s="84"/>
+      <c r="P199" s="107"/>
+      <c r="Q199" s="107"/>
+      <c r="R199" s="107"/>
+      <c r="S199" s="107"/>
+    </row>
+    <row r="200" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G200" s="52"/>
       <c r="I200" s="53"/>
       <c r="K200" s="53"/>
       <c r="L200" s="54"/>
-      <c r="M200" s="86"/>
+      <c r="M200" s="84"/>
       <c r="N200" s="54"/>
-      <c r="O200" s="86"/>
-      <c r="P200" s="114"/>
-    </row>
-    <row r="201" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O200" s="84"/>
+      <c r="P200" s="107"/>
+      <c r="Q200" s="107"/>
+      <c r="R200" s="107"/>
+      <c r="S200" s="107"/>
+    </row>
+    <row r="201" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G201" s="52"/>
       <c r="I201" s="53"/>
       <c r="K201" s="53"/>
       <c r="L201" s="54"/>
-      <c r="M201" s="86"/>
+      <c r="M201" s="84"/>
       <c r="N201" s="54"/>
-      <c r="O201" s="86"/>
-      <c r="P201" s="114"/>
-    </row>
-    <row r="202" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O201" s="84"/>
+      <c r="P201" s="107"/>
+      <c r="Q201" s="107"/>
+      <c r="R201" s="107"/>
+      <c r="S201" s="107"/>
+    </row>
+    <row r="202" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G202" s="52"/>
       <c r="I202" s="53"/>
       <c r="K202" s="53"/>
       <c r="L202" s="54"/>
-      <c r="M202" s="86"/>
+      <c r="M202" s="84"/>
       <c r="N202" s="54"/>
-      <c r="O202" s="86"/>
-      <c r="P202" s="114"/>
-    </row>
-    <row r="203" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O202" s="84"/>
+      <c r="P202" s="107"/>
+      <c r="Q202" s="107"/>
+      <c r="R202" s="107"/>
+      <c r="S202" s="107"/>
+    </row>
+    <row r="203" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G203" s="52"/>
       <c r="I203" s="53"/>
       <c r="K203" s="53"/>
       <c r="L203" s="54"/>
-      <c r="M203" s="86"/>
+      <c r="M203" s="84"/>
       <c r="N203" s="54"/>
-      <c r="O203" s="86"/>
-      <c r="P203" s="114"/>
-    </row>
-    <row r="204" spans="7:16" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O203" s="84"/>
+      <c r="P203" s="107"/>
+      <c r="Q203" s="107"/>
+      <c r="R203" s="107"/>
+      <c r="S203" s="107"/>
+    </row>
+    <row r="204" spans="7:19" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G204" s="52"/>
       <c r="I204" s="53"/>
       <c r="K204" s="53"/>
       <c r="L204" s="54"/>
-      <c r="M204" s="86"/>
+      <c r="M204" s="84"/>
       <c r="N204" s="54"/>
-      <c r="O204" s="86"/>
-      <c r="P204" s="114"/>
-    </row>
-    <row r="205" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O204" s="84"/>
+      <c r="P204" s="107"/>
+      <c r="Q204" s="107"/>
+      <c r="R204" s="107"/>
+      <c r="S204" s="107"/>
+    </row>
+    <row r="205" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G205" s="52"/>
       <c r="I205" s="53"/>
       <c r="K205" s="53"/>
       <c r="L205" s="54"/>
-      <c r="M205" s="86"/>
+      <c r="M205" s="84"/>
       <c r="N205" s="54"/>
-      <c r="O205" s="86"/>
-      <c r="P205" s="114"/>
-    </row>
-    <row r="206" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O205" s="84"/>
+      <c r="P205" s="107"/>
+      <c r="Q205" s="107"/>
+      <c r="R205" s="107"/>
+      <c r="S205" s="107"/>
+    </row>
+    <row r="206" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G206" s="52"/>
       <c r="I206" s="53"/>
       <c r="K206" s="53"/>
       <c r="L206" s="54"/>
-      <c r="M206" s="86"/>
+      <c r="M206" s="84"/>
       <c r="N206" s="54"/>
-      <c r="O206" s="86"/>
-      <c r="P206" s="114"/>
-    </row>
-    <row r="207" spans="7:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O206" s="84"/>
+      <c r="P206" s="107"/>
+      <c r="Q206" s="107"/>
+      <c r="R206" s="107"/>
+      <c r="S206" s="107"/>
+    </row>
+    <row r="207" spans="7:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G207" s="52"/>
       <c r="I207" s="53"/>
       <c r="K207" s="53"/>
       <c r="L207" s="54"/>
-      <c r="M207" s="86"/>
+      <c r="M207" s="84"/>
       <c r="N207" s="54"/>
-      <c r="O207" s="86"/>
-      <c r="P207" s="114"/>
-    </row>
-    <row r="208" spans="7:16" s="51" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O207" s="84"/>
+      <c r="P207" s="107"/>
+      <c r="Q207" s="107"/>
+      <c r="R207" s="107"/>
+      <c r="S207" s="107"/>
+    </row>
+    <row r="208" spans="7:19" s="51" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G208" s="52"/>
       <c r="I208" s="53"/>
       <c r="K208" s="53"/>
       <c r="L208" s="54"/>
-      <c r="M208" s="86"/>
+      <c r="M208" s="84"/>
       <c r="N208" s="54"/>
-      <c r="O208" s="86"/>
-      <c r="P208" s="114"/>
-    </row>
-    <row r="209" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O208" s="84"/>
+      <c r="P208" s="107"/>
+      <c r="Q208" s="107"/>
+      <c r="R208" s="107"/>
+      <c r="S208" s="107"/>
+    </row>
+    <row r="209" spans="4:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G209" s="52"/>
       <c r="I209" s="53"/>
       <c r="K209" s="53"/>
       <c r="L209" s="54"/>
-      <c r="M209" s="86"/>
+      <c r="M209" s="84"/>
       <c r="N209" s="54"/>
-      <c r="O209" s="86"/>
-      <c r="P209" s="114"/>
-    </row>
-    <row r="210" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O209" s="84"/>
+      <c r="P209" s="107"/>
+      <c r="Q209" s="107"/>
+      <c r="R209" s="107"/>
+      <c r="S209" s="107"/>
+    </row>
+    <row r="210" spans="4:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G210" s="52"/>
       <c r="I210" s="53"/>
       <c r="K210" s="53"/>
       <c r="L210" s="54"/>
-      <c r="M210" s="86"/>
+      <c r="M210" s="84"/>
       <c r="N210" s="54"/>
-      <c r="O210" s="86"/>
-      <c r="P210" s="114"/>
-    </row>
-    <row r="211" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O210" s="84"/>
+      <c r="P210" s="107"/>
+      <c r="Q210" s="107"/>
+      <c r="R210" s="107"/>
+      <c r="S210" s="107"/>
+    </row>
+    <row r="211" spans="4:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G211" s="52"/>
       <c r="I211" s="53"/>
       <c r="K211" s="53"/>
       <c r="L211" s="54"/>
-      <c r="M211" s="86"/>
+      <c r="M211" s="84"/>
       <c r="N211" s="54"/>
-      <c r="O211" s="86"/>
-      <c r="P211" s="114"/>
-    </row>
-    <row r="212" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O211" s="84"/>
+      <c r="P211" s="107"/>
+      <c r="Q211" s="107"/>
+      <c r="R211" s="107"/>
+      <c r="S211" s="107"/>
+    </row>
+    <row r="212" spans="4:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G212" s="52"/>
       <c r="I212" s="53"/>
       <c r="K212" s="53"/>
       <c r="L212" s="54"/>
-      <c r="M212" s="86"/>
+      <c r="M212" s="84"/>
       <c r="N212" s="54"/>
-      <c r="O212" s="86"/>
-      <c r="P212" s="114"/>
-    </row>
-    <row r="213" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O212" s="84"/>
+      <c r="P212" s="107"/>
+      <c r="Q212" s="107"/>
+      <c r="R212" s="107"/>
+      <c r="S212" s="107"/>
+    </row>
+    <row r="213" spans="4:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G213" s="52"/>
       <c r="I213" s="53"/>
       <c r="K213" s="53"/>
       <c r="L213" s="54"/>
-      <c r="M213" s="86"/>
+      <c r="M213" s="84"/>
       <c r="N213" s="54"/>
-      <c r="O213" s="86"/>
-      <c r="P213" s="114"/>
-    </row>
-    <row r="214" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O213" s="84"/>
+      <c r="P213" s="107"/>
+      <c r="Q213" s="107"/>
+      <c r="R213" s="107"/>
+      <c r="S213" s="107"/>
+    </row>
+    <row r="214" spans="4:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G214" s="52"/>
       <c r="I214" s="53"/>
       <c r="K214" s="53"/>
       <c r="L214" s="54"/>
-      <c r="M214" s="86"/>
+      <c r="M214" s="84"/>
       <c r="N214" s="54"/>
-      <c r="O214" s="86"/>
-      <c r="P214" s="114"/>
-    </row>
-    <row r="215" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O214" s="84"/>
+      <c r="P214" s="107"/>
+      <c r="Q214" s="107"/>
+      <c r="R214" s="107"/>
+      <c r="S214" s="107"/>
+    </row>
+    <row r="215" spans="4:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G215" s="52"/>
       <c r="I215" s="53"/>
       <c r="K215" s="53"/>
       <c r="L215" s="54"/>
-      <c r="M215" s="86"/>
+      <c r="M215" s="84"/>
       <c r="N215" s="54"/>
-      <c r="O215" s="86"/>
-      <c r="P215" s="114"/>
-    </row>
-    <row r="216" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O215" s="84"/>
+      <c r="P215" s="107"/>
+      <c r="Q215" s="107"/>
+      <c r="R215" s="107"/>
+      <c r="S215" s="107"/>
+    </row>
+    <row r="216" spans="4:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G216" s="52"/>
       <c r="I216" s="53"/>
       <c r="K216" s="53"/>
       <c r="L216" s="54"/>
-      <c r="M216" s="86"/>
+      <c r="M216" s="84"/>
       <c r="N216" s="54"/>
-      <c r="O216" s="86"/>
-      <c r="P216" s="114"/>
-    </row>
-    <row r="217" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O216" s="84"/>
+      <c r="P216" s="107"/>
+      <c r="Q216" s="107"/>
+      <c r="R216" s="107"/>
+      <c r="S216" s="107"/>
+    </row>
+    <row r="217" spans="4:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G217" s="52"/>
       <c r="I217" s="53"/>
       <c r="K217" s="53"/>
       <c r="L217" s="54"/>
-      <c r="M217" s="86"/>
+      <c r="M217" s="84"/>
       <c r="N217" s="54"/>
-      <c r="O217" s="86"/>
-      <c r="P217" s="114"/>
-    </row>
-    <row r="218" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O217" s="84"/>
+      <c r="P217" s="107"/>
+      <c r="Q217" s="107"/>
+      <c r="R217" s="107"/>
+      <c r="S217" s="107"/>
+    </row>
+    <row r="218" spans="4:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G218" s="52"/>
       <c r="I218" s="53"/>
       <c r="K218" s="53"/>
       <c r="L218" s="54"/>
-      <c r="M218" s="86"/>
+      <c r="M218" s="84"/>
       <c r="N218" s="54"/>
-      <c r="O218" s="86"/>
-      <c r="P218" s="114"/>
-    </row>
-    <row r="219" spans="4:16" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O218" s="84"/>
+      <c r="P218" s="107"/>
+      <c r="Q218" s="107"/>
+      <c r="R218" s="107"/>
+      <c r="S218" s="107"/>
+    </row>
+    <row r="219" spans="4:19" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G219" s="52"/>
       <c r="I219" s="53"/>
       <c r="K219" s="53"/>
       <c r="L219" s="54"/>
-      <c r="M219" s="86"/>
+      <c r="M219" s="84"/>
       <c r="N219" s="54"/>
-      <c r="O219" s="86"/>
-      <c r="P219" s="114"/>
-    </row>
-    <row r="224" spans="4:16" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O219" s="84"/>
+      <c r="P219" s="107"/>
+      <c r="Q219" s="107"/>
+      <c r="R219" s="107"/>
+      <c r="S219" s="107"/>
+    </row>
+    <row r="224" spans="4:19" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D224" s="55"/>
       <c r="E224" s="55"/>
       <c r="F224" s="55"/>
@@ -8899,34 +10321,58 @@
       <c r="I224" s="56"/>
       <c r="K224" s="56"/>
       <c r="L224" s="5"/>
-      <c r="M224" s="87"/>
+      <c r="M224" s="85"/>
       <c r="N224" s="5"/>
-      <c r="O224" s="87"/>
-      <c r="P224" s="110"/>
-    </row>
-    <row r="225" spans="4:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O224" s="85"/>
+      <c r="P224" s="103"/>
+      <c r="Q224" s="103"/>
+      <c r="R224" s="103"/>
+      <c r="S224" s="103"/>
+    </row>
+    <row r="225" spans="4:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D225" s="50"/>
       <c r="E225" s="50"/>
       <c r="F225" s="50"/>
       <c r="G225" s="4"/>
       <c r="I225" s="6"/>
       <c r="K225" s="6"/>
-      <c r="M225" s="81"/>
-      <c r="O225" s="81"/>
-      <c r="P225" s="110"/>
+      <c r="M225" s="80"/>
+      <c r="O225" s="80"/>
+      <c r="P225" s="103"/>
+      <c r="Q225" s="103"/>
+      <c r="R225" s="103"/>
+      <c r="S225" s="103"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:C7"/>
-    <mergeCell ref="H5:R5"/>
-    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="H5:U5"/>
+    <mergeCell ref="AD8:AF8"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:O6"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
+  <conditionalFormatting sqref="Q11:R22">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q24:R37">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q39:R57">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="1" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="5" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="97" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="57" max="16383" man="1"/>
@@ -8958,21 +10404,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
       <c r="D3" s="57" t="s">
         <v>6</v>
       </c>
